--- a/tecnica_analise/2023/bts-asian2023.xlsx
+++ b/tecnica_analise/2023/bts-asian2023.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="agosto" sheetId="1" r:id="rId1"/>
+    <sheet name="agostInvest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="77">
   <si>
     <t>DATA</t>
   </si>
@@ -146,9 +147,6 @@
     <t>LEAGUE ONE</t>
   </si>
   <si>
-    <t>superhome</t>
-  </si>
-  <si>
     <t>0--0</t>
   </si>
   <si>
@@ -185,9 +183,6 @@
     <t>RETURN</t>
   </si>
   <si>
-    <t>PROFIF</t>
-  </si>
-  <si>
     <t>PRICE</t>
   </si>
   <si>
@@ -215,32 +210,76 @@
     <t>MONTH RATE</t>
   </si>
   <si>
-    <t>CAPITAL</t>
-  </si>
-  <si>
     <t>STAKE</t>
   </si>
   <si>
-    <t>stake bet matriz-primo/…</t>
-  </si>
-  <si>
-    <t>STAKE BET EX-OVER 2%</t>
-  </si>
-  <si>
     <t>LUCRO</t>
   </si>
   <si>
     <t>RATE</t>
+  </si>
+  <si>
+    <t>ANALISE-TECNICA BTS</t>
+  </si>
+  <si>
+    <t>PROFIT</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>CAPITAL INICIAL BANTUBET</t>
+  </si>
+  <si>
+    <r>
+      <t>CAPITAL</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF6600"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> INVEST</t>
+    </r>
+  </si>
+  <si>
+    <t>STAKE BET MATRIZ-FULL 2%</t>
+  </si>
+  <si>
+    <t>homesuper</t>
+  </si>
+  <si>
+    <t>EC SAO JOSE vs AMAZONAS</t>
+  </si>
+  <si>
+    <t>BRAZIL - SERIE C</t>
+  </si>
+  <si>
+    <t>FAGIANO OKAYAMA vs OITA TRINITA</t>
+  </si>
+  <si>
+    <t>PAU FC vs PARIS FC</t>
+  </si>
+  <si>
+    <t>FRANCE - LIGUE 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,8 +317,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF6600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,27 +369,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -335,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
@@ -353,40 +449,120 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -404,6 +580,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -683,24 +879,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="6" customWidth="1"/>
+    <col min="4" max="8" width="9.140625" style="6"/>
     <col min="9" max="9" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9.140625" style="6"/>
+    <col min="13" max="13" width="27" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="144.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="144.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,1087 +935,1591 @@
       <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>45139</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>2.09</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="6">
         <v>3.06</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>4.3899999999999997</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <v>2.39</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="6">
         <v>2.87</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="6">
         <v>1.44</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="6">
         <v>2.41</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="33">
         <v>1.59</v>
       </c>
-      <c r="L2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2">
-        <v>1.59</v>
-      </c>
-      <c r="N2" s="8" t="s">
+      <c r="L2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="16">
-        <f>M2*C$42</f>
-        <v>591.48</v>
-      </c>
-      <c r="P2" s="16">
-        <f>O2-C$42</f>
-        <v>219.48000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>45142</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>1.81</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <v>3.91</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>4.0199999999999996</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>404</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="6">
         <v>1.73</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="6">
         <v>2.11</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="33">
         <v>1.69</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="6">
         <v>2.17</v>
       </c>
-      <c r="L3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3">
-        <v>2.17</v>
-      </c>
-      <c r="N3" s="6" t="s">
+      <c r="L3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="16">
-        <f t="shared" ref="O3:O4" si="0">M3*C$42</f>
-        <v>807.24</v>
-      </c>
-      <c r="P3" s="16">
-        <f t="shared" ref="P3:P18" si="1">O3-C$42</f>
-        <v>435.24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>45143</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>2.48</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>3.52</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>2.9</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>3.83</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <v>1.89</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="6">
         <v>1.98</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="33">
         <v>1.65</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="6">
         <v>2.2799999999999998</v>
       </c>
-      <c r="L4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="N4" s="6" t="s">
+      <c r="L4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="16">
-        <f t="shared" si="0"/>
-        <v>848.16</v>
-      </c>
-      <c r="P4" s="16">
-        <f t="shared" si="1"/>
-        <v>476.15999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>45143</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>3.16</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>3.57</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>2.3199999999999998</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <v>3.8</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <v>1.93</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="6">
         <v>1.96</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="6">
         <v>1.75</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="6">
         <v>2.13</v>
       </c>
-      <c r="L5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5">
-        <v>2.13</v>
-      </c>
-      <c r="N5" s="6" t="s">
+      <c r="L5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="16">
-        <f t="shared" ref="O5:O18" si="2">M5*C$42</f>
-        <v>792.36</v>
-      </c>
-      <c r="P5" s="16">
-        <f t="shared" si="1"/>
-        <v>420.36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>45144</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>1.94</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <v>3.68</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>4.12</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <v>3.72</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="6">
         <v>1.94</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="6">
         <v>1.94</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="6">
         <v>1.76</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="6">
         <v>2.12</v>
       </c>
-      <c r="L6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6">
-        <v>2.12</v>
-      </c>
-      <c r="N6" s="6" t="s">
+      <c r="L6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="16">
-        <v>0</v>
-      </c>
-      <c r="P6" s="16">
-        <f t="shared" si="1"/>
-        <v>-372</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>45144</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>2.95</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>3.08</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>2.71</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <v>2.89</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="6">
         <v>2.42</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="6">
         <v>1.61</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="6">
         <v>1.95</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="34">
         <v>1.9</v>
       </c>
-      <c r="L7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7">
-        <v>1.9</v>
-      </c>
-      <c r="N7" s="6" t="s">
+      <c r="L7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O7" s="16">
-        <f t="shared" si="2"/>
-        <v>706.8</v>
-      </c>
-      <c r="P7" s="16">
-        <f t="shared" si="1"/>
-        <v>334.79999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>45144</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>1.71</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>4.1100000000000003</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>4.75</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <v>4.24</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="6">
         <v>1.74</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="6">
         <v>2.16</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="33">
         <v>1.74</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="6">
         <v>2.14</v>
       </c>
-      <c r="L8" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8">
-        <v>2.14</v>
-      </c>
-      <c r="N8" s="6" t="s">
+      <c r="L8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="16">
-        <f t="shared" si="2"/>
-        <v>796.08</v>
-      </c>
-      <c r="P8" s="16">
-        <f t="shared" si="1"/>
-        <v>424.08000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>45144</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>1.58</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <v>4.51</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>5.52</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="6">
         <v>1.67</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="6">
         <v>2.27</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="33">
         <v>1.74</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="6">
         <v>2.13</v>
       </c>
-      <c r="L9" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9">
-        <v>2.13</v>
-      </c>
-      <c r="N9" s="6" t="s">
+      <c r="L9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="16">
-        <v>0</v>
-      </c>
-      <c r="P9" s="16">
-        <f t="shared" si="1"/>
-        <v>-372</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>45144</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>3.32</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <v>3.05</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>2.4700000000000002</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <v>2.64</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="6">
         <v>2.63</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="6">
         <v>1.52</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="6">
         <v>2.14</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="34">
         <v>1.74</v>
       </c>
-      <c r="L10" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10">
-        <v>1.74</v>
-      </c>
-      <c r="N10" s="6" t="s">
+      <c r="L10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="16">
-        <f t="shared" si="2"/>
-        <v>647.28</v>
-      </c>
-      <c r="P10" s="16">
-        <f t="shared" si="1"/>
-        <v>275.27999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>45150</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>2.23</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <v>3.37</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>3.54</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="6">
         <v>3.13</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="6">
         <v>2.21</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="6">
         <v>1.72</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="6">
         <v>1.94</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="35">
         <v>1.91</v>
       </c>
-      <c r="L11" t="s">
-        <v>48</v>
-      </c>
-      <c r="M11">
-        <v>1.91</v>
-      </c>
-      <c r="N11" s="6" t="s">
+      <c r="L11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="16">
-        <v>0</v>
-      </c>
-      <c r="P11" s="16">
-        <f t="shared" si="1"/>
-        <v>-372</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>45150</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>2.61</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6">
         <v>3.39</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <v>2.86</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="6">
         <v>3.32</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="6">
         <v>2.14</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="6">
         <v>1.77</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="6">
         <v>1.87</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="35">
         <v>1.99</v>
       </c>
-      <c r="L12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M12">
-        <v>1.99</v>
-      </c>
-      <c r="N12" s="6" t="s">
+      <c r="L12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="16">
-        <v>0</v>
-      </c>
-      <c r="P12" s="16">
-        <f t="shared" si="1"/>
-        <v>-372</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>45150</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <v>2.5</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="6">
         <v>3.26</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
         <v>2.86</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="6">
         <v>404</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="6">
         <v>2.0499999999999998</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="6">
         <v>1.8</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="6">
         <v>1.79</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="34">
         <v>2.0299999999999998</v>
       </c>
-      <c r="L13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M13">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="N13" s="6" t="s">
+      <c r="L13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O13" s="16">
-        <f t="shared" si="2"/>
-        <v>755.16</v>
-      </c>
-      <c r="P13" s="16">
-        <f t="shared" si="1"/>
-        <v>383.15999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>45150</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="6">
         <v>2.11</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="6">
         <v>3.7</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="6">
         <v>3.44</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="6">
         <v>4.28</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="6">
         <v>1.76</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="6">
         <v>2.13</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="33">
         <v>1.63</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="6">
         <v>2.3199999999999998</v>
       </c>
-      <c r="L14" t="s">
-        <v>45</v>
-      </c>
-      <c r="M14">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="N14" s="6" t="s">
+      <c r="L14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="16">
-        <f t="shared" si="2"/>
-        <v>863.04</v>
-      </c>
-      <c r="P14" s="16">
-        <f t="shared" si="1"/>
-        <v>491.03999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>45150</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="6">
         <v>2.39</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="6">
         <v>3.32</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="6">
         <v>2.96</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="6">
         <v>404</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="6">
         <v>2.1</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="6">
         <v>1.74</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="6">
         <v>1.85</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="35">
         <v>1.94</v>
       </c>
-      <c r="L15" t="s">
-        <v>42</v>
-      </c>
-      <c r="M15">
-        <v>1.94</v>
-      </c>
-      <c r="N15" s="6" t="s">
+      <c r="L15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O15" s="16">
-        <v>0</v>
-      </c>
-      <c r="P15" s="16">
-        <f t="shared" si="1"/>
-        <v>-372</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>45151</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="6">
         <v>1.98</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="6">
         <v>3.4</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="6">
         <v>4.3600000000000003</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="6">
         <v>3.08</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="6">
         <v>2.2400000000000002</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="6">
         <v>1.7</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="6">
         <v>1.99</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="35">
         <v>1.87</v>
       </c>
-      <c r="L16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M16">
-        <v>1.87</v>
-      </c>
-      <c r="N16" s="6" t="s">
+      <c r="L16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="16">
-        <v>0</v>
-      </c>
-      <c r="P16" s="16">
-        <f t="shared" si="1"/>
-        <v>-372</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>45151</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="6">
         <v>1.85</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="6">
         <v>3.77</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
         <v>4.33</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="6">
         <v>3.93</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="6">
         <v>1.84</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="6">
         <v>2.04</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="6">
         <v>1.75</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="6">
         <v>2.13</v>
       </c>
-      <c r="L17" t="s">
-        <v>50</v>
-      </c>
-      <c r="M17">
-        <v>2.13</v>
-      </c>
-      <c r="N17" s="6" t="s">
+      <c r="L17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O17" s="16">
-        <f t="shared" si="2"/>
-        <v>792.36</v>
-      </c>
-      <c r="P17" s="16">
-        <f t="shared" si="1"/>
-        <v>420.36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>45152</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="6">
         <v>1.6</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="6">
         <v>4.0599999999999996</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="6">
         <v>6.35</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="6">
         <v>3.41</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="6">
         <v>2.08</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="6">
         <v>1.83</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="6">
         <v>2.11</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="34">
         <v>1.77</v>
       </c>
-      <c r="L18" t="s">
-        <v>45</v>
-      </c>
-      <c r="M18">
-        <v>1.77</v>
-      </c>
-      <c r="N18" s="6" t="s">
+      <c r="L18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O18" s="16">
-        <f t="shared" si="2"/>
-        <v>658.44</v>
-      </c>
-      <c r="P18" s="16">
-        <f t="shared" si="1"/>
-        <v>286.44000000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>45153</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
       <c r="I19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L19" t="s">
-        <v>41</v>
-      </c>
-      <c r="N19" s="6" t="s">
+      <c r="M19" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>45155</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20">
+        <v>50</v>
+      </c>
+      <c r="C20" s="6">
         <v>1.595</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="6">
         <v>4.17</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="6">
         <v>5.04</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="6">
         <v>404</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="6">
         <v>1.7290000000000001</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="6">
         <v>2.09</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="6">
+        <v>1.806</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1.99</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>45157</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2.12</v>
+      </c>
+      <c r="D21" s="6">
+        <v>3.17</v>
+      </c>
+      <c r="E21" s="6">
+        <v>3.62</v>
+      </c>
+      <c r="F21" s="6">
+        <v>404</v>
+      </c>
+      <c r="G21" s="6">
+        <v>2.19</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1.66</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="6">
+        <v>404</v>
+      </c>
+      <c r="K21" s="6">
+        <v>404</v>
+      </c>
+      <c r="L21" s="6">
+        <v>404</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>45157</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D22" s="6">
+        <v>3.29</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2.97</v>
+      </c>
+      <c r="F22" s="6">
+        <v>3.17</v>
+      </c>
+      <c r="G22" s="6">
+        <v>2.19</v>
+      </c>
+      <c r="H22" s="6">
+        <v>1.7190000000000001</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="6">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="K22" s="6">
+        <v>1.9430000000000001</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>45157</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D23" s="6">
+        <v>3.27</v>
+      </c>
+      <c r="E23" s="6">
+        <v>3.06</v>
+      </c>
+      <c r="F23" s="6">
+        <v>3.43</v>
+      </c>
+      <c r="G23" s="6">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H23" s="6">
         <v>1.8</v>
       </c>
-      <c r="K20">
-        <v>1.92</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="6">
+        <v>1.7869999999999999</v>
+      </c>
+      <c r="K23" s="6">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="O2:O18">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I42"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="6"/>
+    <col min="4" max="4" width="18.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="6"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="92.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>45144</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1.93</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14">
+        <f>C2*D$39</f>
+        <v>1158</v>
+      </c>
+      <c r="G2" s="14">
+        <f t="shared" ref="G2:G7" si="0">F2-D$39</f>
+        <v>558</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>45144</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="15">
+        <v>1.74</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14">
+        <f>C3*D$39</f>
+        <v>1044</v>
+      </c>
+      <c r="G3" s="14">
+        <f t="shared" si="0"/>
+        <v>444</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>45144</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1.74</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14">
+        <f>C4*D$39</f>
+        <v>1044</v>
+      </c>
+      <c r="G4" s="14">
+        <f t="shared" si="0"/>
+        <v>444</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>45150</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1.63</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <f t="shared" si="0"/>
+        <v>-600</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>45152</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1.77</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14">
+        <f>C6*D$39</f>
+        <v>1062</v>
+      </c>
+      <c r="G6" s="14">
+        <f t="shared" si="0"/>
+        <v>462</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>45153</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1.72</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <f t="shared" si="0"/>
+        <v>-600</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="30">
+        <f>COUNT(C2:C22)</f>
+        <v>6</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="20">
+        <f>COUNTIF(G2:G8,"&lt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="9">
-        <f>COUNTIF(M2:M18,"&gt;0")</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D30" s="20">
+        <f>D28-D29</f>
+        <v>4</v>
+      </c>
+      <c r="E30" s="22"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="10">
-        <f>COUNTIF(P2:P18,"&lt;0")</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D31" s="20">
+        <f>D30/D28*100</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="E31" s="22"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="11">
-        <f>C30-C31</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="20">
+        <f>1/D33*100</f>
+        <v>56.980056980056979</v>
+      </c>
+      <c r="E32" s="22"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="6">
-        <f>C32/C30*100</f>
-        <v>64.705882352941174</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="20">
+        <f>SUM(C2:C22)/D28</f>
+        <v>1.7550000000000001</v>
+      </c>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="6">
-        <f>1/C35*100</f>
-        <v>49.765807962529266</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="20">
+        <f>D31-D32</f>
+        <v>9.6866096866096782</v>
+      </c>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="17">
-        <f>SUM(M2:M18)/C30</f>
-        <v>2.0094117647058827</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="6" t="s">
+      <c r="D35" s="20">
+        <f>D34/1</f>
+        <v>9.6866096866096782</v>
+      </c>
+      <c r="E35" s="22"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+    </row>
+    <row r="36" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="31">
+        <v>30000</v>
+      </c>
+      <c r="E36" s="22"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+    </row>
+    <row r="37" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="32">
+        <v>30000</v>
+      </c>
+      <c r="E37" s="22"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="11">
-        <f>C33-C34</f>
-        <v>14.940074390411908</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
+      <c r="D38" s="29">
+        <f>D37/100</f>
+        <v>300</v>
+      </c>
+      <c r="E38" s="22"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="29">
+        <f>D38*2</f>
+        <v>600</v>
+      </c>
+      <c r="E39" s="22"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="11">
-        <f>C44/1</f>
-        <v>10.400000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-      <c r="C38" s="11"/>
-    </row>
-    <row r="39" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B39" s="6" t="s">
+      <c r="D40" s="29">
+        <f>SUM(G2:G22)</f>
+        <v>708</v>
+      </c>
+      <c r="E40" s="22"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="12">
-        <v>18600</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="13">
-        <f>C39/100</f>
-        <v>186</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="14">
-        <f>C40*4</f>
-        <v>744</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="14">
-        <f>C40*2</f>
-        <v>372</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" s="13">
-        <f>SUM(P2:P18)</f>
-        <v>1934.4000000000005</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="6">
-        <f>C43/C39*100</f>
-        <v>10.400000000000002</v>
-      </c>
+      <c r="D41" s="20">
+        <f>D40/D36*100</f>
+        <v>2.36</v>
+      </c>
+      <c r="E41" s="22"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E42" s="28"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="P2:P18">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="E29:E41">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+      <formula>-240.63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:H27 H21 G2:G20">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tecnica_analise/2023/bts-asian2023.xlsx
+++ b/tecnica_analise/2023/bts-asian2023.xlsx
@@ -9,11 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="agosto" sheetId="1" r:id="rId1"/>
-    <sheet name="agostInvest" sheetId="2" r:id="rId2"/>
+    <sheet name="janeiro" sheetId="3" r:id="rId1"/>
+    <sheet name="fevereiro" sheetId="4" r:id="rId2"/>
+    <sheet name="marco" sheetId="5" r:id="rId3"/>
+    <sheet name="abril" sheetId="6" r:id="rId4"/>
+    <sheet name="maio" sheetId="7" r:id="rId5"/>
+    <sheet name="agosto" sheetId="1" r:id="rId6"/>
+    <sheet name="agostInvest" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="359">
   <si>
     <t>DATA</t>
   </si>
@@ -269,6 +274,852 @@
   </si>
   <si>
     <t>FRANCE - LIGUE 2</t>
+  </si>
+  <si>
+    <t>ONE KNOXVILLE vs LEXINGTON</t>
+  </si>
+  <si>
+    <t>USA - USL LEAGUE ONE</t>
+  </si>
+  <si>
+    <t>GAINARE TOTTORI vs T. MIYAZAKI</t>
+  </si>
+  <si>
+    <t>KAGOSHIMA UTD vs MATSUMOTO Y.</t>
+  </si>
+  <si>
+    <t>entrei 1,90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entrei </t>
+  </si>
+  <si>
+    <t>entrei</t>
+  </si>
+  <si>
+    <t>ARSENAL SARANDI vs INSTITUTO</t>
+  </si>
+  <si>
+    <t>ARGENTINA - LIGA PROFESIONAL</t>
+  </si>
+  <si>
+    <t>BAHIA vs BRAGANTINO</t>
+  </si>
+  <si>
+    <t>SAN DIEGO LOYAL vs NEW MEXICO</t>
+  </si>
+  <si>
+    <t>2--1</t>
+  </si>
+  <si>
+    <t>ANGERS vs LORIENT</t>
+  </si>
+  <si>
+    <t>FRANCE - LIGUE 1</t>
+  </si>
+  <si>
+    <t>BLACKPOOL vs SUNDERLAND</t>
+  </si>
+  <si>
+    <t>CHAMPIONSHIP</t>
+  </si>
+  <si>
+    <t>DONCASTER vs CARLISLE UTD</t>
+  </si>
+  <si>
+    <t>LEAGUE TWO</t>
+  </si>
+  <si>
+    <t>GRIMSBY vs STOCKPORT</t>
+  </si>
+  <si>
+    <t>MONACO vs BREST</t>
+  </si>
+  <si>
+    <t>OXFORD UTD vs EXETER CITY</t>
+  </si>
+  <si>
+    <t>SHREWSBURY vs FLEETWOOD</t>
+  </si>
+  <si>
+    <t>BIRMINGHAM CITY vs MIDDLESBROUGH</t>
+  </si>
+  <si>
+    <t>LILLE vs REIMS</t>
+  </si>
+  <si>
+    <t>NORWICH CITY vs WATFORD</t>
+  </si>
+  <si>
+    <t>STOKE CITY vs PRESTON</t>
+  </si>
+  <si>
+    <t>ACADEMICO VISEU vs FC PORTO B</t>
+  </si>
+  <si>
+    <t>PORTUGAL - LIGA PORTUGAL 2</t>
+  </si>
+  <si>
+    <t>CREWE ALEXANDRA vs AFC WIMBLEDON</t>
+  </si>
+  <si>
+    <t>AC MILAN vs AS ROMA</t>
+  </si>
+  <si>
+    <t>ITALY - SERIE A</t>
+  </si>
+  <si>
+    <t>HELLAS VERONA vs CREMONESE</t>
+  </si>
+  <si>
+    <t>ACCRINGTON vs BRISTOL ROVERS</t>
+  </si>
+  <si>
+    <t>BARI vs PARMA</t>
+  </si>
+  <si>
+    <t>ITALY - SERIE B</t>
+  </si>
+  <si>
+    <t>CAGLIARI vs COMO</t>
+  </si>
+  <si>
+    <t>GIRONA vs SEVILLA FC</t>
+  </si>
+  <si>
+    <t>LA LIGA</t>
+  </si>
+  <si>
+    <t>HULL CITY vs HUDDERSFIELD</t>
+  </si>
+  <si>
+    <t>LUTON TOWN vs WEST BROM</t>
+  </si>
+  <si>
+    <t>OSASUNA vs MALLORCA</t>
+  </si>
+  <si>
+    <t>PENAFIEL vs TORREENSE</t>
+  </si>
+  <si>
+    <t>SHEFFIELD UTD vs STOKE CITY</t>
+  </si>
+  <si>
+    <t>SUNDERLAND vs SWANSEA CITY</t>
+  </si>
+  <si>
+    <t>VILAFRANQUENSE vs LEIXOES</t>
+  </si>
+  <si>
+    <t>LILLE vs TROYES</t>
+  </si>
+  <si>
+    <t>REIMS vs NICE</t>
+  </si>
+  <si>
+    <t>2--0</t>
+  </si>
+  <si>
+    <t>CRYSTAL PALACE vs MANCHESTER UTD</t>
+  </si>
+  <si>
+    <t>PREMIER LEAGUE</t>
+  </si>
+  <si>
+    <t>SHEFFIELD UTD vs HULL CITY</t>
+  </si>
+  <si>
+    <t>BLACKPOOL vs HUDDERSFIELD</t>
+  </si>
+  <si>
+    <t>BRADFORD vs CARLISLE UTD</t>
+  </si>
+  <si>
+    <t>BRISTOL ROVERS vs WYCOMBE</t>
+  </si>
+  <si>
+    <t>CREWE ALEXANDRA vs STOCKPORT</t>
+  </si>
+  <si>
+    <t>FIORENTINA vs TORINO</t>
+  </si>
+  <si>
+    <t>GRIMSBY vs HARROGATE</t>
+  </si>
+  <si>
+    <t>MORECAMBE vs PORT VALE</t>
+  </si>
+  <si>
+    <t>NORTHAMPTON vs MANSFIELD</t>
+  </si>
+  <si>
+    <t>OXFORD UTD vs IPSWICH TOWN</t>
+  </si>
+  <si>
+    <t>PORTSMOUTH vs EXETER CITY</t>
+  </si>
+  <si>
+    <t>QP RANGERS vs SWANSEA CITY</t>
+  </si>
+  <si>
+    <t>REGGINA vs TERNANA</t>
+  </si>
+  <si>
+    <t>SPAL vs ASCOLI</t>
+  </si>
+  <si>
+    <t>VENEZIA vs SUDTIROL</t>
+  </si>
+  <si>
+    <t>WOLFSBURG vs FREIBURG</t>
+  </si>
+  <si>
+    <t>BUNDESLIGA</t>
+  </si>
+  <si>
+    <t>ARSENAL vs MANCHESTER UTD</t>
+  </si>
+  <si>
+    <t>BENFICA B vs FC PORTO B</t>
+  </si>
+  <si>
+    <t>SUNDERLAND vs MIDDLESBROUGH</t>
+  </si>
+  <si>
+    <t>FULHAM vs TOTTENHAM</t>
+  </si>
+  <si>
+    <t>WYCOMBE vs OXFORD UTD</t>
+  </si>
+  <si>
+    <t>CHARLTON vs BOLTON</t>
+  </si>
+  <si>
+    <t>CHELTENHAM vs PORT VALE</t>
+  </si>
+  <si>
+    <t>COVENTRY CITY vs HUDDERSFIELD</t>
+  </si>
+  <si>
+    <t>HERTHA BERLIN vs UNION BERLIN</t>
+  </si>
+  <si>
+    <t>HULL CITY vs QP RANGERS</t>
+  </si>
+  <si>
+    <t>CELTA VIGO vs ATHLETIC BILBAO</t>
+  </si>
+  <si>
+    <t>ESTRELA AMADORA vs FEIRENSE</t>
+  </si>
+  <si>
+    <t>STRASBOURG vs TOULOUSE</t>
+  </si>
+  <si>
+    <t>CREWE ALEXANDRA vs GRIMSBY</t>
+  </si>
+  <si>
+    <t>LUTON TOWN vs STOKE CITY</t>
+  </si>
+  <si>
+    <t>MOREIRENSE vs ACADEMICO VISEU</t>
+  </si>
+  <si>
+    <t>NORWICH CITY vs BURNLEY</t>
+  </si>
+  <si>
+    <t>REIMS vs LORIENT</t>
+  </si>
+  <si>
+    <t>PENAFIEL vs MAFRA</t>
+  </si>
+  <si>
+    <t>STRASBOURG vs MONTPELLIER</t>
+  </si>
+  <si>
+    <t>VILA NOVA vs INHUMAS</t>
+  </si>
+  <si>
+    <t> BRAZIL - GOIANO</t>
+  </si>
+  <si>
+    <t>AC MILAN vs TORINO</t>
+  </si>
+  <si>
+    <t>BIRMINGHAM CITY vs WEST BROM</t>
+  </si>
+  <si>
+    <t>NICE vs AC AJACCIO</t>
+  </si>
+  <si>
+    <t>CHARLTON vs FLEETWOOD</t>
+  </si>
+  <si>
+    <t>CRYSTAL PALACE vs BRIGHTON</t>
+  </si>
+  <si>
+    <t>HARROGATE vs STOCKPORT</t>
+  </si>
+  <si>
+    <t>LECCE vs AS ROMA</t>
+  </si>
+  <si>
+    <t>REGGINA vs PISA</t>
+  </si>
+  <si>
+    <t>SHREWSBURY vs PORT VALE</t>
+  </si>
+  <si>
+    <t>STOKE CITY vs HULL CITY</t>
+  </si>
+  <si>
+    <t>SUDTIROL vs COMO</t>
+  </si>
+  <si>
+    <t>LILLE vs STRASBOURG</t>
+  </si>
+  <si>
+    <t>MONTPELLIER vs BREST</t>
+  </si>
+  <si>
+    <t>REIMS vs TROYES</t>
+  </si>
+  <si>
+    <t>HELLAS VERONA vs SALERNITANA</t>
+  </si>
+  <si>
+    <t>ACCRINGTON vs WYCOMBE</t>
+  </si>
+  <si>
+    <t>BRISTOL ROVERS vs IPSWICH TOWN</t>
+  </si>
+  <si>
+    <t>NORWICH CITY vs HULL CITY</t>
+  </si>
+  <si>
+    <t>OXFORD UTD vs PLYMOUTH</t>
+  </si>
+  <si>
+    <t>QP RANGERS vs SUNDERLAND</t>
+  </si>
+  <si>
+    <t>1--2</t>
+  </si>
+  <si>
+    <t>1--3</t>
+  </si>
+  <si>
+    <t>0--3</t>
+  </si>
+  <si>
+    <t>2--3</t>
+  </si>
+  <si>
+    <t>3--2</t>
+  </si>
+  <si>
+    <t>5--1</t>
+  </si>
+  <si>
+    <t>6--0</t>
+  </si>
+  <si>
+    <t>FC TULSA vs BIRMINGHAM L.</t>
+  </si>
+  <si>
+    <t>MEMPHIS vs INDY ELEVEN</t>
+  </si>
+  <si>
+    <t>BLACKPOOL vs STOKE CITY</t>
+  </si>
+  <si>
+    <t>BRISTOL ROVERS vs BURTON ALBION</t>
+  </si>
+  <si>
+    <t>E. FRANKFURT vs WERDER BREMEN</t>
+  </si>
+  <si>
+    <t>LUTON TOWN vs BURNLEY</t>
+  </si>
+  <si>
+    <t>PERUGIA vs TERNANA</t>
+  </si>
+  <si>
+    <t>PORT VALE vs EXETER CITY</t>
+  </si>
+  <si>
+    <t>SPAL vs COMO</t>
+  </si>
+  <si>
+    <t>SUNDERLAND vs BRISTOL CITY</t>
+  </si>
+  <si>
+    <t>WOLFSBURG vs RB LEIPZIG</t>
+  </si>
+  <si>
+    <t>WYCOMBE vs BOLTON</t>
+  </si>
+  <si>
+    <t>ATLETICO MADRID vs ATHLETIC BILBAO</t>
+  </si>
+  <si>
+    <t>RAYO VALLECANO vs SEVILLA FC</t>
+  </si>
+  <si>
+    <t>NORWICH CITY vs BIRMINGHAM CITY</t>
+  </si>
+  <si>
+    <t>SWANSEA CITY vs STOKE CITY</t>
+  </si>
+  <si>
+    <t>LILLE vs BREST</t>
+  </si>
+  <si>
+    <t>AGUA SANTA vs BOTAFOGO SP</t>
+  </si>
+  <si>
+    <t>BRAZIL - PAULISTA A1</t>
+  </si>
+  <si>
+    <t>ANGERS vs LYON</t>
+  </si>
+  <si>
+    <t>CRAWLEY TOWN vs CARLISLE UTD</t>
+  </si>
+  <si>
+    <t>HERTHA BERLIN vs FC AUGSBURG</t>
+  </si>
+  <si>
+    <t>LECCE vs SASSUOLO</t>
+  </si>
+  <si>
+    <t>MANSFIELD vs SALFORD CITY</t>
+  </si>
+  <si>
+    <t>OXFORD UTD vs BRISTOL ROVERS</t>
+  </si>
+  <si>
+    <t>REGGINA vs MODENA</t>
+  </si>
+  <si>
+    <t>SAO PAULO vs SAO BERNARDO</t>
+  </si>
+  <si>
+    <t>SHEFFIELD UTD vs WATFORD</t>
+  </si>
+  <si>
+    <t>SUDTIROL vs PALERMO</t>
+  </si>
+  <si>
+    <t>BELENENSES vs NACIONAL</t>
+  </si>
+  <si>
+    <t>ESTRELA AMADORA vs TONDELA</t>
+  </si>
+  <si>
+    <t>MAFRA vs FEIRENSE</t>
+  </si>
+  <si>
+    <t>VILAFRANQUENSE vs FC PORTO B</t>
+  </si>
+  <si>
+    <t>HARROGATE vs NORTHAMPTON</t>
+  </si>
+  <si>
+    <t>CAGLIARI vs GENOA</t>
+  </si>
+  <si>
+    <t>HULL CITY vs WEST BROM</t>
+  </si>
+  <si>
+    <t>ATALANTA vs UDINESE</t>
+  </si>
+  <si>
+    <t>LUTON TOWN vs SWANSEA CITY</t>
+  </si>
+  <si>
+    <t>PISA vs PALERMO</t>
+  </si>
+  <si>
+    <t>PORT VALE vs MILTON KEYNES</t>
+  </si>
+  <si>
+    <t>REGGINA vs PARMA</t>
+  </si>
+  <si>
+    <t>SUNDERLAND vs STOKE CITY</t>
+  </si>
+  <si>
+    <t>NACIONAL vs COVILHA</t>
+  </si>
+  <si>
+    <t>RAYO VALLECANO vs ATHLETIC BILBAO</t>
+  </si>
+  <si>
+    <t>STRASBOURG vs BREST</t>
+  </si>
+  <si>
+    <t>MITO HOLLYHOCK vs FAGIANO OKAYAMA</t>
+  </si>
+  <si>
+    <t>GRIMSBY vs NEWPORT</t>
+  </si>
+  <si>
+    <t>CREWE ALEXANDRA vs SALFORD CITY</t>
+  </si>
+  <si>
+    <t>LILLE vs LYON</t>
+  </si>
+  <si>
+    <t>BARNSLEY vs PLYMOUTH</t>
+  </si>
+  <si>
+    <t>CRAWLEY TOWN vs HARROGATE</t>
+  </si>
+  <si>
+    <t>HARTLEPOOL vs NORTHAMPTON</t>
+  </si>
+  <si>
+    <t>SWANSEA CITY vs MIDDLESBROUGH</t>
+  </si>
+  <si>
+    <t>LECCE vs TORINO</t>
+  </si>
+  <si>
+    <t>MAFRA vs ACADEMICO VISEU</t>
+  </si>
+  <si>
+    <t>MARSEILLE vs STRASBOURG</t>
+  </si>
+  <si>
+    <t>NORWICH CITY vs SUNDERLAND</t>
+  </si>
+  <si>
+    <t>WOLFSBURG vs UNION BERLIN</t>
+  </si>
+  <si>
+    <t>LUTON TOWN vs BRISTOL CITY</t>
+  </si>
+  <si>
+    <t>ACCRINGTON vs MILTON KEYNES</t>
+  </si>
+  <si>
+    <t>BRISTOL ROVERS vs PORTSMOUTH</t>
+  </si>
+  <si>
+    <t>CHACARITA J. vs ATLETICO MITRE</t>
+  </si>
+  <si>
+    <t>ARGENTINA - PRIMERA NACIONAL</t>
+  </si>
+  <si>
+    <t>HOMESUPER</t>
+  </si>
+  <si>
+    <t>QP RANGERS vs BIRMINGHAM CITY</t>
+  </si>
+  <si>
+    <t>STOKE CITY vs NORWICH CITY</t>
+  </si>
+  <si>
+    <t>BENFICA B vs OLIVEIRENSE</t>
+  </si>
+  <si>
+    <t>GETAFE vs SEVILLA FC</t>
+  </si>
+  <si>
+    <t>SWANSEA CITY vs BRISTOL CITY</t>
+  </si>
+  <si>
+    <t>ACCRINGTON vs PLYMOUTH</t>
+  </si>
+  <si>
+    <t>MANSFIELD vs GRIMSBY</t>
+  </si>
+  <si>
+    <t>CHARLTON vs WYCOMBE</t>
+  </si>
+  <si>
+    <t>JEF UTD CHIBA vs FAGIANO OKAYAMA</t>
+  </si>
+  <si>
+    <t>SHREWSBURY vs BRISTOL ROVERS</t>
+  </si>
+  <si>
+    <t>CRAWLEY TOWN vs GRIMSBY</t>
+  </si>
+  <si>
+    <t>4--2</t>
+  </si>
+  <si>
+    <t>2--5</t>
+  </si>
+  <si>
+    <t>ARSENAL vs LEEDS UTD</t>
+  </si>
+  <si>
+    <t>CADIZ vs SEVILLA FC</t>
+  </si>
+  <si>
+    <t>CHELTENHAM vs BURTON ALBION</t>
+  </si>
+  <si>
+    <t>FLEETWOOD vs EXETER CITY</t>
+  </si>
+  <si>
+    <t>HARTLEPOOL vs SWINDON TOWN</t>
+  </si>
+  <si>
+    <t>ACCRINGTON vs PORT VALE</t>
+  </si>
+  <si>
+    <t>SHREWSBURY vs PETERBOROUGH</t>
+  </si>
+  <si>
+    <t>ESPANYOL vs ATHLETIC BILBAO</t>
+  </si>
+  <si>
+    <t>CHARLTON vs BURTON ALBION</t>
+  </si>
+  <si>
+    <t>CITTADELLA vs PARMA</t>
+  </si>
+  <si>
+    <t>DONCASTER vs GRIMSBY</t>
+  </si>
+  <si>
+    <t>FLEETWOOD vs BRISTOL ROVERS</t>
+  </si>
+  <si>
+    <t>PERUGIA vs MODENA</t>
+  </si>
+  <si>
+    <t>PETERBOROUGH vs EXETER CITY</t>
+  </si>
+  <si>
+    <t>ACCRINGTON vs FLEETWOOD</t>
+  </si>
+  <si>
+    <t>BARI vs COMO</t>
+  </si>
+  <si>
+    <t>GRIMSBY vs MANSFIELD</t>
+  </si>
+  <si>
+    <t>MANCHESTER CITY vs LEICESTER CITY</t>
+  </si>
+  <si>
+    <t>bts</t>
+  </si>
+  <si>
+    <t>NEWPORT vs HARTLEPOOL</t>
+  </si>
+  <si>
+    <t>OXFORD UTD vs BOLTON</t>
+  </si>
+  <si>
+    <t>REAL BETIS vs ESPANYOL</t>
+  </si>
+  <si>
+    <t>SC SAGAMIHARA vs NAGANO PARCEIRO</t>
+  </si>
+  <si>
+    <t>SHREWSBURY vs PORTSMOUTH</t>
+  </si>
+  <si>
+    <t>SOUTHAMPTON vs CRYSTAL PALACE</t>
+  </si>
+  <si>
+    <t>VENEZIA vs PALERMO</t>
+  </si>
+  <si>
+    <t>HARTFORD A. vs EL PASO</t>
+  </si>
+  <si>
+    <t>JUBILO IWATA vs JEF UTD CHIBA</t>
+  </si>
+  <si>
+    <t>LOUISVILLE CITY vs OAKLAND ROOTS</t>
+  </si>
+  <si>
+    <t>MATSUMOTO Y. vs FC IMABARI</t>
+  </si>
+  <si>
+    <t>OITA TRINITA vs VEGALTA SENDAI</t>
+  </si>
+  <si>
+    <t>OMIYA ARDIJA vs V-V. NAGASAKI</t>
+  </si>
+  <si>
+    <t>ACCRINGTON vs PETERBOROUGH</t>
+  </si>
+  <si>
+    <t>NEWPORT vs MANSFIELD</t>
+  </si>
+  <si>
+    <t>OXFORD UTD vs PORTSMOUTH</t>
+  </si>
+  <si>
+    <t>SALFORD CITY vs HARTLEPOOL</t>
+  </si>
+  <si>
+    <t>SHREWSBURY vs PLYMOUTH</t>
+  </si>
+  <si>
+    <t>AFC WIMBLEDON vs SWINDON TOWN</t>
+  </si>
+  <si>
+    <t>DONCASTER vs NEWPORT</t>
+  </si>
+  <si>
+    <t>FLEETWOOD vs MILTON KEYNES</t>
+  </si>
+  <si>
+    <t>FULHAM vs LEEDS UTD</t>
+  </si>
+  <si>
+    <t>OSASUNA vs REAL BETIS</t>
+  </si>
+  <si>
+    <t>ARGENTINOS JRS vs GIMNASIA</t>
+  </si>
+  <si>
+    <t>ASTON VILLA vs FULHAM</t>
+  </si>
+  <si>
+    <t>HOMSUPER</t>
+  </si>
+  <si>
+    <t>LEEDS UTD vs LEICESTER CITY</t>
+  </si>
+  <si>
+    <t>NEWPORT vs HARROGATE</t>
+  </si>
+  <si>
+    <t>REAL BETIS vs REAL SOCIEDAD</t>
+  </si>
+  <si>
+    <t>ATLANTA vs D. RIESTRA</t>
+  </si>
+  <si>
+    <t>OSASUNA vs REAL SOCIEDAD</t>
+  </si>
+  <si>
+    <t>CHARLTON vs PORT VALE</t>
+  </si>
+  <si>
+    <t>MANSFIELD vs HARROGATE</t>
+  </si>
+  <si>
+    <t>PETERBOROUGH vs BRISTOL ROVERS</t>
+  </si>
+  <si>
+    <t>MEMPHIS vs LOUISVILLE CITY</t>
+  </si>
+  <si>
+    <t>ASCOLI vs PISA</t>
+  </si>
+  <si>
+    <t>VENEZIA vs MODENA</t>
+  </si>
+  <si>
+    <t>R. KUMAMOTO vs T. GUNMA</t>
+  </si>
+  <si>
+    <t>SEVILLA FC vs ESPANYOL</t>
+  </si>
+  <si>
+    <t>BIRMINGHAM L. vs OAKLAND ROOTS</t>
+  </si>
+  <si>
+    <t>REGGINA vs COMO</t>
+  </si>
+  <si>
+    <t>BARNSLEY vs PETERBOROUGH</t>
+  </si>
+  <si>
+    <t>R. KUMAMOTO vs VENTFORET KOFU</t>
+  </si>
+  <si>
+    <t>WEST HAM UTD vs MANCHESTER UTD</t>
+  </si>
+  <si>
+    <t>FULHAM vs LEICESTER CITY</t>
+  </si>
+  <si>
+    <t>GRIMSBY vs AFC WIMBLEDON</t>
+  </si>
+  <si>
+    <t>SPORT RECIFE vs TOMBENSE</t>
+  </si>
+  <si>
+    <t>BRAZIL - SERIE B</t>
+  </si>
+  <si>
+    <t>BARI vs REGGINA</t>
+  </si>
+  <si>
+    <t>CHARLESTON vs SAN ANTONIO</t>
+  </si>
+  <si>
+    <t>CRYSTAL PALACE vs BOURNEMOUTH</t>
+  </si>
+  <si>
+    <t>JUBILO IWATA vs T. GUNMA</t>
+  </si>
+  <si>
+    <t>SPAL vs PARMA</t>
+  </si>
+  <si>
+    <t>ARSENAL vs BRIGHTON</t>
+  </si>
+  <si>
+    <t>FLORESTA vs CSA</t>
+  </si>
+  <si>
+    <t>G. KITAKYUSHU vs T. MIYAZAKI</t>
+  </si>
+  <si>
+    <t>GAINARE TOTTORI vs AC NUMAZU</t>
+  </si>
+  <si>
+    <t>MEMPHIS vs COLORADO S.</t>
+  </si>
+  <si>
+    <t>OPERARIO PR vs EC SAO JOSE</t>
+  </si>
+  <si>
+    <t>REGGINA vs ASCOLI</t>
+  </si>
+  <si>
+    <t>BIRMINGHAM L. vs EL PASO</t>
+  </si>
+  <si>
+    <t>FIGUEIRENSE vs APARECIDENSE</t>
+  </si>
+  <si>
+    <t>FUJIEDA MYFC vs TOKUSHIMA V.</t>
+  </si>
+  <si>
+    <t>SEVILLA FC vs REAL BETIS</t>
+  </si>
+  <si>
+    <t>OSASUNA vs ATHLETIC BILBAO</t>
+  </si>
+  <si>
+    <t>BRUSQUE vs EC SAO JOSE</t>
+  </si>
+  <si>
+    <t>EHIME FC vs FUKUSHIMA UTD</t>
+  </si>
+  <si>
+    <t>FORTALEZA vs VASCO DA GAMA</t>
+  </si>
+  <si>
+    <t>GIRONA vs REAL BETIS</t>
+  </si>
+  <si>
+    <t>LEEDS UTD vs TOTTENHAM</t>
   </si>
 </sst>
 </file>
@@ -291,20 +1142,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -341,8 +1178,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,6 +1262,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -431,7 +1290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
@@ -456,14 +1315,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -474,9 +1330,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -485,7 +1338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -497,7 +1350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -513,10 +1366,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -528,6 +1381,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -879,10 +1742,6969 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M63" sqref="M63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="10" max="12" width="9.140625" style="6"/>
+    <col min="13" max="13" width="29.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="144.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>44927</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="K2" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="M2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>44927</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1.72</v>
+      </c>
+      <c r="K3" s="6">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>44927</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1.79</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1.93</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>44927</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1.85</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1.88</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>44927</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1.69</v>
+      </c>
+      <c r="K6" s="6">
+        <v>2.12</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>44927</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1.69</v>
+      </c>
+      <c r="K7" s="6">
+        <v>2.09</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>44927</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="6">
+        <v>2.06</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1.72</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>44928</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1.97</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1.79</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="M9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>44928</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1.83</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1.93</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>44928</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1.78</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1.98</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>44928</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="6">
+        <v>2.04</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1.73</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>44933</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1.77</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1.97</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>44933</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="6">
+        <v>2</v>
+      </c>
+      <c r="K14" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>44934</v>
+      </c>
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="K15" s="6">
+        <v>2.02</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>44935</v>
+      </c>
+      <c r="B16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1.95</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="M16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>44940</v>
+      </c>
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1.66</v>
+      </c>
+      <c r="K17" s="6">
+        <v>2.16</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="M17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>44940</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1.87</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1.86</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>44940</v>
+      </c>
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="K19" s="6">
+        <v>2.08</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="M19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>44940</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="6">
+        <v>1.89</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1.88</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>44940</v>
+      </c>
+      <c r="B21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="6">
+        <v>2.21</v>
+      </c>
+      <c r="K21" s="6">
+        <v>1.64</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" s="36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>44940</v>
+      </c>
+      <c r="B22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="6">
+        <v>1.98</v>
+      </c>
+      <c r="K22" s="6">
+        <v>1.78</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="M22" s="36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>44940</v>
+      </c>
+      <c r="B23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="6">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="K23" s="6">
+        <v>1.58</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>44940</v>
+      </c>
+      <c r="B24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="6">
+        <v>2.08</v>
+      </c>
+      <c r="K24" s="6">
+        <v>1.69</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>44940</v>
+      </c>
+      <c r="B25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="6">
+        <v>1.86</v>
+      </c>
+      <c r="K25" s="6">
+        <v>1.89</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M25" s="36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>44940</v>
+      </c>
+      <c r="B26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="K26" s="6">
+        <v>1.96</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="M26" s="36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>44940</v>
+      </c>
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="6">
+        <v>1.94</v>
+      </c>
+      <c r="K27" s="6">
+        <v>1.79</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="M27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>44941</v>
+      </c>
+      <c r="B28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="6">
+        <v>1.85</v>
+      </c>
+      <c r="K28" s="6">
+        <v>1.91</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="M28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>44941</v>
+      </c>
+      <c r="B29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="6">
+        <v>1.81</v>
+      </c>
+      <c r="K29" s="6">
+        <v>1.95</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>44944</v>
+      </c>
+      <c r="B30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" s="6">
+        <v>1.85</v>
+      </c>
+      <c r="K30" s="6">
+        <v>1.92</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>44946</v>
+      </c>
+      <c r="B31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" s="6">
+        <v>1.94</v>
+      </c>
+      <c r="K31" s="6">
+        <v>1.82</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M31" s="36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>44947</v>
+      </c>
+      <c r="B32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="6">
+        <v>404</v>
+      </c>
+      <c r="K32" s="6">
+        <v>404</v>
+      </c>
+      <c r="L32" s="6">
+        <v>404</v>
+      </c>
+      <c r="M32" s="36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>44947</v>
+      </c>
+      <c r="B33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" s="6">
+        <v>404</v>
+      </c>
+      <c r="K33" s="6">
+        <v>404</v>
+      </c>
+      <c r="L33" s="6">
+        <v>404</v>
+      </c>
+      <c r="M33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>44947</v>
+      </c>
+      <c r="B34" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="6">
+        <v>404</v>
+      </c>
+      <c r="K34" s="6">
+        <v>404</v>
+      </c>
+      <c r="L34" s="6">
+        <v>404</v>
+      </c>
+      <c r="M34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>44947</v>
+      </c>
+      <c r="B35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" s="6">
+        <v>404</v>
+      </c>
+      <c r="K35" s="6">
+        <v>404</v>
+      </c>
+      <c r="L35" s="6">
+        <v>404</v>
+      </c>
+      <c r="M35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>44947</v>
+      </c>
+      <c r="B36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="6">
+        <v>2.02</v>
+      </c>
+      <c r="K36" s="6">
+        <v>1.76</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>44947</v>
+      </c>
+      <c r="B37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" s="6">
+        <v>404</v>
+      </c>
+      <c r="K37" s="6">
+        <v>404</v>
+      </c>
+      <c r="L37" s="6">
+        <v>404</v>
+      </c>
+      <c r="M37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>44947</v>
+      </c>
+      <c r="B38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0</v>
+      </c>
+      <c r="H38" s="6">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J38" s="6">
+        <v>404</v>
+      </c>
+      <c r="K38" s="6">
+        <v>404</v>
+      </c>
+      <c r="L38" s="6">
+        <v>404</v>
+      </c>
+      <c r="M38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>44947</v>
+      </c>
+      <c r="B39" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" s="6">
+        <v>404</v>
+      </c>
+      <c r="K39" s="6">
+        <v>404</v>
+      </c>
+      <c r="L39" s="6">
+        <v>404</v>
+      </c>
+      <c r="M39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>44947</v>
+      </c>
+      <c r="B40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="K40" s="6">
+        <v>1.94</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>44947</v>
+      </c>
+      <c r="B41" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" s="6">
+        <v>1.74</v>
+      </c>
+      <c r="K41" s="6">
+        <v>2.02</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="M41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>44947</v>
+      </c>
+      <c r="B42" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="K42" s="6">
+        <v>2.02</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M42" s="36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>44947</v>
+      </c>
+      <c r="B43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43" s="6">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="K43" s="6">
+        <v>1.73</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>44947</v>
+      </c>
+      <c r="B44" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+      <c r="F44" s="6">
+        <v>0</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>11</v>
+      </c>
+      <c r="J44" s="6">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="K44" s="6">
+        <v>1.72</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>44947</v>
+      </c>
+      <c r="B45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0</v>
+      </c>
+      <c r="D45" s="6">
+        <v>0</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
+      <c r="F45" s="6">
+        <v>0</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" s="6">
+        <v>1.97</v>
+      </c>
+      <c r="K45" s="6">
+        <v>1.76</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M45" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>44947</v>
+      </c>
+      <c r="B46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
+      <c r="F46" s="6">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>11</v>
+      </c>
+      <c r="J46" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="K46" s="6">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="M46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>44948</v>
+      </c>
+      <c r="B47" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0</v>
+      </c>
+      <c r="D47" s="6">
+        <v>0</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0</v>
+      </c>
+      <c r="H47" s="6">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47" s="6">
+        <v>1.68</v>
+      </c>
+      <c r="K47" s="6">
+        <v>2.14</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="M47" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>44948</v>
+      </c>
+      <c r="B48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" s="6">
+        <v>0</v>
+      </c>
+      <c r="D48" s="6">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0</v>
+      </c>
+      <c r="F48" s="6">
+        <v>0</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0</v>
+      </c>
+      <c r="H48" s="6">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" s="6">
+        <v>1.54</v>
+      </c>
+      <c r="K48" s="6">
+        <v>2.36</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>44948</v>
+      </c>
+      <c r="B49" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0</v>
+      </c>
+      <c r="H49" s="6">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" s="6">
+        <v>1.74</v>
+      </c>
+      <c r="K49" s="6">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="M49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>44949</v>
+      </c>
+      <c r="B50" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0</v>
+      </c>
+      <c r="F50" s="6">
+        <v>0</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0</v>
+      </c>
+      <c r="H50" s="6">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>11</v>
+      </c>
+      <c r="J50" s="6">
+        <v>1.57</v>
+      </c>
+      <c r="K50" s="6">
+        <v>2.35</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>44950</v>
+      </c>
+      <c r="B51" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0</v>
+      </c>
+      <c r="D51" s="6">
+        <v>0</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
+      <c r="F51" s="6">
+        <v>0</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0</v>
+      </c>
+      <c r="H51" s="6">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" s="6">
+        <v>1.79</v>
+      </c>
+      <c r="K51" s="6">
+        <v>1.85</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="M51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>44954</v>
+      </c>
+      <c r="B52" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="6">
+        <v>0</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+      <c r="F52" s="6">
+        <v>0</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0</v>
+      </c>
+      <c r="H52" s="6">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J52" s="6">
+        <v>1.74</v>
+      </c>
+      <c r="K52" s="6">
+        <v>2.02</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="M52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>44954</v>
+      </c>
+      <c r="B53" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="6">
+        <v>0</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0</v>
+      </c>
+      <c r="F53" s="6">
+        <v>0</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0</v>
+      </c>
+      <c r="H53" s="6">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" s="6">
+        <v>1.96</v>
+      </c>
+      <c r="K53" s="6">
+        <v>1.78</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>44954</v>
+      </c>
+      <c r="B54" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0</v>
+      </c>
+      <c r="F54" s="6">
+        <v>0</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0</v>
+      </c>
+      <c r="H54" s="6">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>11</v>
+      </c>
+      <c r="J54" s="6">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="K54" s="6">
+        <v>1.76</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="M54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>44954</v>
+      </c>
+      <c r="B55" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" s="6">
+        <v>0</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55" s="6">
+        <v>0</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0</v>
+      </c>
+      <c r="H55" s="6">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55" s="6">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="K55" s="6">
+        <v>1.76</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M55" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>44954</v>
+      </c>
+      <c r="B56" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
+      <c r="F56" s="6">
+        <v>0</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0</v>
+      </c>
+      <c r="H56" s="6">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>11</v>
+      </c>
+      <c r="J56" s="6">
+        <v>1.88</v>
+      </c>
+      <c r="K56" s="6">
+        <v>1.87</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>44955</v>
+      </c>
+      <c r="B57" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" s="6">
+        <v>0</v>
+      </c>
+      <c r="D57" s="6">
+        <v>0</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0</v>
+      </c>
+      <c r="F57" s="6">
+        <v>0</v>
+      </c>
+      <c r="G57" s="6">
+        <v>0</v>
+      </c>
+      <c r="H57" s="6">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>11</v>
+      </c>
+      <c r="J57" s="6">
+        <v>2.12</v>
+      </c>
+      <c r="K57" s="6">
+        <v>1.69</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M57" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>44955</v>
+      </c>
+      <c r="B58" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0</v>
+      </c>
+      <c r="E58" s="6">
+        <v>0</v>
+      </c>
+      <c r="F58" s="6">
+        <v>0</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0</v>
+      </c>
+      <c r="H58" s="6">
+        <v>0</v>
+      </c>
+      <c r="I58" t="s">
+        <v>11</v>
+      </c>
+      <c r="J58" s="6">
+        <v>1.82</v>
+      </c>
+      <c r="K58" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>44955</v>
+      </c>
+      <c r="B59" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" s="6">
+        <v>0</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59" s="6">
+        <v>0</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0</v>
+      </c>
+      <c r="H59" s="6">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>11</v>
+      </c>
+      <c r="J59" s="6">
+        <v>1.62</v>
+      </c>
+      <c r="K59" s="6">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="M59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>44957</v>
+      </c>
+      <c r="B60" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" s="6">
+        <v>0</v>
+      </c>
+      <c r="D60" s="6">
+        <v>0</v>
+      </c>
+      <c r="E60" s="6">
+        <v>0</v>
+      </c>
+      <c r="F60" s="6">
+        <v>0</v>
+      </c>
+      <c r="G60" s="6">
+        <v>0</v>
+      </c>
+      <c r="H60" s="6">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
+        <v>11</v>
+      </c>
+      <c r="J60" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K60" s="6">
+        <v>1.62</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="144" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>44958</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="K2" s="6">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="L2" t="s">
+        <v>268</v>
+      </c>
+      <c r="M2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>44961</v>
+      </c>
+      <c r="B3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1.62</v>
+      </c>
+      <c r="L3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>44961</v>
+      </c>
+      <c r="B4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1.96</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="L4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>44961</v>
+      </c>
+      <c r="B5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="K5" s="6">
+        <v>2.06</v>
+      </c>
+      <c r="L5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>44961</v>
+      </c>
+      <c r="B6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1.71</v>
+      </c>
+      <c r="K6" s="6">
+        <v>2.09</v>
+      </c>
+      <c r="L6" t="s">
+        <v>188</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>44962</v>
+      </c>
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1.89</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1.83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>44962</v>
+      </c>
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1.78</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1.99</v>
+      </c>
+      <c r="L8" t="s">
+        <v>124</v>
+      </c>
+      <c r="M8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>44964</v>
+      </c>
+      <c r="B9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>44967</v>
+      </c>
+      <c r="B10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1.96</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1.81</v>
+      </c>
+      <c r="L10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>44967</v>
+      </c>
+      <c r="B11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1.92</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1.83</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>44967</v>
+      </c>
+      <c r="B12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="6">
+        <v>2.36</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1.56</v>
+      </c>
+      <c r="L12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>44968</v>
+      </c>
+      <c r="B13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1.71</v>
+      </c>
+      <c r="K13" s="6">
+        <v>2.08</v>
+      </c>
+      <c r="L13" t="s">
+        <v>186</v>
+      </c>
+      <c r="M13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>44968</v>
+      </c>
+      <c r="B14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1.94</v>
+      </c>
+      <c r="K14" s="6">
+        <v>1.84</v>
+      </c>
+      <c r="L14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>44968</v>
+      </c>
+      <c r="B15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="6">
+        <v>1.92</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1.82</v>
+      </c>
+      <c r="L15" t="s">
+        <v>187</v>
+      </c>
+      <c r="M15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>44968</v>
+      </c>
+      <c r="B16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="6">
+        <v>2.15</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1.68</v>
+      </c>
+      <c r="L16" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>44968</v>
+      </c>
+      <c r="B17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="6">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="K17" s="6">
+        <v>1.73</v>
+      </c>
+      <c r="L17" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>44968</v>
+      </c>
+      <c r="B18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="6">
+        <v>2.15</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1.66</v>
+      </c>
+      <c r="L18" t="s">
+        <v>190</v>
+      </c>
+      <c r="M18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>44968</v>
+      </c>
+      <c r="B19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1.92</v>
+      </c>
+      <c r="K19" s="6">
+        <v>1.84</v>
+      </c>
+      <c r="L19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>44968</v>
+      </c>
+      <c r="B20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="6">
+        <v>1.98</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1.76</v>
+      </c>
+      <c r="L20" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>44969</v>
+      </c>
+      <c r="B21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="6">
+        <v>1.84</v>
+      </c>
+      <c r="K21" s="6">
+        <v>1.93</v>
+      </c>
+      <c r="L21" t="s">
+        <v>124</v>
+      </c>
+      <c r="M21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>44969</v>
+      </c>
+      <c r="B22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="6">
+        <v>1.78</v>
+      </c>
+      <c r="K22" s="6">
+        <v>2</v>
+      </c>
+      <c r="L22" t="s">
+        <v>42</v>
+      </c>
+      <c r="M22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>44969</v>
+      </c>
+      <c r="B23" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="6">
+        <v>1.81</v>
+      </c>
+      <c r="K23" s="6">
+        <v>1.95</v>
+      </c>
+      <c r="L23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>44970</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="6">
+        <v>1.86</v>
+      </c>
+      <c r="K24" s="6">
+        <v>1.91</v>
+      </c>
+      <c r="L24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>44971</v>
+      </c>
+      <c r="B25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="6">
+        <v>1.79</v>
+      </c>
+      <c r="K25" s="6">
+        <v>1.98</v>
+      </c>
+      <c r="L25" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>44971</v>
+      </c>
+      <c r="B26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="6">
+        <v>1.97</v>
+      </c>
+      <c r="K26" s="6">
+        <v>1.79</v>
+      </c>
+      <c r="L26" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>44971</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6">
+        <v>0</v>
+      </c>
+      <c r="L27" s="6">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>44971</v>
+      </c>
+      <c r="B28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="6">
+        <v>1.89</v>
+      </c>
+      <c r="K28" s="6">
+        <v>1.87</v>
+      </c>
+      <c r="L28" t="s">
+        <v>43</v>
+      </c>
+      <c r="M28" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>44971</v>
+      </c>
+      <c r="B29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="6">
+        <v>1.61</v>
+      </c>
+      <c r="K29" s="6">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="L29" t="s">
+        <v>187</v>
+      </c>
+      <c r="M29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>44971</v>
+      </c>
+      <c r="B30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="K30" s="6">
+        <v>1.86</v>
+      </c>
+      <c r="L30" t="s">
+        <v>188</v>
+      </c>
+      <c r="M30" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>44975</v>
+      </c>
+      <c r="B31" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" s="6">
+        <v>1.84</v>
+      </c>
+      <c r="K31" s="6">
+        <v>1.92</v>
+      </c>
+      <c r="L31" t="s">
+        <v>44</v>
+      </c>
+      <c r="M31" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>44975</v>
+      </c>
+      <c r="B32" t="s">
+        <v>196</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="K32" s="6">
+        <v>2.09</v>
+      </c>
+      <c r="L32" t="s">
+        <v>186</v>
+      </c>
+      <c r="M32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>44975</v>
+      </c>
+      <c r="B33" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" s="6">
+        <v>1.63</v>
+      </c>
+      <c r="K33" s="6">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="L33" t="s">
+        <v>124</v>
+      </c>
+      <c r="M33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>44975</v>
+      </c>
+      <c r="B34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="6">
+        <v>2.04</v>
+      </c>
+      <c r="K34" s="6">
+        <v>1.74</v>
+      </c>
+      <c r="L34" t="s">
+        <v>48</v>
+      </c>
+      <c r="M34" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>44975</v>
+      </c>
+      <c r="B35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" s="6">
+        <v>1.88</v>
+      </c>
+      <c r="K35" s="6">
+        <v>1.87</v>
+      </c>
+      <c r="L35" t="s">
+        <v>42</v>
+      </c>
+      <c r="M35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>44975</v>
+      </c>
+      <c r="B36" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="6">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="K36" s="6">
+        <v>1.76</v>
+      </c>
+      <c r="L36" t="s">
+        <v>44</v>
+      </c>
+      <c r="M36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>44975</v>
+      </c>
+      <c r="B37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" s="6">
+        <v>1.81</v>
+      </c>
+      <c r="K37" s="6">
+        <v>1.92</v>
+      </c>
+      <c r="L37" t="s">
+        <v>41</v>
+      </c>
+      <c r="M37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>44975</v>
+      </c>
+      <c r="B38" t="s">
+        <v>202</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0</v>
+      </c>
+      <c r="H38" s="6">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J38" s="6">
+        <v>1.84</v>
+      </c>
+      <c r="K38" s="6">
+        <v>1.91</v>
+      </c>
+      <c r="L38" t="s">
+        <v>41</v>
+      </c>
+      <c r="M38" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>44975</v>
+      </c>
+      <c r="B39" t="s">
+        <v>203</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" s="6">
+        <v>1.57</v>
+      </c>
+      <c r="K39" s="6">
+        <v>2.35</v>
+      </c>
+      <c r="L39" t="s">
+        <v>188</v>
+      </c>
+      <c r="M39" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>44975</v>
+      </c>
+      <c r="B40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="K40" s="6">
+        <v>2.08</v>
+      </c>
+      <c r="L40" t="s">
+        <v>44</v>
+      </c>
+      <c r="M40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>44976</v>
+      </c>
+      <c r="B41" t="s">
+        <v>205</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" s="6">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K41" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="L41" t="s">
+        <v>44</v>
+      </c>
+      <c r="M41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>44976</v>
+      </c>
+      <c r="B42" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42" s="6">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="K42" s="6">
+        <v>1.77</v>
+      </c>
+      <c r="L42" t="s">
+        <v>41</v>
+      </c>
+      <c r="M42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>44978</v>
+      </c>
+      <c r="B43" t="s">
+        <v>207</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43" s="6">
+        <v>1.94</v>
+      </c>
+      <c r="K43" s="6">
+        <v>1.83</v>
+      </c>
+      <c r="L43" t="s">
+        <v>43</v>
+      </c>
+      <c r="M43" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>44978</v>
+      </c>
+      <c r="B44" t="s">
+        <v>208</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+      <c r="F44" s="6">
+        <v>0</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>11</v>
+      </c>
+      <c r="J44" s="6">
+        <v>1.87</v>
+      </c>
+      <c r="K44" s="6">
+        <v>1.88</v>
+      </c>
+      <c r="L44" t="s">
+        <v>187</v>
+      </c>
+      <c r="M44" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>44981</v>
+      </c>
+      <c r="B45" t="s">
+        <v>209</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0</v>
+      </c>
+      <c r="D45" s="6">
+        <v>0</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
+      <c r="F45" s="6">
+        <v>0</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" s="6">
+        <v>1.99</v>
+      </c>
+      <c r="K45" s="6">
+        <v>1.79</v>
+      </c>
+      <c r="L45" t="s">
+        <v>88</v>
+      </c>
+      <c r="M45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>44982</v>
+      </c>
+      <c r="B46" t="s">
+        <v>210</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
+      <c r="F46" s="6">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>11</v>
+      </c>
+      <c r="J46" s="6">
+        <v>2.19</v>
+      </c>
+      <c r="K46" s="6">
+        <v>1.63</v>
+      </c>
+      <c r="L46" t="s">
+        <v>44</v>
+      </c>
+      <c r="M46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>44982</v>
+      </c>
+      <c r="B47" t="s">
+        <v>212</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0</v>
+      </c>
+      <c r="D47" s="6">
+        <v>0</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0</v>
+      </c>
+      <c r="H47" s="6">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47" s="6">
+        <v>1.83</v>
+      </c>
+      <c r="K47" s="6">
+        <v>1.95</v>
+      </c>
+      <c r="L47" t="s">
+        <v>187</v>
+      </c>
+      <c r="M47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>44982</v>
+      </c>
+      <c r="B48" t="s">
+        <v>213</v>
+      </c>
+      <c r="C48" s="6">
+        <v>0</v>
+      </c>
+      <c r="D48" s="6">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0</v>
+      </c>
+      <c r="F48" s="6">
+        <v>0</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0</v>
+      </c>
+      <c r="H48" s="6">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" s="6">
+        <v>1.93</v>
+      </c>
+      <c r="K48" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="L48" t="s">
+        <v>269</v>
+      </c>
+      <c r="M48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>44982</v>
+      </c>
+      <c r="B49" t="s">
+        <v>214</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0</v>
+      </c>
+      <c r="H49" s="6">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" s="6">
+        <v>1.71</v>
+      </c>
+      <c r="K49" s="6">
+        <v>2.08</v>
+      </c>
+      <c r="L49" t="s">
+        <v>124</v>
+      </c>
+      <c r="M49" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>44982</v>
+      </c>
+      <c r="B50" t="s">
+        <v>215</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0</v>
+      </c>
+      <c r="F50" s="6">
+        <v>0</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0</v>
+      </c>
+      <c r="H50" s="6">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>11</v>
+      </c>
+      <c r="J50" s="6">
+        <v>1.87</v>
+      </c>
+      <c r="K50" s="6">
+        <v>1.91</v>
+      </c>
+      <c r="L50" t="s">
+        <v>48</v>
+      </c>
+      <c r="M50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>44982</v>
+      </c>
+      <c r="B51" t="s">
+        <v>216</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0</v>
+      </c>
+      <c r="D51" s="6">
+        <v>0</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
+      <c r="F51" s="6">
+        <v>0</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0</v>
+      </c>
+      <c r="H51" s="6">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" s="6">
+        <v>1.78</v>
+      </c>
+      <c r="K51" s="6">
+        <v>1.97</v>
+      </c>
+      <c r="L51" t="s">
+        <v>269</v>
+      </c>
+      <c r="M51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>44982</v>
+      </c>
+      <c r="B52" t="s">
+        <v>217</v>
+      </c>
+      <c r="C52" s="6">
+        <v>0</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+      <c r="F52" s="6">
+        <v>0</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0</v>
+      </c>
+      <c r="H52" s="6">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J52" s="6">
+        <v>1.69</v>
+      </c>
+      <c r="K52" s="6">
+        <v>2.09</v>
+      </c>
+      <c r="L52" t="s">
+        <v>188</v>
+      </c>
+      <c r="M52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>44982</v>
+      </c>
+      <c r="B53" t="s">
+        <v>218</v>
+      </c>
+      <c r="C53" s="6">
+        <v>0</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0</v>
+      </c>
+      <c r="F53" s="6">
+        <v>0</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0</v>
+      </c>
+      <c r="H53" s="6">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" s="6">
+        <v>1.97</v>
+      </c>
+      <c r="K53" s="6">
+        <v>1.77</v>
+      </c>
+      <c r="L53" t="s">
+        <v>88</v>
+      </c>
+      <c r="M53" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>44982</v>
+      </c>
+      <c r="B54" t="s">
+        <v>219</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0</v>
+      </c>
+      <c r="F54" s="6">
+        <v>0</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0</v>
+      </c>
+      <c r="H54" s="6">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>11</v>
+      </c>
+      <c r="J54" s="6">
+        <v>2.16</v>
+      </c>
+      <c r="K54" s="6">
+        <v>1.64</v>
+      </c>
+      <c r="L54" t="s">
+        <v>48</v>
+      </c>
+      <c r="M54" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>44982</v>
+      </c>
+      <c r="B55" t="s">
+        <v>220</v>
+      </c>
+      <c r="C55" s="6">
+        <v>0</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55" s="6">
+        <v>0</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0</v>
+      </c>
+      <c r="H55" s="6">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55" s="6">
+        <v>1.86</v>
+      </c>
+      <c r="K55" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="L55" t="s">
+        <v>44</v>
+      </c>
+      <c r="M55" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>44982</v>
+      </c>
+      <c r="B56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
+      <c r="F56" s="6">
+        <v>0</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0</v>
+      </c>
+      <c r="H56" s="6">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>11</v>
+      </c>
+      <c r="J56" s="6">
+        <v>2.19</v>
+      </c>
+      <c r="K56" s="6">
+        <v>1.63</v>
+      </c>
+      <c r="L56" t="s">
+        <v>41</v>
+      </c>
+      <c r="M56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>44983</v>
+      </c>
+      <c r="B57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C57" s="6">
+        <v>0</v>
+      </c>
+      <c r="D57" s="6">
+        <v>0</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0</v>
+      </c>
+      <c r="F57" s="6">
+        <v>0</v>
+      </c>
+      <c r="G57" s="6">
+        <v>0</v>
+      </c>
+      <c r="H57" s="6">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>11</v>
+      </c>
+      <c r="J57" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="K57" s="6">
+        <v>2</v>
+      </c>
+      <c r="L57" t="s">
+        <v>48</v>
+      </c>
+      <c r="M57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>44983</v>
+      </c>
+      <c r="B58" t="s">
+        <v>223</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0</v>
+      </c>
+      <c r="E58" s="6">
+        <v>0</v>
+      </c>
+      <c r="F58" s="6">
+        <v>0</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0</v>
+      </c>
+      <c r="H58" s="6">
+        <v>0</v>
+      </c>
+      <c r="I58" t="s">
+        <v>11</v>
+      </c>
+      <c r="J58" s="6">
+        <v>1.88</v>
+      </c>
+      <c r="K58" s="6">
+        <v>1.85</v>
+      </c>
+      <c r="L58" t="s">
+        <v>40</v>
+      </c>
+      <c r="M58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>44983</v>
+      </c>
+      <c r="B59" t="s">
+        <v>224</v>
+      </c>
+      <c r="C59" s="6">
+        <v>0</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59" s="6">
+        <v>0</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0</v>
+      </c>
+      <c r="H59" s="6">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>11</v>
+      </c>
+      <c r="J59" s="6">
+        <v>1.79</v>
+      </c>
+      <c r="K59" s="6">
+        <v>1.94</v>
+      </c>
+      <c r="L59" t="s">
+        <v>41</v>
+      </c>
+      <c r="M59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>44983</v>
+      </c>
+      <c r="B60" t="s">
+        <v>225</v>
+      </c>
+      <c r="C60" s="6">
+        <v>0</v>
+      </c>
+      <c r="D60" s="6">
+        <v>0</v>
+      </c>
+      <c r="E60" s="6">
+        <v>0</v>
+      </c>
+      <c r="F60" s="6">
+        <v>0</v>
+      </c>
+      <c r="G60" s="6">
+        <v>0</v>
+      </c>
+      <c r="H60" s="6">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
+        <v>11</v>
+      </c>
+      <c r="J60" s="6">
+        <v>1.85</v>
+      </c>
+      <c r="K60" s="6">
+        <v>1.88</v>
+      </c>
+      <c r="L60" t="s">
+        <v>186</v>
+      </c>
+      <c r="M60" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>44985</v>
+      </c>
+      <c r="B61" t="s">
+        <v>226</v>
+      </c>
+      <c r="C61" s="6">
+        <v>0</v>
+      </c>
+      <c r="D61" s="6">
+        <v>0</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0</v>
+      </c>
+      <c r="F61" s="6">
+        <v>0</v>
+      </c>
+      <c r="G61" s="6">
+        <v>0</v>
+      </c>
+      <c r="H61" s="6">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>11</v>
+      </c>
+      <c r="J61" s="6">
+        <v>2.04</v>
+      </c>
+      <c r="K61" s="6">
+        <v>1.73</v>
+      </c>
+      <c r="L61" t="s">
+        <v>41</v>
+      </c>
+      <c r="M61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M54" sqref="M54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="144" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>44986</v>
+      </c>
+      <c r="B2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>44987</v>
+      </c>
+      <c r="B3" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>44989</v>
+      </c>
+      <c r="B4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>44989</v>
+      </c>
+      <c r="B5" t="s">
+        <v>230</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>44989</v>
+      </c>
+      <c r="B6" t="s">
+        <v>231</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>44989</v>
+      </c>
+      <c r="B7" t="s">
+        <v>232</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>44989</v>
+      </c>
+      <c r="B8" t="s">
+        <v>233</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>44989</v>
+      </c>
+      <c r="B9" t="s">
+        <v>234</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>44990</v>
+      </c>
+      <c r="B10" t="s">
+        <v>235</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>44990</v>
+      </c>
+      <c r="B11" t="s">
+        <v>236</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>44990</v>
+      </c>
+      <c r="B12" t="s">
+        <v>237</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>44991</v>
+      </c>
+      <c r="B13" t="s">
+        <v>238</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>44992</v>
+      </c>
+      <c r="B14" t="s">
+        <v>239</v>
+      </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>44995</v>
+      </c>
+      <c r="B15" t="s">
+        <v>240</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>44995</v>
+      </c>
+      <c r="B16" t="s">
+        <v>241</v>
+      </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>44996</v>
+      </c>
+      <c r="B17" t="s">
+        <v>242</v>
+      </c>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>44996</v>
+      </c>
+      <c r="B18" t="s">
+        <v>243</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>44996</v>
+      </c>
+      <c r="B19" t="s">
+        <v>244</v>
+      </c>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>44996</v>
+      </c>
+      <c r="B20" t="s">
+        <v>245</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>44997</v>
+      </c>
+      <c r="B21" t="s">
+        <v>246</v>
+      </c>
+      <c r="I21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>44997</v>
+      </c>
+      <c r="B22" t="s">
+        <v>247</v>
+      </c>
+      <c r="I22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>44997</v>
+      </c>
+      <c r="B23" t="s">
+        <v>248</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>44997</v>
+      </c>
+      <c r="B24" t="s">
+        <v>249</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>44997</v>
+      </c>
+      <c r="B25" t="s">
+        <v>250</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>44999</v>
+      </c>
+      <c r="B26" t="s">
+        <v>130</v>
+      </c>
+      <c r="I26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>45000</v>
+      </c>
+      <c r="B27" t="s">
+        <v>251</v>
+      </c>
+      <c r="I27" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>45003</v>
+      </c>
+      <c r="B28" t="s">
+        <v>252</v>
+      </c>
+      <c r="I28" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>45003</v>
+      </c>
+      <c r="B29" t="s">
+        <v>253</v>
+      </c>
+      <c r="I29" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>45003</v>
+      </c>
+      <c r="B30" t="s">
+        <v>254</v>
+      </c>
+      <c r="I30" t="s">
+        <v>256</v>
+      </c>
+      <c r="M30" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>45003</v>
+      </c>
+      <c r="B31" t="s">
+        <v>257</v>
+      </c>
+      <c r="I31" t="s">
+        <v>11</v>
+      </c>
+      <c r="M31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>45003</v>
+      </c>
+      <c r="B32" t="s">
+        <v>258</v>
+      </c>
+      <c r="I32" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>45004</v>
+      </c>
+      <c r="B33" t="s">
+        <v>259</v>
+      </c>
+      <c r="I33" t="s">
+        <v>11</v>
+      </c>
+      <c r="M33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>45004</v>
+      </c>
+      <c r="B34" t="s">
+        <v>260</v>
+      </c>
+      <c r="I34" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>45004</v>
+      </c>
+      <c r="B35" t="s">
+        <v>261</v>
+      </c>
+      <c r="I35" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>45006</v>
+      </c>
+      <c r="B36" t="s">
+        <v>262</v>
+      </c>
+      <c r="I36" t="s">
+        <v>11</v>
+      </c>
+      <c r="M36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>45007</v>
+      </c>
+      <c r="B37" t="s">
+        <v>263</v>
+      </c>
+      <c r="I37" t="s">
+        <v>11</v>
+      </c>
+      <c r="M37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>45010</v>
+      </c>
+      <c r="B38" t="s">
+        <v>264</v>
+      </c>
+      <c r="I38" t="s">
+        <v>11</v>
+      </c>
+      <c r="M38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>45010</v>
+      </c>
+      <c r="B39" t="s">
+        <v>265</v>
+      </c>
+      <c r="I39" t="s">
+        <v>11</v>
+      </c>
+      <c r="M39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>45010</v>
+      </c>
+      <c r="B40" t="s">
+        <v>266</v>
+      </c>
+      <c r="I40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>45013</v>
+      </c>
+      <c r="B41" t="s">
+        <v>267</v>
+      </c>
+      <c r="I41" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>45016</v>
+      </c>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="I42" t="s">
+        <v>11</v>
+      </c>
+      <c r="M42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.28515625" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="144.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>45017</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>45017</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>45017</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>45017</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>45017</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>45023</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>45023</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>45024</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>45026</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>45026</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>45026</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>45026</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>45026</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>45026</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>45031</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>45031</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>45031</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>45031</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>45031</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>45031</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>45031</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>45031</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>45031</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>45031</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>45031</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>45034</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>45034</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>45034</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>45034</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>45034</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>45038</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>45038</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>45038</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>45038</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>45038</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>45041</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>45041</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>45041</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>45041</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>45041</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>45043</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>45044</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>45045</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>45045</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>45045</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>45046</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="38">
+        <v>45046</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="38">
+        <v>45046</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="144.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>45047</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>45047</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>45048</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>45049</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>45050</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>45052</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>45052</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>45053</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>45053</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>45053</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>45054</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>45054</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>45055</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>45057</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="I15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>45059</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>45059</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>45059</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>45059</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>45059</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>45060</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="I21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>45060</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="I22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>45060</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>45060</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>45060</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>45060</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="I26" t="s">
+        <v>256</v>
+      </c>
+      <c r="M26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>45065</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="I27" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>45066</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="I28" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>45066</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="I29" t="s">
+        <v>256</v>
+      </c>
+      <c r="M29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>45067</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="I30" t="s">
+        <v>11</v>
+      </c>
+      <c r="M30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>45067</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="I31" t="s">
+        <v>11</v>
+      </c>
+      <c r="M31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>45071</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="I32" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>45073</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="I33" t="s">
+        <v>11</v>
+      </c>
+      <c r="M33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>45073</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="I34" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>45073</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="I35" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>45074</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="I36" t="s">
+        <v>11</v>
+      </c>
+      <c r="M36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>45074</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="I37" t="s">
+        <v>11</v>
+      </c>
+      <c r="M37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,12 +8715,12 @@
     <col min="4" max="8" width="9.140625" style="6"/>
     <col min="9" max="9" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="9.140625" style="6"/>
-    <col min="13" max="13" width="27" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="144.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="144" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -970,7 +8792,7 @@
       <c r="J2" s="6">
         <v>2.41</v>
       </c>
-      <c r="K2" s="33">
+      <c r="K2" s="31">
         <v>1.59</v>
       </c>
       <c r="L2" s="6" t="s">
@@ -1010,7 +8832,7 @@
       <c r="I3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="31">
         <v>1.69</v>
       </c>
       <c r="K3" s="6">
@@ -1053,7 +8875,7 @@
       <c r="I4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="31">
         <v>1.65</v>
       </c>
       <c r="K4" s="6">
@@ -1185,7 +9007,7 @@
       <c r="J7" s="6">
         <v>1.95</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="32">
         <v>1.9</v>
       </c>
       <c r="L7" s="6" t="s">
@@ -1225,7 +9047,7 @@
       <c r="I8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="33">
+      <c r="J8" s="31">
         <v>1.74</v>
       </c>
       <c r="K8" s="6">
@@ -1268,7 +9090,7 @@
       <c r="I9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="33">
+      <c r="J9" s="31">
         <v>1.74</v>
       </c>
       <c r="K9" s="6">
@@ -1314,7 +9136,7 @@
       <c r="J10" s="6">
         <v>2.14</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="32">
         <v>1.74</v>
       </c>
       <c r="L10" s="6" t="s">
@@ -1357,7 +9179,7 @@
       <c r="J11" s="6">
         <v>1.94</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="33">
         <v>1.91</v>
       </c>
       <c r="L11" s="6" t="s">
@@ -1400,7 +9222,7 @@
       <c r="J12" s="6">
         <v>1.87</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="33">
         <v>1.99</v>
       </c>
       <c r="L12" s="6" t="s">
@@ -1443,7 +9265,7 @@
       <c r="J13" s="6">
         <v>1.79</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="32">
         <v>2.0299999999999998</v>
       </c>
       <c r="L13" s="6" t="s">
@@ -1483,7 +9305,7 @@
       <c r="I14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="33">
+      <c r="J14" s="31">
         <v>1.63</v>
       </c>
       <c r="K14" s="6">
@@ -1529,7 +9351,7 @@
       <c r="J15" s="6">
         <v>1.85</v>
       </c>
-      <c r="K15" s="35">
+      <c r="K15" s="33">
         <v>1.94</v>
       </c>
       <c r="L15" s="6" t="s">
@@ -1572,7 +9394,7 @@
       <c r="J16" s="6">
         <v>1.99</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K16" s="33">
         <v>1.87</v>
       </c>
       <c r="L16" s="6" t="s">
@@ -1658,7 +9480,7 @@
       <c r="J18" s="6">
         <v>2.11</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="32">
         <v>1.77</v>
       </c>
       <c r="L18" s="6" t="s">
@@ -1740,10 +9562,10 @@
         <v>11</v>
       </c>
       <c r="J20" s="6">
-        <v>1.806</v>
+        <v>1.67</v>
       </c>
       <c r="K20" s="6">
-        <v>1.99</v>
+        <v>2.11</v>
       </c>
       <c r="M20" s="6" t="s">
         <v>16</v>
@@ -1778,16 +9600,16 @@
         <v>11</v>
       </c>
       <c r="J21" s="6">
-        <v>404</v>
+        <v>1.89</v>
       </c>
       <c r="K21" s="6">
-        <v>404</v>
-      </c>
-      <c r="L21" s="6">
-        <v>404</v>
+        <v>1.8</v>
       </c>
       <c r="M21" s="6" t="s">
         <v>73</v>
+      </c>
+      <c r="N21" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1819,13 +9641,16 @@
         <v>11</v>
       </c>
       <c r="J22" s="6">
-        <v>1.8919999999999999</v>
+        <v>1.82</v>
       </c>
       <c r="K22" s="6">
-        <v>1.9430000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="M22" s="6" t="s">
         <v>26</v>
+      </c>
+      <c r="N22" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -1862,8 +9687,546 @@
       <c r="K23" s="6">
         <v>2.0699999999999998</v>
       </c>
+      <c r="L23" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="M23" s="6" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>45157</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="6">
+        <v>1.57</v>
+      </c>
+      <c r="K24" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>45157</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="6">
+        <v>1.79</v>
+      </c>
+      <c r="K25" s="6">
+        <v>1.91</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>45157</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="6">
+        <v>1.76</v>
+      </c>
+      <c r="K26" s="6">
+        <v>1.95</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>45158</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="6">
+        <v>404</v>
+      </c>
+      <c r="K27" s="6">
+        <v>404</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>45158</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="6">
+        <v>1.74</v>
+      </c>
+      <c r="K28" s="6">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>45158</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="6">
+        <v>1.61</v>
+      </c>
+      <c r="K29" s="6">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>45162</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" s="6">
+        <v>1.56</v>
+      </c>
+      <c r="K30" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>45162</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" s="6">
+        <v>1.71</v>
+      </c>
+      <c r="K31" s="6">
+        <v>2.02</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>45164</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="6">
+        <v>1.55</v>
+      </c>
+      <c r="K32" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>45164</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" s="6">
+        <v>1.77</v>
+      </c>
+      <c r="K33" s="6">
+        <v>1.97</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>45164</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="6">
+        <v>1.71</v>
+      </c>
+      <c r="K34" s="6">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>45164</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" s="6">
+        <v>1.76</v>
+      </c>
+      <c r="K35" s="6">
+        <v>1.94</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>45164</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="6">
+        <v>1.64</v>
+      </c>
+      <c r="K36" s="6">
+        <v>2.16</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>45164</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" s="6">
+        <v>1.65</v>
+      </c>
+      <c r="K37" s="6">
+        <v>2.13</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1880,12 +10243,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1893,7 +10256,7 @@
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="6"/>
-    <col min="4" max="4" width="18.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="6"/>
@@ -1927,584 +10290,608 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
+        <v>45139</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="14">
+        <v>1.59</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13">
+        <f>C2*D$31</f>
+        <v>954</v>
+      </c>
+      <c r="G2" s="13">
+        <f t="shared" ref="G2:G13" si="0">F2-D$31</f>
+        <v>354</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>45142</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="14">
+        <v>1.69</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13">
+        <f t="shared" si="0"/>
+        <v>-600</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>45144</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C4" s="14">
         <v>1.93</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D4" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14">
-        <f>C2*D$39</f>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13">
+        <f>C4*D$31</f>
         <v>1158</v>
       </c>
-      <c r="G2" s="14">
-        <f t="shared" ref="G2:G7" si="0">F2-D$39</f>
+      <c r="G4" s="13">
+        <f t="shared" si="0"/>
         <v>558</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>45144</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="15">
+      <c r="B5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="14">
         <v>1.74</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14">
-        <f>C3*D$39</f>
+      <c r="D5" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13">
+        <f>C5*D$31</f>
         <v>1044</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G5" s="13">
         <f t="shared" si="0"/>
         <v>444</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="H5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>45144</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="15">
-        <v>1.74</v>
-      </c>
-      <c r="D4" s="12" t="s">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>45150</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="14">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14">
-        <f>C4*D$39</f>
-        <v>1044</v>
-      </c>
-      <c r="G4" s="14">
+      <c r="E6" s="12"/>
+      <c r="F6" s="13">
+        <f>C6*D$31</f>
+        <v>1217.9999999999998</v>
+      </c>
+      <c r="G6" s="13">
         <f t="shared" si="0"/>
-        <v>444</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+        <v>617.99999999999977</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>45150</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C7" s="14">
         <v>1.63</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D7" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14">
+      <c r="E7" s="12"/>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13">
         <f t="shared" si="0"/>
         <v>-600</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>45150</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1.94</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13">
+        <f t="shared" si="0"/>
+        <v>-600</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>45152</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C9" s="14">
         <v>1.77</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D9" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14">
-        <f>C6*D$39</f>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13">
+        <f>C9*D$31</f>
         <v>1062</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G9" s="13">
         <f t="shared" si="0"/>
         <v>462</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>45153</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="15">
-        <v>1.72</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14">
-        <v>0</v>
-      </c>
-      <c r="G7" s="14">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>45155</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1.67</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13">
+        <f>C10*D$31</f>
+        <v>1002</v>
+      </c>
+      <c r="G10" s="13">
         <f t="shared" si="0"/>
-        <v>-600</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="I13" s="6"/>
+        <v>402</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>45157</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13">
+        <f>C11*D$31</f>
+        <v>1080</v>
+      </c>
+      <c r="G11" s="13">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>45157</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13">
+        <f>C12*D$31</f>
+        <v>1140</v>
+      </c>
+      <c r="G12" s="13">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>45157</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1.91</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13">
+        <f>C13*D$31</f>
+        <v>1146</v>
+      </c>
+      <c r="G13" s="13">
+        <f t="shared" si="0"/>
+        <v>546</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="6"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="28">
+        <f>COUNT(C2:C14)</f>
+        <v>12</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
       <c r="G20" s="14"/>
-      <c r="I20" s="6"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="6"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="18">
+        <f>COUNTIF(G2:G13,"&lt;0")</f>
+        <v>3</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="18">
+        <f>D20-D21</f>
+        <v>9</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="6"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="18">
+        <f>D22/D20*100</f>
+        <v>75</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="6"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="18">
+        <f>1/D25*100</f>
+        <v>55.555555555555557</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="18">
+        <f>SUM(C2:C14)/D20</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="6"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="18">
+        <f>D23-D24</f>
+        <v>19.444444444444443</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="18">
+        <f>D26/1</f>
+        <v>19.444444444444443</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+    </row>
+    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
-      <c r="B28" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="30">
-        <f>COUNT(C2:C22)</f>
-        <v>6</v>
+      <c r="B28" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="29">
+        <v>30000</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+    </row>
+    <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="20">
-        <f>COUNTIF(G2:G8,"&lt;0")</f>
-        <v>2</v>
-      </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
+        <v>69</v>
+      </c>
+      <c r="D29" s="30">
+        <v>30000</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="20">
-        <f>D28-D29</f>
-        <v>4</v>
-      </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
+        <v>61</v>
+      </c>
+      <c r="D30" s="27">
+        <f>D29/100</f>
+        <v>300</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
-      <c r="B31" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="20">
-        <f>D30/D28*100</f>
-        <v>66.666666666666657</v>
-      </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="B31" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="27">
+        <f>D30*2</f>
+        <v>600</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="20">
-        <f>1/D33*100</f>
-        <v>56.980056980056979</v>
-      </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
+        <v>62</v>
+      </c>
+      <c r="D32" s="27">
+        <f>SUM(G2:G14)</f>
+        <v>2604</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
-      <c r="B33" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="20">
-        <f>SUM(C2:C22)/D28</f>
-        <v>1.7550000000000001</v>
-      </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
+      <c r="B33" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="18">
+        <f>D32/D28*100</f>
+        <v>8.68</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="20">
-        <f>D31-D32</f>
-        <v>9.6866096866096782</v>
-      </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="20">
-        <f>D34/1</f>
-        <v>9.6866096866096782</v>
-      </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-    </row>
-    <row r="36" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="31">
-        <v>30000</v>
-      </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-    </row>
-    <row r="37" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="32">
-        <v>30000</v>
-      </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="29">
-        <f>D37/100</f>
-        <v>300</v>
-      </c>
-      <c r="E38" s="22"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" s="29">
-        <f>D38*2</f>
-        <v>600</v>
-      </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="29">
-        <f>SUM(G2:G22)</f>
-        <v>708</v>
-      </c>
-      <c r="E40" s="22"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" s="20">
-        <f>D40/D36*100</f>
-        <v>2.36</v>
-      </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E42" s="28"/>
+      <c r="E34" s="26"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E29:E41">
+  <conditionalFormatting sqref="E21:E33">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -2515,7 +10902,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22:H27 H21 G2:G20">
+  <conditionalFormatting sqref="G14:H19 H13 G2:G13">
     <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/tecnica_analise/2023/bts-asian2023.xlsx
+++ b/tecnica_analise/2023/bts-asian2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="11" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="julho" sheetId="9" r:id="rId12"/>
     <sheet name="agosto" sheetId="1" r:id="rId13"/>
     <sheet name="agostInvest" sheetId="2" r:id="rId14"/>
+    <sheet name="setembro" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="482">
   <si>
     <t>DATA</t>
   </si>
@@ -1289,6 +1290,213 @@
   </si>
   <si>
     <t>BTS</t>
+  </si>
+  <si>
+    <t>RIO GRANDE vs SAN ANTONIO</t>
+  </si>
+  <si>
+    <t>D. ESPANOL vs BERAZATEGUI</t>
+  </si>
+  <si>
+    <t>ARGENTINA - PRIMERA C</t>
+  </si>
+  <si>
+    <t>OVER 1,5</t>
+  </si>
+  <si>
+    <t>OVER 1,75</t>
+  </si>
+  <si>
+    <t>OVER 2</t>
+  </si>
+  <si>
+    <t>UNDER 2</t>
+  </si>
+  <si>
+    <t>AVAI vs ATLETICO GO</t>
+  </si>
+  <si>
+    <t>BOTAFOGO PB vs AMAZONAS</t>
+  </si>
+  <si>
+    <t>CEREZO OSAKA vs K. FRONTALE</t>
+  </si>
+  <si>
+    <t>DAGENHAM &amp; R. vs AFC FYLDE</t>
+  </si>
+  <si>
+    <t>DONCASTER vs SWINDON TOWN</t>
+  </si>
+  <si>
+    <t>LEYTON ORIENT vs STEVENAGE</t>
+  </si>
+  <si>
+    <t>V. HACHINOHE vs GAINARE TOTTORI</t>
+  </si>
+  <si>
+    <t>OITA TRINITA vs FUJIEDA MYFC</t>
+  </si>
+  <si>
+    <t>PUERTO NUEVO vs JJ URQUIZA</t>
+  </si>
+  <si>
+    <t>JEONNAM DRAGONS vs GIMCHEON SANGMU</t>
+  </si>
+  <si>
+    <t>POHANG STEELERS vs DAEJEON CITIZEN</t>
+  </si>
+  <si>
+    <t>SEOUL E-LAND vs BUSAN IPARK</t>
+  </si>
+  <si>
+    <t>TORMENTA vs N. COLORADO</t>
+  </si>
+  <si>
+    <t>BUCHEON FC vs SEOUL E-LAND</t>
+  </si>
+  <si>
+    <t>CEREZO OSAKA vs NAGOYA G.</t>
+  </si>
+  <si>
+    <t>DAGENHAM &amp; R. vs BARNET</t>
+  </si>
+  <si>
+    <t>GYEONGNAM vs SEONGNAM</t>
+  </si>
+  <si>
+    <t>ONE KNOXVILLE vs CHARLOTTE</t>
+  </si>
+  <si>
+    <t>SAGAN TOSU vs GAMBA OSAKA</t>
+  </si>
+  <si>
+    <t>ANYANG vs JEONNAM DRAGONS</t>
+  </si>
+  <si>
+    <t>TIGRE vs RACING CLUB</t>
+  </si>
+  <si>
+    <t>WOKING vs DORKING</t>
+  </si>
+  <si>
+    <t>PARIS FC vs ANNECY</t>
+  </si>
+  <si>
+    <t>MONACO vs TOULOUSE</t>
+  </si>
+  <si>
+    <t>REIMS vs MONTPELLIER</t>
+  </si>
+  <si>
+    <t>DAEGU vs SEOUL</t>
+  </si>
+  <si>
+    <t>SAGAN TOSU vs C. SAPPORO</t>
+  </si>
+  <si>
+    <t>ATHLETIC CLUB vs RESENDE</t>
+  </si>
+  <si>
+    <t>RACING CLUB vs BARRACAS C.</t>
+  </si>
+  <si>
+    <t>ATHLETIC CLUB vs VITORIA ES</t>
+  </si>
+  <si>
+    <t>SEONGNAM vs BUCHEON FC</t>
+  </si>
+  <si>
+    <t>URAWA RD vs K. FRONTALE</t>
+  </si>
+  <si>
+    <t>BAHIA DE FEIRA vs A. ALAGOINAS</t>
+  </si>
+  <si>
+    <t>ALBIREX NIIGATA vs S. HIROSHIMA</t>
+  </si>
+  <si>
+    <t>ANSAN GREENERS vs BUSAN IPARK</t>
+  </si>
+  <si>
+    <t>BUCHEON FC vs GIMCHEON SANGMU</t>
+  </si>
+  <si>
+    <t>COLON SANTA FE vs RACING CLUB</t>
+  </si>
+  <si>
+    <t>SARMIENTO vs T. DE CORDOBA</t>
+  </si>
+  <si>
+    <t>KASHIWA REYSOL vs SHONAN BELLMARE</t>
+  </si>
+  <si>
+    <t>SAGAN TOSU vs CEREZO OSAKA</t>
+  </si>
+  <si>
+    <t>SUWON CITY vs INCHEON UTD</t>
+  </si>
+  <si>
+    <t>JEJU UTD vs GWANGJU</t>
+  </si>
+  <si>
+    <t>ULSAN vs INCHEON UTD</t>
+  </si>
+  <si>
+    <t>ANSAN GREENERS vs BUCHEON FC</t>
+  </si>
+  <si>
+    <t>GYEONGNAM vs JEONNAM DRAGONS</t>
+  </si>
+  <si>
+    <t>POHANG STEELERS vs JEJU UTD</t>
+  </si>
+  <si>
+    <t>BUCHEON FC vs CHEONGJU</t>
+  </si>
+  <si>
+    <t>D. ESPANOL vs G. LAMADRID</t>
+  </si>
+  <si>
+    <t>TIGRE vs BARRACAS C.</t>
+  </si>
+  <si>
+    <t>TOMBENSE vs CRB</t>
+  </si>
+  <si>
+    <t>SUWON CITY vs GWANGJU</t>
+  </si>
+  <si>
+    <t>GYEONGNAM vs GIMCHEON SANGMU</t>
+  </si>
+  <si>
+    <t>SARMIENTO vs BANFIELD</t>
+  </si>
+  <si>
+    <t>SEONGNAM vs JEONNAM DRAGONS</t>
+  </si>
+  <si>
+    <t>BUCHEON FC vs BUSAN IPARK</t>
+  </si>
+  <si>
+    <t>ANYANG vs GIMCHEON SANGMU</t>
+  </si>
+  <si>
+    <t>SEOUL E-LAND vs CHUNGNAM ASAN</t>
+  </si>
+  <si>
+    <t>ANYANG vs BUSAN IPARK</t>
+  </si>
+  <si>
+    <t>LAS VEGAS L. vs ORANGE COUNTY</t>
+  </si>
+  <si>
+    <t>NEW MEXICO vs CHARLESTON</t>
+  </si>
+  <si>
+    <t>SAN DIEGO LOYAL vs BIRMINGHAM L.</t>
+  </si>
+  <si>
+    <t>TOCHIGI SC vs FUJIEDA MYFC</t>
   </si>
 </sst>
 </file>
@@ -1441,7 +1649,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1556,6 +1764,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -1650,7 +1864,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
@@ -1846,31 +2060,12 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="69">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="67">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2118,26 +2313,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2527,6 +2702,26 @@
       <alignment horizontal="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFCF5E8"/>
@@ -2609,24 +2804,24 @@
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Equipes-style 10" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="68"/>
-      <tableStyleElement type="secondRowStripe" dxfId="67"/>
-    </tableStyle>
-    <tableStyle name="Equipes-style 2" pivot="0" count="2">
       <tableStyleElement type="firstRowStripe" dxfId="66"/>
       <tableStyleElement type="secondRowStripe" dxfId="65"/>
     </tableStyle>
-    <tableStyle name="Equipes-style 3" pivot="0" count="2">
+    <tableStyle name="Equipes-style 2" pivot="0" count="2">
       <tableStyleElement type="firstRowStripe" dxfId="64"/>
       <tableStyleElement type="secondRowStripe" dxfId="63"/>
     </tableStyle>
-    <tableStyle name="Equipes-style 4" pivot="0" count="2">
+    <tableStyle name="Equipes-style 3" pivot="0" count="2">
       <tableStyleElement type="firstRowStripe" dxfId="62"/>
       <tableStyleElement type="secondRowStripe" dxfId="61"/>
     </tableStyle>
-    <tableStyle name="Equipes-style 7" pivot="0" count="2">
+    <tableStyle name="Equipes-style 4" pivot="0" count="2">
       <tableStyleElement type="firstRowStripe" dxfId="60"/>
       <tableStyleElement type="secondRowStripe" dxfId="59"/>
+    </tableStyle>
+    <tableStyle name="Equipes-style 7" pivot="0" count="2">
+      <tableStyleElement type="firstRowStripe" dxfId="58"/>
+      <tableStyleElement type="secondRowStripe" dxfId="57"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2641,16 +2836,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_235" displayName="Table_235" ref="H19:K19" headerRowCount="0" headerRowDxfId="58" dataDxfId="57" totalsRowDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_235" displayName="Table_235" ref="H19:K19" headerRowCount="0" headerRowDxfId="54" dataDxfId="53" totalsRowDxfId="52">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="55">
+    <tableColumn id="1" name="Column1" dataDxfId="51">
       <calculatedColumnFormula>COUNTIF(janeiroInvest!$I$2:$I$12,I19)+COUNTIF(fevereiroInvest!$I$2:$I$17,I19)+COUNTIF(marcoInvest!$I$2:$I$12,I19)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="54"/>
-    <tableColumn id="3" name="Column3" dataDxfId="53">
+    <tableColumn id="2" name="Column2" dataDxfId="50"/>
+    <tableColumn id="3" name="Column3" dataDxfId="49">
       <calculatedColumnFormula>SUMIFS(janeiroInvest!$G$2:$G$12,janeiroInvest!$I$2:$I$12,I19)+SUMIFS(fevereiroInvest!$G$2:$G$17,fevereiroInvest!$I$2:$I$17,I19)+SUMIFS(marcoInvest!$G$2:$G$12,marcoInvest!$I$2:$I$12,I19)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="52">
+    <tableColumn id="4" name="Column4" dataDxfId="48">
       <calculatedColumnFormula>J19/$F$13*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2659,16 +2854,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_336" displayName="Table_336" ref="H20:K20" headerRowCount="0" headerRowDxfId="51" dataDxfId="50" totalsRowDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_336" displayName="Table_336" ref="H20:K20" headerRowCount="0" headerRowDxfId="47" dataDxfId="46" totalsRowDxfId="45">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="48">
+    <tableColumn id="1" name="Column1" dataDxfId="44">
       <calculatedColumnFormula>COUNTIF(janeiroInvest!$I$2:$I$12,I20)+COUNTIF(fevereiroInvest!$I$2:$I$17,I20)+COUNTIF(marcoInvest!$I$2:$I$12,I20)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="47"/>
-    <tableColumn id="3" name="Column3" dataDxfId="46">
+    <tableColumn id="2" name="Column2" dataDxfId="43"/>
+    <tableColumn id="3" name="Column3" dataDxfId="42">
       <calculatedColumnFormula>SUMIFS(janeiroInvest!$G$2:$G$12,janeiroInvest!$I$2:$I$12,I20)+SUMIFS(fevereiroInvest!$G$2:$G$17,fevereiroInvest!$I$2:$I$17,I20)+SUMIFS(marcoInvest!$G$2:$G$12,marcoInvest!$I$2:$I$12,I20)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="45">
+    <tableColumn id="4" name="Column4" dataDxfId="41">
       <calculatedColumnFormula>J20/$F$13*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2677,16 +2872,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_437" displayName="Table_437" ref="H21:K21" headerRowCount="0" headerRowDxfId="44" dataDxfId="43" totalsRowDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_437" displayName="Table_437" ref="H21:K21" headerRowCount="0" headerRowDxfId="40" dataDxfId="39" totalsRowDxfId="38">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="41">
+    <tableColumn id="1" name="Column1" dataDxfId="37">
       <calculatedColumnFormula>COUNTIF(janeiroInvest!$I$2:$I$12,I21)+COUNTIF(fevereiroInvest!$I$2:$I$17,I21)+COUNTIF(marcoInvest!$I$2:$I$12,I21)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="40"/>
-    <tableColumn id="3" name="Column3" dataDxfId="39">
+    <tableColumn id="2" name="Column2" dataDxfId="36"/>
+    <tableColumn id="3" name="Column3" dataDxfId="35">
       <calculatedColumnFormula>SUMIFS(janeiroInvest!$G$2:$G$12,janeiroInvest!$I$2:$I$12,I21)+SUMIFS(fevereiroInvest!$G$2:$G$17,fevereiroInvest!$I$2:$I$17,I21)+SUMIFS(marcoInvest!$G$2:$G$12,marcoInvest!$I$2:$I$12,I21)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="38">
+    <tableColumn id="4" name="Column4" dataDxfId="34">
       <calculatedColumnFormula>J21/$F$13*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2695,16 +2890,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_1043" displayName="Table_1043" ref="H22:K22" headerRowCount="0" headerRowDxfId="37" dataDxfId="36" totalsRowDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_1043" displayName="Table_1043" ref="H22:K22" headerRowCount="0" headerRowDxfId="33" dataDxfId="32" totalsRowDxfId="31">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="34">
+    <tableColumn id="1" name="Column1" dataDxfId="30">
       <calculatedColumnFormula>COUNTIF(janeiroInvest!$I$2:$I$12,I22)+COUNTIF(fevereiroInvest!$I$2:$I$17,I22)+COUNTIF(marcoInvest!$I$2:$I$12,I22)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="33"/>
-    <tableColumn id="3" name="Column3" dataDxfId="32">
+    <tableColumn id="2" name="Column2" dataDxfId="29"/>
+    <tableColumn id="3" name="Column3" dataDxfId="28">
       <calculatedColumnFormula>SUMIFS(janeiroInvest!$G$2:$G$12,janeiroInvest!$I$2:$I$12,I22)+SUMIFS(fevereiroInvest!$G$2:$G$17,fevereiroInvest!$I$2:$I$17,I22)+SUMIFS(marcoInvest!$G$2:$G$12,marcoInvest!$I$2:$I$12,I22)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="31">
+    <tableColumn id="4" name="Column4" dataDxfId="27">
       <calculatedColumnFormula>J24/$F$13*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3489,10 +3684,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J6:J23">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5048,20 +5243,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L2" sqref="A2:L12"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="144" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="144" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5086,173 +5281,410 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>45080</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
       <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>45080</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
         <v>71</v>
       </c>
-      <c r="M3" t="s">
+      <c r="Q3" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>45081</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
       <c r="M4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>45081</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
       <c r="M5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>45081</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="I6" t="s">
-        <v>11</v>
-      </c>
       <c r="M6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>45087</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="I7" t="s">
-        <v>11</v>
-      </c>
       <c r="M7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>45088</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="I8" t="s">
-        <v>11</v>
-      </c>
       <c r="M8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>45101</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="I9" t="s">
-        <v>11</v>
-      </c>
       <c r="M9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>45102</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="I10" t="s">
-        <v>11</v>
-      </c>
       <c r="M10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>45105</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="I11" t="s">
-        <v>11</v>
-      </c>
       <c r="M11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>45107</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="I12" t="s">
-        <v>11</v>
-      </c>
       <c r="M12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>45079</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>45080</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="M14" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>45080</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="M15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>45080</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="M16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>45081</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="M17" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>45081</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="M18" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>45081</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="M19" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>45087</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="M20" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>45091</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="M21" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>45099</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="M22" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>45101</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="M23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>45101</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="M24" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>45101</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="M25" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>45105</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="M26" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="M27" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q27" t="s">
         <v>255</v>
       </c>
     </row>
@@ -5264,10 +5696,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5598,6 +6030,426 @@
         <v>16</v>
       </c>
     </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>45108</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="I22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>45108</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>45108</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>45109</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>45109</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="I26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>45110</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="I27" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>45114</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="I28" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>45115</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="I29" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>45115</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="I30" t="s">
+        <v>11</v>
+      </c>
+      <c r="M30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>45115</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="I31" t="s">
+        <v>11</v>
+      </c>
+      <c r="M31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>45115</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="I32" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>45118</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="I33" t="s">
+        <v>11</v>
+      </c>
+      <c r="M33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>45119</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="I34" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>45122</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="I35" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>45122</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="I36" t="s">
+        <v>11</v>
+      </c>
+      <c r="M36" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>45123</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="I37" t="s">
+        <v>11</v>
+      </c>
+      <c r="M37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>45123</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="I38" t="s">
+        <v>11</v>
+      </c>
+      <c r="M38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>45125</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="I39" t="s">
+        <v>11</v>
+      </c>
+      <c r="M39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>45125</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="I40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M40" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>45125</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="I41" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>45126</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="I42" t="s">
+        <v>11</v>
+      </c>
+      <c r="M42" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>45129</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="I43" t="s">
+        <v>11</v>
+      </c>
+      <c r="M43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>45130</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="I44" t="s">
+        <v>11</v>
+      </c>
+      <c r="M44" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>45130</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="I45" t="s">
+        <v>11</v>
+      </c>
+      <c r="M45" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>45130</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="I46" t="s">
+        <v>11</v>
+      </c>
+      <c r="M46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>45136</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="I47" t="s">
+        <v>11</v>
+      </c>
+      <c r="M47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>45136</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="I48" t="s">
+        <v>11</v>
+      </c>
+      <c r="M48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>45137</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="I49" t="s">
+        <v>11</v>
+      </c>
+      <c r="M49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>45138</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="I50" t="s">
+        <v>11</v>
+      </c>
+      <c r="M50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>45138</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="I51" t="s">
+        <v>11</v>
+      </c>
+      <c r="M51" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5605,26 +6457,26 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:M56"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.140625" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9.140625" style="6"/>
-    <col min="9" max="9" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="9.140625" style="6"/>
-    <col min="13" max="13" width="32.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="9.140625" style="6"/>
+    <col min="13" max="13" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="9.140625" style="6"/>
+    <col min="17" max="17" width="32.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="144" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="144" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5649,23 +6501,27 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>45139</v>
       </c>
@@ -5690,25 +6546,25 @@
       <c r="H2" s="6">
         <v>1.44</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="6">
+      <c r="M2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="6">
         <v>2.41</v>
       </c>
-      <c r="K2" s="31">
+      <c r="O2" s="31">
         <v>1.59</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>45142</v>
       </c>
@@ -5733,25 +6589,25 @@
       <c r="H3" s="6">
         <v>2.11</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="31">
+      <c r="M3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="31">
         <v>1.69</v>
       </c>
-      <c r="K3" s="6">
+      <c r="O3" s="6">
         <v>2.17</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>45143</v>
       </c>
@@ -5776,25 +6632,25 @@
       <c r="H4" s="6">
         <v>1.98</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="31">
+      <c r="M4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="31">
         <v>1.65</v>
       </c>
-      <c r="K4" s="6">
+      <c r="O4" s="6">
         <v>2.2799999999999998</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>45143</v>
       </c>
@@ -5819,25 +6675,25 @@
       <c r="H5" s="6">
         <v>1.96</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="M5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="6">
         <v>1.75</v>
       </c>
-      <c r="K5" s="31">
+      <c r="O5" s="31">
         <v>2.13</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="Q5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>45144</v>
       </c>
@@ -5862,25 +6718,25 @@
       <c r="H6" s="6">
         <v>1.94</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="6">
+      <c r="M6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="6">
         <v>1.76</v>
       </c>
-      <c r="K6" s="31">
+      <c r="O6" s="31">
         <v>2.12</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="P6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="Q6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>45144</v>
       </c>
@@ -5905,25 +6761,25 @@
       <c r="H7" s="6">
         <v>1.61</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="M7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="6">
         <v>1.95</v>
       </c>
-      <c r="K7" s="32">
+      <c r="O7" s="32">
         <v>1.9</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="P7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="Q7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>45144</v>
       </c>
@@ -5948,25 +6804,25 @@
       <c r="H8" s="6">
         <v>2.16</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="14">
+      <c r="M8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="14">
         <v>1.74</v>
       </c>
-      <c r="K8" s="31">
+      <c r="O8" s="31">
         <v>2.14</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="P8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="Q8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>45144</v>
       </c>
@@ -5991,25 +6847,25 @@
       <c r="H9" s="6">
         <v>2.27</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="14">
+      <c r="M9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="14">
         <v>1.74</v>
       </c>
-      <c r="K9" s="31">
+      <c r="O9" s="31">
         <v>2.13</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="P9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="Q9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>45144</v>
       </c>
@@ -6034,25 +6890,25 @@
       <c r="H10" s="6">
         <v>1.52</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="6">
+      <c r="M10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="6">
         <v>2.14</v>
       </c>
-      <c r="K10" s="32">
+      <c r="O10" s="32">
         <v>1.74</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="P10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="Q10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>45150</v>
       </c>
@@ -6077,25 +6933,25 @@
       <c r="H11" s="6">
         <v>1.72</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="6">
+      <c r="M11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="6">
         <v>1.94</v>
       </c>
-      <c r="K11" s="33">
+      <c r="O11" s="33">
         <v>1.91</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="P11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="Q11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>45150</v>
       </c>
@@ -6120,25 +6976,25 @@
       <c r="H12" s="6">
         <v>1.77</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="6">
+      <c r="M12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="6">
         <v>1.87</v>
       </c>
-      <c r="K12" s="33">
+      <c r="O12" s="33">
         <v>1.99</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="P12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="Q12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>45150</v>
       </c>
@@ -6163,25 +7019,25 @@
       <c r="H13" s="6">
         <v>1.8</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="6">
+      <c r="M13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="6">
         <v>1.79</v>
       </c>
-      <c r="K13" s="32">
+      <c r="O13" s="32">
         <v>2.0299999999999998</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="P13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="Q13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>45150</v>
       </c>
@@ -6206,25 +7062,25 @@
       <c r="H14" s="6">
         <v>2.13</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="31">
+      <c r="M14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="31">
         <v>1.63</v>
       </c>
-      <c r="K14" s="6">
+      <c r="O14" s="6">
         <v>2.3199999999999998</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="P14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="Q14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>45150</v>
       </c>
@@ -6249,25 +7105,25 @@
       <c r="H15" s="6">
         <v>1.74</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="6">
+      <c r="M15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="6">
         <v>1.85</v>
       </c>
-      <c r="K15" s="33">
+      <c r="O15" s="33">
         <v>1.94</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="P15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="Q15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>45151</v>
       </c>
@@ -6292,25 +7148,25 @@
       <c r="H16" s="6">
         <v>1.7</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="6">
+      <c r="M16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N16" s="6">
         <v>1.99</v>
       </c>
-      <c r="K16" s="33">
+      <c r="O16" s="33">
         <v>1.87</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="P16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="Q16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>45151</v>
       </c>
@@ -6335,25 +7191,25 @@
       <c r="H17" s="6">
         <v>2.04</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="6">
+      <c r="M17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" s="6">
         <v>1.75</v>
       </c>
-      <c r="K17" s="31">
+      <c r="O17" s="31">
         <v>2.13</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="P17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="Q17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>45152</v>
       </c>
@@ -6378,25 +7234,25 @@
       <c r="H18" s="6">
         <v>1.83</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="6">
+      <c r="M18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="6">
         <v>2.11</v>
       </c>
-      <c r="K18" s="32">
+      <c r="O18" s="32">
         <v>1.77</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="P18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="Q18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>45153</v>
       </c>
@@ -6421,23 +7277,23 @@
       <c r="H19" s="6">
         <v>0</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="M19" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="J19" s="6">
-        <v>0</v>
-      </c>
-      <c r="K19" s="6">
-        <v>0</v>
-      </c>
-      <c r="L19" s="6" t="s">
+      <c r="N19" s="6">
+        <v>0</v>
+      </c>
+      <c r="O19" s="6">
+        <v>0</v>
+      </c>
+      <c r="P19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="Q19" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>45155</v>
       </c>
@@ -6462,20 +7318,20 @@
       <c r="H20" s="6">
         <v>2.09</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J20" s="31">
+      <c r="M20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" s="31">
         <v>1.67</v>
       </c>
-      <c r="K20" s="6">
+      <c r="O20" s="6">
         <v>2.11</v>
       </c>
-      <c r="M20" s="6" t="s">
+      <c r="Q20" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>45157</v>
       </c>
@@ -6500,23 +7356,23 @@
       <c r="H21" s="6">
         <v>1.66</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J21" s="6">
+      <c r="M21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" s="6">
         <v>1.89</v>
       </c>
-      <c r="K21" s="31">
+      <c r="O21" s="31">
         <v>1.8</v>
       </c>
-      <c r="M21" s="6" t="s">
+      <c r="Q21" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="N21" t="s">
+      <c r="R21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>45157</v>
       </c>
@@ -6541,23 +7397,23 @@
       <c r="H22" s="6">
         <v>1.7190000000000001</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" s="6">
+      <c r="M22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22" s="6">
         <v>1.82</v>
       </c>
-      <c r="K22" s="31">
+      <c r="O22" s="31">
         <v>1.9</v>
       </c>
-      <c r="M22" s="6" t="s">
+      <c r="Q22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N22" t="s">
+      <c r="R22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>45157</v>
       </c>
@@ -6582,23 +7438,23 @@
       <c r="H23" s="6">
         <v>1.8</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="M23" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="J23" s="6">
+      <c r="N23" s="6">
         <v>1.7869999999999999</v>
       </c>
-      <c r="K23" s="6">
+      <c r="O23" s="6">
         <v>2.0699999999999998</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="P23" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="Q23" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>45157</v>
       </c>
@@ -6623,20 +7479,20 @@
       <c r="H24" s="6">
         <v>0</v>
       </c>
-      <c r="I24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" s="31">
+      <c r="M24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N24" s="31">
         <v>1.57</v>
       </c>
-      <c r="K24" s="6">
+      <c r="O24" s="6">
         <v>2.25</v>
       </c>
-      <c r="M24" s="6" t="s">
+      <c r="Q24" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>45157</v>
       </c>
@@ -6661,23 +7517,23 @@
       <c r="H25" s="6">
         <v>0</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" s="6">
+      <c r="M25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N25" s="6">
         <v>1.79</v>
       </c>
-      <c r="K25" s="31">
+      <c r="O25" s="31">
         <v>1.91</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="Q25" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N25" t="s">
+      <c r="R25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>45157</v>
       </c>
@@ -6702,20 +7558,20 @@
       <c r="H26" s="6">
         <v>0</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J26" s="6">
+      <c r="M26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N26" s="6">
         <v>1.76</v>
       </c>
-      <c r="K26" s="31">
+      <c r="O26" s="31">
         <v>1.95</v>
       </c>
-      <c r="M26" s="6" t="s">
+      <c r="Q26" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>45158</v>
       </c>
@@ -6740,20 +7596,20 @@
       <c r="H27" s="6">
         <v>0</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J27" s="6">
+      <c r="M27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N27" s="6">
         <v>404</v>
       </c>
-      <c r="K27" s="6">
+      <c r="O27" s="6">
         <v>404</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="Q27" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>45158</v>
       </c>
@@ -6778,20 +7634,20 @@
       <c r="H28" s="6">
         <v>0</v>
       </c>
-      <c r="I28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J28" s="6">
+      <c r="M28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N28" s="6">
         <v>1.74</v>
       </c>
-      <c r="K28" s="31">
+      <c r="O28" s="31">
         <v>2.0299999999999998</v>
       </c>
-      <c r="M28" s="6" t="s">
+      <c r="Q28" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>45158</v>
       </c>
@@ -6816,20 +7672,20 @@
       <c r="H29" s="6">
         <v>0</v>
       </c>
-      <c r="I29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J29" s="31">
+      <c r="M29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N29" s="31">
         <v>1.61</v>
       </c>
-      <c r="K29" s="6">
+      <c r="O29" s="6">
         <v>2.1800000000000002</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="Q29" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>45162</v>
       </c>
@@ -6854,20 +7710,20 @@
       <c r="H30" s="6">
         <v>0</v>
       </c>
-      <c r="I30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J30" s="31">
+      <c r="M30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N30" s="31">
         <v>1.56</v>
       </c>
-      <c r="K30" s="6">
+      <c r="O30" s="6">
         <v>2.27</v>
       </c>
-      <c r="M30" s="6" t="s">
+      <c r="Q30" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>45162</v>
       </c>
@@ -6892,20 +7748,20 @@
       <c r="H31" s="6">
         <v>0</v>
       </c>
-      <c r="I31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J31" s="6">
+      <c r="M31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N31" s="6">
         <v>1.71</v>
       </c>
-      <c r="K31" s="31">
+      <c r="O31" s="31">
         <v>2.02</v>
       </c>
-      <c r="M31" s="6" t="s">
+      <c r="Q31" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>45164</v>
       </c>
@@ -6930,20 +7786,20 @@
       <c r="H32" s="6">
         <v>0</v>
       </c>
-      <c r="I32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J32" s="31">
+      <c r="M32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N32" s="31">
         <v>1.55</v>
       </c>
-      <c r="K32" s="6">
+      <c r="O32" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="M32" s="6" t="s">
+      <c r="Q32" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>45164</v>
       </c>
@@ -6968,20 +7824,20 @@
       <c r="H33" s="6">
         <v>0</v>
       </c>
-      <c r="I33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J33" s="6">
+      <c r="M33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N33" s="6">
         <v>1.77</v>
       </c>
-      <c r="K33" s="31">
+      <c r="O33" s="31">
         <v>1.97</v>
       </c>
-      <c r="M33" s="6" t="s">
+      <c r="Q33" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>45164</v>
       </c>
@@ -7006,20 +7862,20 @@
       <c r="H34" s="6">
         <v>0</v>
       </c>
-      <c r="I34" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J34" s="6">
+      <c r="M34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N34" s="6">
         <v>1.71</v>
       </c>
-      <c r="K34" s="31">
+      <c r="O34" s="31">
         <v>2.0099999999999998</v>
       </c>
-      <c r="M34" s="6" t="s">
+      <c r="Q34" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>45164</v>
       </c>
@@ -7044,20 +7900,20 @@
       <c r="H35" s="6">
         <v>0</v>
       </c>
-      <c r="I35" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J35" s="6">
+      <c r="M35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N35" s="6">
         <v>1.76</v>
       </c>
-      <c r="K35" s="31">
+      <c r="O35" s="31">
         <v>1.94</v>
       </c>
-      <c r="M35" s="6" t="s">
+      <c r="Q35" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>45164</v>
       </c>
@@ -7082,20 +7938,20 @@
       <c r="H36" s="6">
         <v>0</v>
       </c>
-      <c r="I36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J36" s="31">
+      <c r="M36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N36" s="31">
         <v>1.64</v>
       </c>
-      <c r="K36" s="6">
+      <c r="O36" s="6">
         <v>2.16</v>
       </c>
-      <c r="M36" s="6" t="s">
+      <c r="Q36" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>45164</v>
       </c>
@@ -7120,20 +7976,20 @@
       <c r="H37" s="6">
         <v>0</v>
       </c>
-      <c r="I37" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J37" s="31">
+      <c r="M37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N37" s="31">
         <v>1.65</v>
       </c>
-      <c r="K37" s="6">
+      <c r="O37" s="6">
         <v>2.13</v>
       </c>
-      <c r="M37" s="6" t="s">
+      <c r="Q37" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>45165</v>
       </c>
@@ -7158,25 +8014,339 @@
       <c r="H38" s="6">
         <v>0</v>
       </c>
-      <c r="I38" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J38" s="31">
+      <c r="M38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N38" s="31">
         <v>1.63</v>
       </c>
-      <c r="K38" s="6">
+      <c r="O38" s="6">
         <v>2.15</v>
       </c>
-      <c r="M38" s="6" t="s">
+      <c r="Q38" s="6" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>45169</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="C39" s="6">
+        <v>3.13</v>
+      </c>
+      <c r="D39" s="6">
+        <v>3.39</v>
+      </c>
+      <c r="E39" s="6">
+        <v>2.23</v>
+      </c>
+      <c r="F39" s="6">
+        <v>404</v>
+      </c>
+      <c r="G39" s="6">
+        <v>1.877</v>
+      </c>
+      <c r="H39" s="6">
+        <v>1.9430000000000001</v>
+      </c>
+      <c r="I39" s="6">
+        <v>404</v>
+      </c>
+      <c r="J39" s="6">
+        <v>404</v>
+      </c>
+      <c r="K39" s="6">
+        <v>1.403</v>
+      </c>
+      <c r="L39" s="6">
+        <v>2.83</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N39" s="6">
+        <v>1.66</v>
+      </c>
+      <c r="O39" s="6">
+        <v>2.09</v>
+      </c>
+      <c r="Q39" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>45143</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q40" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>45143</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>45144</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q42" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>45144</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q43" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>45144</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q44" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>45150</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>45150</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q46" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>45150</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q47" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>45151</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>45156</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q49" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>45156</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q50" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>45158</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q51" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>45158</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q52" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>45158</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q53" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>45161</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q54" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>45164</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q55" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>45164</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q56" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>45164</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q57" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>45164</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q58" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>45164</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q59" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>45164</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q60" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>45165</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q61" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>45165</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q62" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>45166</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q63" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="O2:O18">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="S2:S18">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7805,24 +8975,2524 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E20:E32">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:H18 H12 G2:G12">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q310"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.85546875" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="144.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>45171</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C2">
+        <v>2.77</v>
+      </c>
+      <c r="D2">
+        <v>3.05</v>
+      </c>
+      <c r="E2">
+        <v>2.85</v>
+      </c>
+      <c r="F2">
+        <v>2.74</v>
+      </c>
+      <c r="G2">
+        <v>2.5</v>
+      </c>
+      <c r="H2">
+        <v>1.5429999999999999</v>
+      </c>
+      <c r="I2" s="71">
+        <v>1.4650000000000001</v>
+      </c>
+      <c r="J2" s="71">
+        <v>1.5980000000000001</v>
+      </c>
+      <c r="K2" s="71">
+        <v>1.847</v>
+      </c>
+      <c r="L2" s="71">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2">
+        <v>1.99</v>
+      </c>
+      <c r="O2">
+        <v>1.75</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>45171</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C3">
+        <v>404</v>
+      </c>
+      <c r="D3">
+        <v>404</v>
+      </c>
+      <c r="E3">
+        <v>404</v>
+      </c>
+      <c r="F3">
+        <v>404</v>
+      </c>
+      <c r="G3">
+        <v>404</v>
+      </c>
+      <c r="H3">
+        <v>404</v>
+      </c>
+      <c r="I3" s="71">
+        <v>404</v>
+      </c>
+      <c r="J3" s="71">
+        <v>404</v>
+      </c>
+      <c r="K3" s="71">
+        <v>404</v>
+      </c>
+      <c r="L3" s="71">
+        <v>404</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3">
+        <v>2.16</v>
+      </c>
+      <c r="O3">
+        <v>1.63</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>45171</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C4">
+        <v>2.73</v>
+      </c>
+      <c r="D4">
+        <v>3.58</v>
+      </c>
+      <c r="E4">
+        <v>2.62</v>
+      </c>
+      <c r="F4">
+        <v>4.07</v>
+      </c>
+      <c r="G4">
+        <v>1.8540000000000001</v>
+      </c>
+      <c r="H4">
+        <v>2.04</v>
+      </c>
+      <c r="I4" s="71">
+        <v>1.2609999999999999</v>
+      </c>
+      <c r="J4" s="71">
+        <v>404</v>
+      </c>
+      <c r="K4" s="71">
+        <v>1.3959999999999999</v>
+      </c>
+      <c r="L4" s="71">
+        <v>3.14</v>
+      </c>
+      <c r="M4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4">
+        <v>1.62</v>
+      </c>
+      <c r="O4">
+        <v>2.21</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>45171</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D5">
+        <v>3.49</v>
+      </c>
+      <c r="E5">
+        <v>2.69</v>
+      </c>
+      <c r="F5">
+        <v>4.22</v>
+      </c>
+      <c r="G5">
+        <v>1.7190000000000001</v>
+      </c>
+      <c r="H5">
+        <v>2.11</v>
+      </c>
+      <c r="I5" s="71">
+        <v>1.212</v>
+      </c>
+      <c r="J5" s="71">
+        <v>404</v>
+      </c>
+      <c r="K5" s="71">
+        <v>404</v>
+      </c>
+      <c r="L5" s="71">
+        <v>404</v>
+      </c>
+      <c r="M5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5">
+        <v>1.58</v>
+      </c>
+      <c r="O5">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>45171</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C6">
+        <v>2.98</v>
+      </c>
+      <c r="D6">
+        <v>3.47</v>
+      </c>
+      <c r="E6">
+        <v>2.44</v>
+      </c>
+      <c r="F6">
+        <v>4.12</v>
+      </c>
+      <c r="G6">
+        <v>1.819</v>
+      </c>
+      <c r="H6">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I6" s="71">
+        <v>1.2490000000000001</v>
+      </c>
+      <c r="J6" s="71">
+        <v>404</v>
+      </c>
+      <c r="K6" s="71">
+        <v>404</v>
+      </c>
+      <c r="L6" s="71">
+        <v>404</v>
+      </c>
+      <c r="M6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6">
+        <v>1.65</v>
+      </c>
+      <c r="O6">
+        <v>2.16</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>45171</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C7">
+        <v>2.83</v>
+      </c>
+      <c r="D7">
+        <v>3.36</v>
+      </c>
+      <c r="E7">
+        <v>2.61</v>
+      </c>
+      <c r="F7">
+        <v>3.3</v>
+      </c>
+      <c r="G7">
+        <v>2.14</v>
+      </c>
+      <c r="H7">
+        <v>1.7509999999999999</v>
+      </c>
+      <c r="I7" s="71">
+        <v>1.35</v>
+      </c>
+      <c r="J7" s="71">
+        <v>1.4419999999999999</v>
+      </c>
+      <c r="K7" s="71">
+        <v>1.5780000000000001</v>
+      </c>
+      <c r="L7" s="71">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="M7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7">
+        <v>1.8</v>
+      </c>
+      <c r="O7">
+        <v>1.94</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>45171</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C8">
+        <v>2.65</v>
+      </c>
+      <c r="D8">
+        <v>3.18</v>
+      </c>
+      <c r="E8">
+        <v>2.69</v>
+      </c>
+      <c r="F8">
+        <v>404</v>
+      </c>
+      <c r="G8">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="H8">
+        <v>1.8</v>
+      </c>
+      <c r="I8" s="71">
+        <v>404</v>
+      </c>
+      <c r="J8" s="71">
+        <v>404</v>
+      </c>
+      <c r="K8" s="71">
+        <v>1.49</v>
+      </c>
+      <c r="L8" s="71">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="M8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8">
+        <v>1.74</v>
+      </c>
+      <c r="O8">
+        <v>1.97</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>45172</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C9">
+        <v>2.5</v>
+      </c>
+      <c r="D9">
+        <v>3.5</v>
+      </c>
+      <c r="E9">
+        <v>2.99</v>
+      </c>
+      <c r="F9">
+        <v>3.04</v>
+      </c>
+      <c r="G9">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H9">
+        <v>1.6890000000000001</v>
+      </c>
+      <c r="I9" s="71">
+        <v>1.4</v>
+      </c>
+      <c r="J9" s="71">
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="K9" s="71">
+        <v>1.6659999999999999</v>
+      </c>
+      <c r="L9" s="71">
+        <v>2.29</v>
+      </c>
+      <c r="M9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="16">
+        <v>1.82</v>
+      </c>
+      <c r="O9" s="16">
+        <v>1.89</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>45172</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C10">
+        <v>2.67</v>
+      </c>
+      <c r="D10">
+        <v>3.55</v>
+      </c>
+      <c r="E10">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F10">
+        <v>404</v>
+      </c>
+      <c r="G10">
+        <v>1.7350000000000001</v>
+      </c>
+      <c r="H10">
+        <v>2.08</v>
+      </c>
+      <c r="I10" s="71">
+        <v>404</v>
+      </c>
+      <c r="J10" s="71">
+        <v>404</v>
+      </c>
+      <c r="K10" s="71">
+        <v>404</v>
+      </c>
+      <c r="L10" s="71">
+        <v>404</v>
+      </c>
+      <c r="M10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="16">
+        <v>1.62</v>
+      </c>
+      <c r="O10" s="16">
+        <v>2.19</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>45172</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C11">
+        <v>2.11</v>
+      </c>
+      <c r="D11">
+        <v>3.54</v>
+      </c>
+      <c r="E11">
+        <v>3.25</v>
+      </c>
+      <c r="F11">
+        <v>404</v>
+      </c>
+      <c r="G11">
+        <v>1.8260000000000001</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" s="71">
+        <v>404</v>
+      </c>
+      <c r="J11" s="71">
+        <v>404</v>
+      </c>
+      <c r="K11" s="71">
+        <v>1.3779999999999999</v>
+      </c>
+      <c r="L11" s="71">
+        <v>2.94</v>
+      </c>
+      <c r="M11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="16">
+        <v>1.66</v>
+      </c>
+      <c r="O11" s="16">
+        <v>2.1</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>45172</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C12">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="D12">
+        <v>3.86</v>
+      </c>
+      <c r="E12">
+        <v>3.61</v>
+      </c>
+      <c r="F12">
+        <v>404</v>
+      </c>
+      <c r="G12">
+        <v>1.595</v>
+      </c>
+      <c r="H12">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="I12" s="71">
+        <v>404</v>
+      </c>
+      <c r="J12" s="71">
+        <v>404</v>
+      </c>
+      <c r="K12" s="71">
+        <v>404</v>
+      </c>
+      <c r="L12" s="71">
+        <v>404</v>
+      </c>
+      <c r="M12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="16">
+        <v>1.54</v>
+      </c>
+      <c r="O12" s="16">
+        <v>2.33</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>45172</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C13">
+        <v>2.11</v>
+      </c>
+      <c r="D13">
+        <v>3.44</v>
+      </c>
+      <c r="E13">
+        <v>3.71</v>
+      </c>
+      <c r="F13">
+        <v>3.45</v>
+      </c>
+      <c r="G13">
+        <v>2.04</v>
+      </c>
+      <c r="H13">
+        <v>1.84</v>
+      </c>
+      <c r="I13" s="71">
+        <v>1.3260000000000001</v>
+      </c>
+      <c r="J13" s="71">
+        <v>404</v>
+      </c>
+      <c r="K13" s="71">
+        <v>1.52</v>
+      </c>
+      <c r="L13" s="71">
+        <v>2.63</v>
+      </c>
+      <c r="M13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="16">
+        <v>1.78</v>
+      </c>
+      <c r="O13" s="16">
+        <v>1.95</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>45173</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C17">
+        <v>404</v>
+      </c>
+      <c r="D17">
+        <v>404</v>
+      </c>
+      <c r="E17">
+        <v>404</v>
+      </c>
+      <c r="F17">
+        <v>404</v>
+      </c>
+      <c r="G17">
+        <v>404</v>
+      </c>
+      <c r="H17">
+        <v>404</v>
+      </c>
+      <c r="I17" s="71">
+        <v>404</v>
+      </c>
+      <c r="J17" s="71">
+        <v>404</v>
+      </c>
+      <c r="K17" s="71">
+        <v>404</v>
+      </c>
+      <c r="L17" s="71">
+        <v>404</v>
+      </c>
+      <c r="M17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17">
+        <v>2.06</v>
+      </c>
+      <c r="O17">
+        <v>1.69</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71"/>
+    </row>
+    <row r="33" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="71"/>
+    </row>
+    <row r="34" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+    </row>
+    <row r="35" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+    </row>
+    <row r="36" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+    </row>
+    <row r="37" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+    </row>
+    <row r="38" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="71"/>
+    </row>
+    <row r="39" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I39" s="71"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="71"/>
+    </row>
+    <row r="40" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I40" s="71"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="71"/>
+    </row>
+    <row r="41" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I41" s="71"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="71"/>
+    </row>
+    <row r="42" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I42" s="71"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="71"/>
+    </row>
+    <row r="43" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="71"/>
+    </row>
+    <row r="44" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="71"/>
+    </row>
+    <row r="45" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I45" s="71"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="71"/>
+      <c r="L45" s="71"/>
+    </row>
+    <row r="46" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I46" s="71"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="71"/>
+      <c r="L46" s="71"/>
+    </row>
+    <row r="47" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I47" s="71"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="71"/>
+      <c r="L47" s="71"/>
+    </row>
+    <row r="48" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I48" s="71"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="71"/>
+    </row>
+    <row r="49" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I49" s="71"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="71"/>
+      <c r="L49" s="71"/>
+    </row>
+    <row r="50" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I50" s="71"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="71"/>
+      <c r="L50" s="71"/>
+    </row>
+    <row r="51" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I51" s="71"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="71"/>
+      <c r="L51" s="71"/>
+    </row>
+    <row r="52" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I52" s="71"/>
+      <c r="J52" s="71"/>
+      <c r="K52" s="71"/>
+      <c r="L52" s="71"/>
+    </row>
+    <row r="53" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I53" s="71"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="71"/>
+      <c r="L53" s="71"/>
+    </row>
+    <row r="54" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I54" s="71"/>
+      <c r="J54" s="71"/>
+      <c r="K54" s="71"/>
+      <c r="L54" s="71"/>
+    </row>
+    <row r="55" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I55" s="71"/>
+      <c r="J55" s="71"/>
+      <c r="K55" s="71"/>
+      <c r="L55" s="71"/>
+    </row>
+    <row r="56" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I56" s="71"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="71"/>
+      <c r="L56" s="71"/>
+    </row>
+    <row r="57" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I57" s="71"/>
+      <c r="J57" s="71"/>
+      <c r="K57" s="71"/>
+      <c r="L57" s="71"/>
+    </row>
+    <row r="58" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I58" s="71"/>
+      <c r="J58" s="71"/>
+      <c r="K58" s="71"/>
+      <c r="L58" s="71"/>
+    </row>
+    <row r="59" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I59" s="71"/>
+      <c r="J59" s="71"/>
+      <c r="K59" s="71"/>
+      <c r="L59" s="71"/>
+    </row>
+    <row r="60" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I60" s="71"/>
+      <c r="J60" s="71"/>
+      <c r="K60" s="71"/>
+      <c r="L60" s="71"/>
+    </row>
+    <row r="61" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I61" s="71"/>
+      <c r="J61" s="71"/>
+      <c r="K61" s="71"/>
+      <c r="L61" s="71"/>
+    </row>
+    <row r="62" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I62" s="71"/>
+      <c r="J62" s="71"/>
+      <c r="K62" s="71"/>
+      <c r="L62" s="71"/>
+    </row>
+    <row r="63" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I63" s="71"/>
+      <c r="J63" s="71"/>
+      <c r="K63" s="71"/>
+      <c r="L63" s="71"/>
+    </row>
+    <row r="64" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I64" s="71"/>
+      <c r="J64" s="71"/>
+      <c r="K64" s="71"/>
+      <c r="L64" s="71"/>
+    </row>
+    <row r="65" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I65" s="71"/>
+      <c r="J65" s="71"/>
+      <c r="K65" s="71"/>
+      <c r="L65" s="71"/>
+    </row>
+    <row r="66" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I66" s="71"/>
+      <c r="J66" s="71"/>
+      <c r="K66" s="71"/>
+      <c r="L66" s="71"/>
+    </row>
+    <row r="67" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I67" s="71"/>
+      <c r="J67" s="71"/>
+      <c r="K67" s="71"/>
+      <c r="L67" s="71"/>
+    </row>
+    <row r="68" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I68" s="71"/>
+      <c r="J68" s="71"/>
+      <c r="K68" s="71"/>
+      <c r="L68" s="71"/>
+    </row>
+    <row r="69" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I69" s="71"/>
+      <c r="J69" s="71"/>
+      <c r="K69" s="71"/>
+      <c r="L69" s="71"/>
+    </row>
+    <row r="70" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I70" s="71"/>
+      <c r="J70" s="71"/>
+      <c r="K70" s="71"/>
+      <c r="L70" s="71"/>
+    </row>
+    <row r="71" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I71" s="71"/>
+      <c r="J71" s="71"/>
+      <c r="K71" s="71"/>
+      <c r="L71" s="71"/>
+    </row>
+    <row r="72" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I72" s="71"/>
+      <c r="J72" s="71"/>
+      <c r="K72" s="71"/>
+      <c r="L72" s="71"/>
+    </row>
+    <row r="73" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I73" s="71"/>
+      <c r="J73" s="71"/>
+      <c r="K73" s="71"/>
+      <c r="L73" s="71"/>
+    </row>
+    <row r="74" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I74" s="71"/>
+      <c r="J74" s="71"/>
+      <c r="K74" s="71"/>
+      <c r="L74" s="71"/>
+    </row>
+    <row r="75" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I75" s="71"/>
+      <c r="J75" s="71"/>
+      <c r="K75" s="71"/>
+      <c r="L75" s="71"/>
+    </row>
+    <row r="76" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I76" s="71"/>
+      <c r="J76" s="71"/>
+      <c r="K76" s="71"/>
+      <c r="L76" s="71"/>
+    </row>
+    <row r="77" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I77" s="71"/>
+      <c r="J77" s="71"/>
+      <c r="K77" s="71"/>
+      <c r="L77" s="71"/>
+    </row>
+    <row r="78" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I78" s="71"/>
+      <c r="J78" s="71"/>
+      <c r="K78" s="71"/>
+      <c r="L78" s="71"/>
+    </row>
+    <row r="79" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I79" s="71"/>
+      <c r="J79" s="71"/>
+      <c r="K79" s="71"/>
+      <c r="L79" s="71"/>
+    </row>
+    <row r="80" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I80" s="71"/>
+      <c r="J80" s="71"/>
+      <c r="K80" s="71"/>
+      <c r="L80" s="71"/>
+    </row>
+    <row r="81" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I81" s="71"/>
+      <c r="J81" s="71"/>
+      <c r="K81" s="71"/>
+      <c r="L81" s="71"/>
+    </row>
+    <row r="82" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I82" s="71"/>
+      <c r="J82" s="71"/>
+      <c r="K82" s="71"/>
+      <c r="L82" s="71"/>
+    </row>
+    <row r="83" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I83" s="71"/>
+      <c r="J83" s="71"/>
+      <c r="K83" s="71"/>
+      <c r="L83" s="71"/>
+    </row>
+    <row r="84" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I84" s="71"/>
+      <c r="J84" s="71"/>
+      <c r="K84" s="71"/>
+      <c r="L84" s="71"/>
+    </row>
+    <row r="85" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I85" s="71"/>
+      <c r="J85" s="71"/>
+      <c r="K85" s="71"/>
+      <c r="L85" s="71"/>
+    </row>
+    <row r="86" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I86" s="71"/>
+      <c r="J86" s="71"/>
+      <c r="K86" s="71"/>
+      <c r="L86" s="71"/>
+    </row>
+    <row r="87" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I87" s="71"/>
+      <c r="J87" s="71"/>
+      <c r="K87" s="71"/>
+      <c r="L87" s="71"/>
+    </row>
+    <row r="88" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I88" s="71"/>
+      <c r="J88" s="71"/>
+      <c r="K88" s="71"/>
+      <c r="L88" s="71"/>
+    </row>
+    <row r="89" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I89" s="71"/>
+      <c r="J89" s="71"/>
+      <c r="K89" s="71"/>
+      <c r="L89" s="71"/>
+    </row>
+    <row r="90" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I90" s="71"/>
+      <c r="J90" s="71"/>
+      <c r="K90" s="71"/>
+      <c r="L90" s="71"/>
+    </row>
+    <row r="91" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I91" s="71"/>
+      <c r="J91" s="71"/>
+      <c r="K91" s="71"/>
+      <c r="L91" s="71"/>
+    </row>
+    <row r="92" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I92" s="71"/>
+      <c r="J92" s="71"/>
+      <c r="K92" s="71"/>
+      <c r="L92" s="71"/>
+    </row>
+    <row r="93" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I93" s="71"/>
+      <c r="J93" s="71"/>
+      <c r="K93" s="71"/>
+      <c r="L93" s="71"/>
+    </row>
+    <row r="94" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I94" s="71"/>
+      <c r="J94" s="71"/>
+      <c r="K94" s="71"/>
+      <c r="L94" s="71"/>
+    </row>
+    <row r="95" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I95" s="71"/>
+      <c r="J95" s="71"/>
+      <c r="K95" s="71"/>
+      <c r="L95" s="71"/>
+    </row>
+    <row r="96" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I96" s="71"/>
+      <c r="J96" s="71"/>
+      <c r="K96" s="71"/>
+      <c r="L96" s="71"/>
+    </row>
+    <row r="97" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I97" s="71"/>
+      <c r="J97" s="71"/>
+      <c r="K97" s="71"/>
+      <c r="L97" s="71"/>
+    </row>
+    <row r="98" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I98" s="71"/>
+      <c r="J98" s="71"/>
+      <c r="K98" s="71"/>
+      <c r="L98" s="71"/>
+    </row>
+    <row r="99" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I99" s="71"/>
+      <c r="J99" s="71"/>
+      <c r="K99" s="71"/>
+      <c r="L99" s="71"/>
+    </row>
+    <row r="100" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I100" s="71"/>
+      <c r="J100" s="71"/>
+      <c r="K100" s="71"/>
+      <c r="L100" s="71"/>
+    </row>
+    <row r="101" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I101" s="71"/>
+      <c r="J101" s="71"/>
+      <c r="K101" s="71"/>
+      <c r="L101" s="71"/>
+    </row>
+    <row r="102" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I102" s="71"/>
+      <c r="J102" s="71"/>
+      <c r="K102" s="71"/>
+      <c r="L102" s="71"/>
+    </row>
+    <row r="103" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I103" s="71"/>
+      <c r="J103" s="71"/>
+      <c r="K103" s="71"/>
+      <c r="L103" s="71"/>
+    </row>
+    <row r="104" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I104" s="71"/>
+      <c r="J104" s="71"/>
+      <c r="K104" s="71"/>
+      <c r="L104" s="71"/>
+    </row>
+    <row r="105" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I105" s="71"/>
+      <c r="J105" s="71"/>
+      <c r="K105" s="71"/>
+      <c r="L105" s="71"/>
+    </row>
+    <row r="106" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I106" s="71"/>
+      <c r="J106" s="71"/>
+      <c r="K106" s="71"/>
+      <c r="L106" s="71"/>
+    </row>
+    <row r="107" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I107" s="71"/>
+      <c r="J107" s="71"/>
+      <c r="K107" s="71"/>
+      <c r="L107" s="71"/>
+    </row>
+    <row r="108" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I108" s="71"/>
+      <c r="J108" s="71"/>
+      <c r="K108" s="71"/>
+      <c r="L108" s="71"/>
+    </row>
+    <row r="109" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I109" s="71"/>
+      <c r="J109" s="71"/>
+      <c r="K109" s="71"/>
+      <c r="L109" s="71"/>
+    </row>
+    <row r="110" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I110" s="71"/>
+      <c r="J110" s="71"/>
+      <c r="K110" s="71"/>
+      <c r="L110" s="71"/>
+    </row>
+    <row r="111" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I111" s="71"/>
+      <c r="J111" s="71"/>
+      <c r="K111" s="71"/>
+      <c r="L111" s="71"/>
+    </row>
+    <row r="112" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I112" s="71"/>
+      <c r="J112" s="71"/>
+      <c r="K112" s="71"/>
+      <c r="L112" s="71"/>
+    </row>
+    <row r="113" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I113" s="71"/>
+      <c r="J113" s="71"/>
+      <c r="K113" s="71"/>
+      <c r="L113" s="71"/>
+    </row>
+    <row r="114" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I114" s="71"/>
+      <c r="J114" s="71"/>
+      <c r="K114" s="71"/>
+      <c r="L114" s="71"/>
+    </row>
+    <row r="115" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I115" s="71"/>
+      <c r="J115" s="71"/>
+      <c r="K115" s="71"/>
+      <c r="L115" s="71"/>
+    </row>
+    <row r="116" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I116" s="71"/>
+      <c r="J116" s="71"/>
+      <c r="K116" s="71"/>
+      <c r="L116" s="71"/>
+    </row>
+    <row r="117" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I117" s="71"/>
+      <c r="J117" s="71"/>
+      <c r="K117" s="71"/>
+      <c r="L117" s="71"/>
+    </row>
+    <row r="118" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I118" s="71"/>
+      <c r="J118" s="71"/>
+      <c r="K118" s="71"/>
+      <c r="L118" s="71"/>
+    </row>
+    <row r="119" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I119" s="71"/>
+      <c r="J119" s="71"/>
+      <c r="K119" s="71"/>
+      <c r="L119" s="71"/>
+    </row>
+    <row r="120" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I120" s="71"/>
+      <c r="J120" s="71"/>
+      <c r="K120" s="71"/>
+      <c r="L120" s="71"/>
+    </row>
+    <row r="121" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I121" s="71"/>
+      <c r="J121" s="71"/>
+      <c r="K121" s="71"/>
+      <c r="L121" s="71"/>
+    </row>
+    <row r="122" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I122" s="71"/>
+      <c r="J122" s="71"/>
+      <c r="K122" s="71"/>
+      <c r="L122" s="71"/>
+    </row>
+    <row r="123" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I123" s="71"/>
+      <c r="J123" s="71"/>
+      <c r="K123" s="71"/>
+      <c r="L123" s="71"/>
+    </row>
+    <row r="124" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I124" s="71"/>
+      <c r="J124" s="71"/>
+      <c r="K124" s="71"/>
+      <c r="L124" s="71"/>
+    </row>
+    <row r="125" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I125" s="71"/>
+      <c r="J125" s="71"/>
+      <c r="K125" s="71"/>
+      <c r="L125" s="71"/>
+    </row>
+    <row r="126" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I126" s="71"/>
+      <c r="J126" s="71"/>
+      <c r="K126" s="71"/>
+      <c r="L126" s="71"/>
+    </row>
+    <row r="127" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I127" s="71"/>
+      <c r="J127" s="71"/>
+      <c r="K127" s="71"/>
+      <c r="L127" s="71"/>
+    </row>
+    <row r="128" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I128" s="71"/>
+      <c r="J128" s="71"/>
+      <c r="K128" s="71"/>
+      <c r="L128" s="71"/>
+    </row>
+    <row r="129" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I129" s="71"/>
+      <c r="J129" s="71"/>
+      <c r="K129" s="71"/>
+      <c r="L129" s="71"/>
+    </row>
+    <row r="130" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I130" s="71"/>
+      <c r="J130" s="71"/>
+      <c r="K130" s="71"/>
+      <c r="L130" s="71"/>
+    </row>
+    <row r="131" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I131" s="71"/>
+      <c r="J131" s="71"/>
+      <c r="K131" s="71"/>
+      <c r="L131" s="71"/>
+    </row>
+    <row r="132" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I132" s="71"/>
+      <c r="J132" s="71"/>
+      <c r="K132" s="71"/>
+      <c r="L132" s="71"/>
+    </row>
+    <row r="133" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I133" s="71"/>
+      <c r="J133" s="71"/>
+      <c r="K133" s="71"/>
+      <c r="L133" s="71"/>
+    </row>
+    <row r="134" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I134" s="71"/>
+      <c r="J134" s="71"/>
+      <c r="K134" s="71"/>
+      <c r="L134" s="71"/>
+    </row>
+    <row r="135" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I135" s="71"/>
+      <c r="J135" s="71"/>
+      <c r="K135" s="71"/>
+      <c r="L135" s="71"/>
+    </row>
+    <row r="136" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I136" s="71"/>
+      <c r="J136" s="71"/>
+      <c r="K136" s="71"/>
+      <c r="L136" s="71"/>
+    </row>
+    <row r="137" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I137" s="71"/>
+      <c r="J137" s="71"/>
+      <c r="K137" s="71"/>
+      <c r="L137" s="71"/>
+    </row>
+    <row r="138" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I138" s="71"/>
+      <c r="J138" s="71"/>
+      <c r="K138" s="71"/>
+      <c r="L138" s="71"/>
+    </row>
+    <row r="139" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I139" s="71"/>
+      <c r="J139" s="71"/>
+      <c r="K139" s="71"/>
+      <c r="L139" s="71"/>
+    </row>
+    <row r="140" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I140" s="71"/>
+      <c r="J140" s="71"/>
+      <c r="K140" s="71"/>
+      <c r="L140" s="71"/>
+    </row>
+    <row r="141" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I141" s="71"/>
+      <c r="J141" s="71"/>
+      <c r="K141" s="71"/>
+      <c r="L141" s="71"/>
+    </row>
+    <row r="142" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I142" s="71"/>
+      <c r="J142" s="71"/>
+      <c r="K142" s="71"/>
+      <c r="L142" s="71"/>
+    </row>
+    <row r="143" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I143" s="71"/>
+      <c r="J143" s="71"/>
+      <c r="K143" s="71"/>
+      <c r="L143" s="71"/>
+    </row>
+    <row r="144" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I144" s="71"/>
+      <c r="J144" s="71"/>
+      <c r="K144" s="71"/>
+      <c r="L144" s="71"/>
+    </row>
+    <row r="145" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I145" s="71"/>
+      <c r="J145" s="71"/>
+      <c r="K145" s="71"/>
+      <c r="L145" s="71"/>
+    </row>
+    <row r="146" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I146" s="71"/>
+      <c r="J146" s="71"/>
+      <c r="K146" s="71"/>
+      <c r="L146" s="71"/>
+    </row>
+    <row r="147" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I147" s="71"/>
+      <c r="J147" s="71"/>
+      <c r="K147" s="71"/>
+      <c r="L147" s="71"/>
+    </row>
+    <row r="148" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I148" s="71"/>
+      <c r="J148" s="71"/>
+      <c r="K148" s="71"/>
+      <c r="L148" s="71"/>
+    </row>
+    <row r="149" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I149" s="71"/>
+      <c r="J149" s="71"/>
+      <c r="K149" s="71"/>
+      <c r="L149" s="71"/>
+    </row>
+    <row r="150" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I150" s="71"/>
+      <c r="J150" s="71"/>
+      <c r="K150" s="71"/>
+      <c r="L150" s="71"/>
+    </row>
+    <row r="151" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I151" s="71"/>
+      <c r="J151" s="71"/>
+      <c r="K151" s="71"/>
+      <c r="L151" s="71"/>
+    </row>
+    <row r="152" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I152" s="71"/>
+      <c r="J152" s="71"/>
+      <c r="K152" s="71"/>
+      <c r="L152" s="71"/>
+    </row>
+    <row r="153" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I153" s="71"/>
+      <c r="J153" s="71"/>
+      <c r="K153" s="71"/>
+      <c r="L153" s="71"/>
+    </row>
+    <row r="154" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I154" s="71"/>
+      <c r="J154" s="71"/>
+      <c r="K154" s="71"/>
+      <c r="L154" s="71"/>
+    </row>
+    <row r="155" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I155" s="71"/>
+      <c r="J155" s="71"/>
+      <c r="K155" s="71"/>
+      <c r="L155" s="71"/>
+    </row>
+    <row r="156" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I156" s="71"/>
+      <c r="J156" s="71"/>
+      <c r="K156" s="71"/>
+      <c r="L156" s="71"/>
+    </row>
+    <row r="157" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I157" s="71"/>
+      <c r="J157" s="71"/>
+      <c r="K157" s="71"/>
+      <c r="L157" s="71"/>
+    </row>
+    <row r="158" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I158" s="71"/>
+      <c r="J158" s="71"/>
+      <c r="K158" s="71"/>
+      <c r="L158" s="71"/>
+    </row>
+    <row r="159" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I159" s="71"/>
+      <c r="J159" s="71"/>
+      <c r="K159" s="71"/>
+      <c r="L159" s="71"/>
+    </row>
+    <row r="160" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I160" s="71"/>
+      <c r="J160" s="71"/>
+      <c r="K160" s="71"/>
+      <c r="L160" s="71"/>
+    </row>
+    <row r="161" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I161" s="71"/>
+      <c r="J161" s="71"/>
+      <c r="K161" s="71"/>
+      <c r="L161" s="71"/>
+    </row>
+    <row r="162" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I162" s="71"/>
+      <c r="J162" s="71"/>
+      <c r="K162" s="71"/>
+      <c r="L162" s="71"/>
+    </row>
+    <row r="163" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I163" s="71"/>
+      <c r="J163" s="71"/>
+      <c r="K163" s="71"/>
+      <c r="L163" s="71"/>
+    </row>
+    <row r="164" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I164" s="71"/>
+      <c r="J164" s="71"/>
+      <c r="K164" s="71"/>
+      <c r="L164" s="71"/>
+    </row>
+    <row r="165" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I165" s="71"/>
+      <c r="J165" s="71"/>
+      <c r="K165" s="71"/>
+      <c r="L165" s="71"/>
+    </row>
+    <row r="166" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I166" s="71"/>
+      <c r="J166" s="71"/>
+      <c r="K166" s="71"/>
+      <c r="L166" s="71"/>
+    </row>
+    <row r="167" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I167" s="71"/>
+      <c r="J167" s="71"/>
+      <c r="K167" s="71"/>
+      <c r="L167" s="71"/>
+    </row>
+    <row r="168" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I168" s="71"/>
+      <c r="J168" s="71"/>
+      <c r="K168" s="71"/>
+      <c r="L168" s="71"/>
+    </row>
+    <row r="169" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I169" s="71"/>
+      <c r="J169" s="71"/>
+      <c r="K169" s="71"/>
+      <c r="L169" s="71"/>
+    </row>
+    <row r="170" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I170" s="71"/>
+      <c r="J170" s="71"/>
+      <c r="K170" s="71"/>
+      <c r="L170" s="71"/>
+    </row>
+    <row r="171" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I171" s="71"/>
+      <c r="J171" s="71"/>
+      <c r="K171" s="71"/>
+      <c r="L171" s="71"/>
+    </row>
+    <row r="172" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I172" s="71"/>
+      <c r="J172" s="71"/>
+      <c r="K172" s="71"/>
+      <c r="L172" s="71"/>
+    </row>
+    <row r="173" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I173" s="71"/>
+      <c r="J173" s="71"/>
+      <c r="K173" s="71"/>
+      <c r="L173" s="71"/>
+    </row>
+    <row r="174" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I174" s="71"/>
+      <c r="J174" s="71"/>
+      <c r="K174" s="71"/>
+      <c r="L174" s="71"/>
+    </row>
+    <row r="175" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I175" s="71"/>
+      <c r="J175" s="71"/>
+      <c r="K175" s="71"/>
+      <c r="L175" s="71"/>
+    </row>
+    <row r="176" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I176" s="71"/>
+      <c r="J176" s="71"/>
+      <c r="K176" s="71"/>
+      <c r="L176" s="71"/>
+    </row>
+    <row r="177" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I177" s="71"/>
+      <c r="J177" s="71"/>
+      <c r="K177" s="71"/>
+      <c r="L177" s="71"/>
+    </row>
+    <row r="178" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I178" s="71"/>
+      <c r="J178" s="71"/>
+      <c r="K178" s="71"/>
+      <c r="L178" s="71"/>
+    </row>
+    <row r="179" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I179" s="71"/>
+      <c r="J179" s="71"/>
+      <c r="K179" s="71"/>
+      <c r="L179" s="71"/>
+    </row>
+    <row r="180" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I180" s="71"/>
+      <c r="J180" s="71"/>
+      <c r="K180" s="71"/>
+      <c r="L180" s="71"/>
+    </row>
+    <row r="181" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I181" s="71"/>
+      <c r="J181" s="71"/>
+      <c r="K181" s="71"/>
+      <c r="L181" s="71"/>
+    </row>
+    <row r="182" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I182" s="71"/>
+      <c r="J182" s="71"/>
+      <c r="K182" s="71"/>
+      <c r="L182" s="71"/>
+    </row>
+    <row r="183" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I183" s="71"/>
+      <c r="J183" s="71"/>
+      <c r="K183" s="71"/>
+      <c r="L183" s="71"/>
+    </row>
+    <row r="184" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I184" s="71"/>
+      <c r="J184" s="71"/>
+      <c r="K184" s="71"/>
+      <c r="L184" s="71"/>
+    </row>
+    <row r="185" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I185" s="71"/>
+      <c r="J185" s="71"/>
+      <c r="K185" s="71"/>
+      <c r="L185" s="71"/>
+    </row>
+    <row r="186" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I186" s="71"/>
+      <c r="J186" s="71"/>
+      <c r="K186" s="71"/>
+      <c r="L186" s="71"/>
+    </row>
+    <row r="187" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I187" s="71"/>
+      <c r="J187" s="71"/>
+      <c r="K187" s="71"/>
+      <c r="L187" s="71"/>
+    </row>
+    <row r="188" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I188" s="71"/>
+      <c r="J188" s="71"/>
+      <c r="K188" s="71"/>
+      <c r="L188" s="71"/>
+    </row>
+    <row r="189" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I189" s="71"/>
+      <c r="J189" s="71"/>
+      <c r="K189" s="71"/>
+      <c r="L189" s="71"/>
+    </row>
+    <row r="190" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I190" s="71"/>
+      <c r="J190" s="71"/>
+      <c r="K190" s="71"/>
+      <c r="L190" s="71"/>
+    </row>
+    <row r="191" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I191" s="71"/>
+      <c r="J191" s="71"/>
+      <c r="K191" s="71"/>
+      <c r="L191" s="71"/>
+    </row>
+    <row r="192" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I192" s="71"/>
+      <c r="J192" s="71"/>
+      <c r="K192" s="71"/>
+      <c r="L192" s="71"/>
+    </row>
+    <row r="193" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I193" s="71"/>
+      <c r="J193" s="71"/>
+      <c r="K193" s="71"/>
+      <c r="L193" s="71"/>
+    </row>
+    <row r="194" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I194" s="71"/>
+      <c r="J194" s="71"/>
+      <c r="K194" s="71"/>
+      <c r="L194" s="71"/>
+    </row>
+    <row r="195" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I195" s="71"/>
+      <c r="J195" s="71"/>
+      <c r="K195" s="71"/>
+      <c r="L195" s="71"/>
+    </row>
+    <row r="196" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I196" s="71"/>
+      <c r="J196" s="71"/>
+      <c r="K196" s="71"/>
+      <c r="L196" s="71"/>
+    </row>
+    <row r="197" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I197" s="71"/>
+      <c r="J197" s="71"/>
+      <c r="K197" s="71"/>
+      <c r="L197" s="71"/>
+    </row>
+    <row r="198" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I198" s="71"/>
+      <c r="J198" s="71"/>
+      <c r="K198" s="71"/>
+      <c r="L198" s="71"/>
+    </row>
+    <row r="199" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I199" s="71"/>
+      <c r="J199" s="71"/>
+      <c r="K199" s="71"/>
+      <c r="L199" s="71"/>
+    </row>
+    <row r="200" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I200" s="71"/>
+      <c r="J200" s="71"/>
+      <c r="K200" s="71"/>
+      <c r="L200" s="71"/>
+    </row>
+    <row r="201" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I201" s="71"/>
+      <c r="J201" s="71"/>
+      <c r="K201" s="71"/>
+      <c r="L201" s="71"/>
+    </row>
+    <row r="202" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I202" s="71"/>
+      <c r="J202" s="71"/>
+      <c r="K202" s="71"/>
+      <c r="L202" s="71"/>
+    </row>
+    <row r="203" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I203" s="71"/>
+      <c r="J203" s="71"/>
+      <c r="K203" s="71"/>
+      <c r="L203" s="71"/>
+    </row>
+    <row r="204" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I204" s="71"/>
+      <c r="J204" s="71"/>
+      <c r="K204" s="71"/>
+      <c r="L204" s="71"/>
+    </row>
+    <row r="205" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I205" s="71"/>
+      <c r="J205" s="71"/>
+      <c r="K205" s="71"/>
+      <c r="L205" s="71"/>
+    </row>
+    <row r="206" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I206" s="71"/>
+      <c r="J206" s="71"/>
+      <c r="K206" s="71"/>
+      <c r="L206" s="71"/>
+    </row>
+    <row r="207" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I207" s="71"/>
+      <c r="J207" s="71"/>
+      <c r="K207" s="71"/>
+      <c r="L207" s="71"/>
+    </row>
+    <row r="208" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I208" s="71"/>
+      <c r="J208" s="71"/>
+      <c r="K208" s="71"/>
+      <c r="L208" s="71"/>
+    </row>
+    <row r="209" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I209" s="71"/>
+      <c r="J209" s="71"/>
+      <c r="K209" s="71"/>
+      <c r="L209" s="71"/>
+    </row>
+    <row r="210" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I210" s="71"/>
+      <c r="J210" s="71"/>
+      <c r="K210" s="71"/>
+      <c r="L210" s="71"/>
+    </row>
+    <row r="211" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I211" s="71"/>
+      <c r="J211" s="71"/>
+      <c r="K211" s="71"/>
+      <c r="L211" s="71"/>
+    </row>
+    <row r="212" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I212" s="71"/>
+      <c r="J212" s="71"/>
+      <c r="K212" s="71"/>
+      <c r="L212" s="71"/>
+    </row>
+    <row r="213" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I213" s="71"/>
+      <c r="J213" s="71"/>
+      <c r="K213" s="71"/>
+      <c r="L213" s="71"/>
+    </row>
+    <row r="214" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I214" s="71"/>
+      <c r="J214" s="71"/>
+      <c r="K214" s="71"/>
+      <c r="L214" s="71"/>
+    </row>
+    <row r="215" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I215" s="71"/>
+      <c r="J215" s="71"/>
+      <c r="K215" s="71"/>
+      <c r="L215" s="71"/>
+    </row>
+    <row r="216" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I216" s="71"/>
+      <c r="J216" s="71"/>
+      <c r="K216" s="71"/>
+      <c r="L216" s="71"/>
+    </row>
+    <row r="217" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I217" s="71"/>
+      <c r="J217" s="71"/>
+      <c r="K217" s="71"/>
+      <c r="L217" s="71"/>
+    </row>
+    <row r="218" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I218" s="71"/>
+      <c r="J218" s="71"/>
+      <c r="K218" s="71"/>
+      <c r="L218" s="71"/>
+    </row>
+    <row r="219" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I219" s="71"/>
+      <c r="J219" s="71"/>
+      <c r="K219" s="71"/>
+      <c r="L219" s="71"/>
+    </row>
+    <row r="220" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I220" s="71"/>
+      <c r="J220" s="71"/>
+      <c r="K220" s="71"/>
+      <c r="L220" s="71"/>
+    </row>
+    <row r="221" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I221" s="71"/>
+      <c r="J221" s="71"/>
+      <c r="K221" s="71"/>
+      <c r="L221" s="71"/>
+    </row>
+    <row r="222" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I222" s="71"/>
+      <c r="J222" s="71"/>
+      <c r="K222" s="71"/>
+      <c r="L222" s="71"/>
+    </row>
+    <row r="223" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I223" s="71"/>
+      <c r="J223" s="71"/>
+      <c r="K223" s="71"/>
+      <c r="L223" s="71"/>
+    </row>
+    <row r="224" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I224" s="71"/>
+      <c r="J224" s="71"/>
+      <c r="K224" s="71"/>
+      <c r="L224" s="71"/>
+    </row>
+    <row r="225" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I225" s="71"/>
+      <c r="J225" s="71"/>
+      <c r="K225" s="71"/>
+      <c r="L225" s="71"/>
+    </row>
+    <row r="226" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I226" s="71"/>
+      <c r="J226" s="71"/>
+      <c r="K226" s="71"/>
+      <c r="L226" s="71"/>
+    </row>
+    <row r="227" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I227" s="71"/>
+      <c r="J227" s="71"/>
+      <c r="K227" s="71"/>
+      <c r="L227" s="71"/>
+    </row>
+    <row r="228" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I228" s="71"/>
+      <c r="J228" s="71"/>
+      <c r="K228" s="71"/>
+      <c r="L228" s="71"/>
+    </row>
+    <row r="229" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I229" s="71"/>
+      <c r="J229" s="71"/>
+      <c r="K229" s="71"/>
+      <c r="L229" s="71"/>
+    </row>
+    <row r="230" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I230" s="71"/>
+      <c r="J230" s="71"/>
+      <c r="K230" s="71"/>
+      <c r="L230" s="71"/>
+    </row>
+    <row r="231" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I231" s="71"/>
+      <c r="J231" s="71"/>
+      <c r="K231" s="71"/>
+      <c r="L231" s="71"/>
+    </row>
+    <row r="232" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I232" s="71"/>
+      <c r="J232" s="71"/>
+      <c r="K232" s="71"/>
+      <c r="L232" s="71"/>
+    </row>
+    <row r="233" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I233" s="71"/>
+      <c r="J233" s="71"/>
+      <c r="K233" s="71"/>
+      <c r="L233" s="71"/>
+    </row>
+    <row r="234" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I234" s="71"/>
+      <c r="J234" s="71"/>
+      <c r="K234" s="71"/>
+      <c r="L234" s="71"/>
+    </row>
+    <row r="235" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I235" s="71"/>
+      <c r="J235" s="71"/>
+      <c r="K235" s="71"/>
+      <c r="L235" s="71"/>
+    </row>
+    <row r="236" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I236" s="71"/>
+      <c r="J236" s="71"/>
+      <c r="K236" s="71"/>
+      <c r="L236" s="71"/>
+    </row>
+    <row r="237" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I237" s="71"/>
+      <c r="J237" s="71"/>
+      <c r="K237" s="71"/>
+      <c r="L237" s="71"/>
+    </row>
+    <row r="238" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I238" s="71"/>
+      <c r="J238" s="71"/>
+      <c r="K238" s="71"/>
+      <c r="L238" s="71"/>
+    </row>
+    <row r="239" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I239" s="71"/>
+      <c r="J239" s="71"/>
+      <c r="K239" s="71"/>
+      <c r="L239" s="71"/>
+    </row>
+    <row r="240" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I240" s="71"/>
+      <c r="J240" s="71"/>
+      <c r="K240" s="71"/>
+      <c r="L240" s="71"/>
+    </row>
+    <row r="241" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I241" s="71"/>
+      <c r="J241" s="71"/>
+      <c r="K241" s="71"/>
+      <c r="L241" s="71"/>
+    </row>
+    <row r="242" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I242" s="71"/>
+      <c r="J242" s="71"/>
+      <c r="K242" s="71"/>
+      <c r="L242" s="71"/>
+    </row>
+    <row r="243" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I243" s="71"/>
+      <c r="J243" s="71"/>
+      <c r="K243" s="71"/>
+      <c r="L243" s="71"/>
+    </row>
+    <row r="244" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I244" s="71"/>
+      <c r="J244" s="71"/>
+      <c r="K244" s="71"/>
+      <c r="L244" s="71"/>
+    </row>
+    <row r="245" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I245" s="71"/>
+      <c r="J245" s="71"/>
+      <c r="K245" s="71"/>
+      <c r="L245" s="71"/>
+    </row>
+    <row r="246" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I246" s="71"/>
+      <c r="J246" s="71"/>
+      <c r="K246" s="71"/>
+      <c r="L246" s="71"/>
+    </row>
+    <row r="247" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I247" s="71"/>
+      <c r="J247" s="71"/>
+      <c r="K247" s="71"/>
+      <c r="L247" s="71"/>
+    </row>
+    <row r="248" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I248" s="71"/>
+      <c r="J248" s="71"/>
+      <c r="K248" s="71"/>
+      <c r="L248" s="71"/>
+    </row>
+    <row r="249" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I249" s="71"/>
+      <c r="J249" s="71"/>
+      <c r="K249" s="71"/>
+      <c r="L249" s="71"/>
+    </row>
+    <row r="250" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I250" s="71"/>
+      <c r="J250" s="71"/>
+      <c r="K250" s="71"/>
+      <c r="L250" s="71"/>
+    </row>
+    <row r="251" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I251" s="71"/>
+      <c r="J251" s="71"/>
+      <c r="K251" s="71"/>
+      <c r="L251" s="71"/>
+    </row>
+    <row r="252" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I252" s="71"/>
+      <c r="J252" s="71"/>
+      <c r="K252" s="71"/>
+      <c r="L252" s="71"/>
+    </row>
+    <row r="253" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I253" s="71"/>
+      <c r="J253" s="71"/>
+      <c r="K253" s="71"/>
+      <c r="L253" s="71"/>
+    </row>
+    <row r="254" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I254" s="71"/>
+      <c r="J254" s="71"/>
+      <c r="K254" s="71"/>
+      <c r="L254" s="71"/>
+    </row>
+    <row r="255" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I255" s="71"/>
+      <c r="J255" s="71"/>
+      <c r="K255" s="71"/>
+      <c r="L255" s="71"/>
+    </row>
+    <row r="256" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I256" s="71"/>
+      <c r="J256" s="71"/>
+      <c r="K256" s="71"/>
+      <c r="L256" s="71"/>
+    </row>
+    <row r="257" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I257" s="71"/>
+      <c r="J257" s="71"/>
+      <c r="K257" s="71"/>
+      <c r="L257" s="71"/>
+    </row>
+    <row r="258" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I258" s="71"/>
+      <c r="J258" s="71"/>
+      <c r="K258" s="71"/>
+      <c r="L258" s="71"/>
+    </row>
+    <row r="259" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I259" s="71"/>
+      <c r="J259" s="71"/>
+      <c r="K259" s="71"/>
+      <c r="L259" s="71"/>
+    </row>
+    <row r="260" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I260" s="71"/>
+      <c r="J260" s="71"/>
+      <c r="K260" s="71"/>
+      <c r="L260" s="71"/>
+    </row>
+    <row r="261" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I261" s="71"/>
+      <c r="J261" s="71"/>
+      <c r="K261" s="71"/>
+      <c r="L261" s="71"/>
+    </row>
+    <row r="262" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I262" s="71"/>
+      <c r="J262" s="71"/>
+      <c r="K262" s="71"/>
+      <c r="L262" s="71"/>
+    </row>
+    <row r="263" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I263" s="71"/>
+      <c r="J263" s="71"/>
+      <c r="K263" s="71"/>
+      <c r="L263" s="71"/>
+    </row>
+    <row r="264" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I264" s="71"/>
+      <c r="J264" s="71"/>
+      <c r="K264" s="71"/>
+      <c r="L264" s="71"/>
+    </row>
+    <row r="265" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I265" s="71"/>
+      <c r="J265" s="71"/>
+      <c r="K265" s="71"/>
+      <c r="L265" s="71"/>
+    </row>
+    <row r="266" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I266" s="71"/>
+      <c r="J266" s="71"/>
+      <c r="K266" s="71"/>
+      <c r="L266" s="71"/>
+    </row>
+    <row r="267" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I267" s="71"/>
+      <c r="J267" s="71"/>
+      <c r="K267" s="71"/>
+      <c r="L267" s="71"/>
+    </row>
+    <row r="268" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I268" s="71"/>
+      <c r="J268" s="71"/>
+      <c r="K268" s="71"/>
+      <c r="L268" s="71"/>
+    </row>
+    <row r="269" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I269" s="71"/>
+      <c r="J269" s="71"/>
+      <c r="K269" s="71"/>
+      <c r="L269" s="71"/>
+    </row>
+    <row r="270" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I270" s="71"/>
+      <c r="J270" s="71"/>
+      <c r="K270" s="71"/>
+      <c r="L270" s="71"/>
+    </row>
+    <row r="271" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I271" s="71"/>
+      <c r="J271" s="71"/>
+      <c r="K271" s="71"/>
+      <c r="L271" s="71"/>
+    </row>
+    <row r="272" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I272" s="71"/>
+      <c r="J272" s="71"/>
+      <c r="K272" s="71"/>
+      <c r="L272" s="71"/>
+    </row>
+    <row r="273" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I273" s="71"/>
+      <c r="J273" s="71"/>
+      <c r="K273" s="71"/>
+      <c r="L273" s="71"/>
+    </row>
+    <row r="274" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I274" s="71"/>
+      <c r="J274" s="71"/>
+      <c r="K274" s="71"/>
+      <c r="L274" s="71"/>
+    </row>
+    <row r="275" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I275" s="71"/>
+      <c r="J275" s="71"/>
+      <c r="K275" s="71"/>
+      <c r="L275" s="71"/>
+    </row>
+    <row r="276" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I276" s="71"/>
+      <c r="J276" s="71"/>
+      <c r="K276" s="71"/>
+      <c r="L276" s="71"/>
+    </row>
+    <row r="277" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I277" s="71"/>
+      <c r="J277" s="71"/>
+      <c r="K277" s="71"/>
+      <c r="L277" s="71"/>
+    </row>
+    <row r="278" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I278" s="71"/>
+      <c r="J278" s="71"/>
+      <c r="K278" s="71"/>
+      <c r="L278" s="71"/>
+    </row>
+    <row r="279" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I279" s="71"/>
+      <c r="J279" s="71"/>
+      <c r="K279" s="71"/>
+      <c r="L279" s="71"/>
+    </row>
+    <row r="280" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I280" s="71"/>
+      <c r="J280" s="71"/>
+      <c r="K280" s="71"/>
+      <c r="L280" s="71"/>
+    </row>
+    <row r="281" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I281" s="71"/>
+      <c r="J281" s="71"/>
+      <c r="K281" s="71"/>
+      <c r="L281" s="71"/>
+    </row>
+    <row r="282" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I282" s="71"/>
+      <c r="J282" s="71"/>
+      <c r="K282" s="71"/>
+      <c r="L282" s="71"/>
+    </row>
+    <row r="283" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I283" s="71"/>
+      <c r="J283" s="71"/>
+      <c r="K283" s="71"/>
+      <c r="L283" s="71"/>
+    </row>
+    <row r="284" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I284" s="71"/>
+      <c r="J284" s="71"/>
+      <c r="K284" s="71"/>
+      <c r="L284" s="71"/>
+    </row>
+    <row r="285" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I285" s="71"/>
+      <c r="J285" s="71"/>
+      <c r="K285" s="71"/>
+      <c r="L285" s="71"/>
+    </row>
+    <row r="286" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I286" s="71"/>
+      <c r="J286" s="71"/>
+      <c r="K286" s="71"/>
+      <c r="L286" s="71"/>
+    </row>
+    <row r="287" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I287" s="71"/>
+      <c r="J287" s="71"/>
+      <c r="K287" s="71"/>
+      <c r="L287" s="71"/>
+    </row>
+    <row r="288" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I288" s="71"/>
+      <c r="J288" s="71"/>
+      <c r="K288" s="71"/>
+      <c r="L288" s="71"/>
+    </row>
+    <row r="289" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I289" s="71"/>
+      <c r="J289" s="71"/>
+      <c r="K289" s="71"/>
+      <c r="L289" s="71"/>
+    </row>
+    <row r="290" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I290" s="71"/>
+      <c r="J290" s="71"/>
+      <c r="K290" s="71"/>
+      <c r="L290" s="71"/>
+    </row>
+    <row r="291" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I291" s="71"/>
+      <c r="J291" s="71"/>
+      <c r="K291" s="71"/>
+      <c r="L291" s="71"/>
+    </row>
+    <row r="292" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I292" s="71"/>
+      <c r="J292" s="71"/>
+      <c r="K292" s="71"/>
+      <c r="L292" s="71"/>
+    </row>
+    <row r="293" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I293" s="71"/>
+      <c r="J293" s="71"/>
+      <c r="K293" s="71"/>
+      <c r="L293" s="71"/>
+    </row>
+    <row r="294" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I294" s="71"/>
+      <c r="J294" s="71"/>
+      <c r="K294" s="71"/>
+      <c r="L294" s="71"/>
+    </row>
+    <row r="295" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I295" s="71"/>
+      <c r="J295" s="71"/>
+      <c r="K295" s="71"/>
+      <c r="L295" s="71"/>
+    </row>
+    <row r="296" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I296" s="71"/>
+      <c r="J296" s="71"/>
+      <c r="K296" s="71"/>
+      <c r="L296" s="71"/>
+    </row>
+    <row r="297" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I297" s="71"/>
+      <c r="J297" s="71"/>
+      <c r="K297" s="71"/>
+      <c r="L297" s="71"/>
+    </row>
+    <row r="298" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I298" s="71"/>
+      <c r="J298" s="71"/>
+      <c r="K298" s="71"/>
+      <c r="L298" s="71"/>
+    </row>
+    <row r="299" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I299" s="71"/>
+      <c r="J299" s="71"/>
+      <c r="K299" s="71"/>
+      <c r="L299" s="71"/>
+    </row>
+    <row r="300" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I300" s="71"/>
+      <c r="J300" s="71"/>
+      <c r="K300" s="71"/>
+      <c r="L300" s="71"/>
+    </row>
+    <row r="301" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I301" s="71"/>
+      <c r="J301" s="71"/>
+      <c r="K301" s="71"/>
+      <c r="L301" s="71"/>
+    </row>
+    <row r="302" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I302" s="71"/>
+      <c r="J302" s="71"/>
+      <c r="K302" s="71"/>
+      <c r="L302" s="71"/>
+    </row>
+    <row r="303" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I303" s="71"/>
+      <c r="J303" s="71"/>
+      <c r="K303" s="71"/>
+      <c r="L303" s="71"/>
+    </row>
+    <row r="304" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I304" s="71"/>
+      <c r="J304" s="71"/>
+      <c r="K304" s="71"/>
+      <c r="L304" s="71"/>
+    </row>
+    <row r="305" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I305" s="71"/>
+      <c r="J305" s="71"/>
+      <c r="K305" s="71"/>
+      <c r="L305" s="71"/>
+    </row>
+    <row r="306" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I306" s="71"/>
+      <c r="J306" s="71"/>
+      <c r="K306" s="71"/>
+      <c r="L306" s="71"/>
+    </row>
+    <row r="307" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I307" s="71"/>
+      <c r="J307" s="71"/>
+      <c r="K307" s="71"/>
+      <c r="L307" s="71"/>
+    </row>
+    <row r="308" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I308" s="71"/>
+      <c r="J308" s="71"/>
+      <c r="K308" s="71"/>
+      <c r="L308" s="71"/>
+    </row>
+    <row r="309" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I309" s="71"/>
+      <c r="J309" s="71"/>
+      <c r="K309" s="71"/>
+      <c r="L309" s="71"/>
+    </row>
+    <row r="310" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I310" s="71"/>
+      <c r="J310" s="71"/>
+      <c r="K310" s="71"/>
+      <c r="L310" s="71"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10940,21 +14610,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E17:E29">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:H15 G2:G12">
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14219,21 +17889,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E20:E32">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G18">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16543,21 +20213,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E15:E27">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17692,8 +21362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18741,21 +22411,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E31:E43">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G29">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tecnica_analise/2023/bts-asian2023.xlsx
+++ b/tecnica_analise/2023/bts-asian2023.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="484">
   <si>
     <t>DATA</t>
   </si>
@@ -1497,6 +1497,12 @@
   </si>
   <si>
     <t>TOCHIGI SC vs FUJIEDA MYFC</t>
+  </si>
+  <si>
+    <t>FAGIANO OKAYAMA vs VEGALTA SENDAI</t>
+  </si>
+  <si>
+    <t>R. KUMAMOTO vs FUJIEDA MYFC</t>
   </si>
 </sst>
 </file>
@@ -9000,16 +9006,16 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q310"/>
+  <dimension ref="A1:Q307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="29.85546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9667,830 +9673,1124 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
+      <c r="A14" s="5">
+        <v>45173</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C14">
+        <v>404</v>
+      </c>
+      <c r="D14">
+        <v>404</v>
+      </c>
+      <c r="E14">
+        <v>404</v>
+      </c>
+      <c r="F14">
+        <v>404</v>
+      </c>
+      <c r="G14">
+        <v>404</v>
+      </c>
+      <c r="H14">
+        <v>404</v>
+      </c>
+      <c r="I14" s="71">
+        <v>404</v>
+      </c>
+      <c r="J14" s="71">
+        <v>404</v>
+      </c>
+      <c r="K14" s="71">
+        <v>404</v>
+      </c>
+      <c r="L14" s="71">
+        <v>404</v>
+      </c>
+      <c r="M14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14">
+        <v>2.06</v>
+      </c>
+      <c r="O14">
+        <v>1.69</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
+      <c r="A15" s="5">
+        <v>45178</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C15">
+        <v>2.17</v>
+      </c>
+      <c r="D15">
+        <v>3.61</v>
+      </c>
+      <c r="E15">
+        <v>3.37</v>
+      </c>
+      <c r="F15">
+        <v>3.95</v>
+      </c>
+      <c r="G15">
+        <v>1.8540000000000001</v>
+      </c>
+      <c r="H15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I15" s="71">
+        <v>1.2649999999999999</v>
+      </c>
+      <c r="J15" s="71">
+        <v>404</v>
+      </c>
+      <c r="K15" s="71">
+        <v>1.4039999999999999</v>
+      </c>
+      <c r="L15" s="71">
+        <v>3.06</v>
+      </c>
+      <c r="M15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="16">
+        <v>1.64</v>
+      </c>
+      <c r="O15" s="16">
+        <v>2.16</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>45179</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>483</v>
+      </c>
       <c r="I16" s="71"/>
       <c r="J16" s="71"/>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>45173</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="C17">
-        <v>404</v>
-      </c>
-      <c r="D17">
-        <v>404</v>
-      </c>
-      <c r="E17">
-        <v>404</v>
-      </c>
-      <c r="F17">
-        <v>404</v>
-      </c>
-      <c r="G17">
-        <v>404</v>
-      </c>
-      <c r="H17">
-        <v>404</v>
-      </c>
-      <c r="I17" s="71">
-        <v>404</v>
-      </c>
-      <c r="J17" s="71">
-        <v>404</v>
-      </c>
-      <c r="K17" s="71">
-        <v>404</v>
-      </c>
-      <c r="L17" s="71">
-        <v>404</v>
-      </c>
-      <c r="M17" t="s">
-        <v>11</v>
-      </c>
-      <c r="N17">
-        <v>2.06</v>
-      </c>
-      <c r="O17">
-        <v>1.69</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>11</v>
+      </c>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="Q16" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+    </row>
+    <row r="18" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I18" s="71"/>
       <c r="J18" s="71"/>
       <c r="K18" s="71"/>
       <c r="L18" s="71"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+    </row>
+    <row r="19" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I19" s="71"/>
       <c r="J19" s="71"/>
       <c r="K19" s="71"/>
       <c r="L19" s="71"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+    </row>
+    <row r="20" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I20" s="71"/>
       <c r="J20" s="71"/>
       <c r="K20" s="71"/>
       <c r="L20" s="71"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+    </row>
+    <row r="21" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I21" s="71"/>
       <c r="J21" s="71"/>
       <c r="K21" s="71"/>
       <c r="L21" s="71"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+    </row>
+    <row r="22" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I22" s="71"/>
       <c r="J22" s="71"/>
       <c r="K22" s="71"/>
       <c r="L22" s="71"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+    </row>
+    <row r="23" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I23" s="71"/>
       <c r="J23" s="71"/>
       <c r="K23" s="71"/>
       <c r="L23" s="71"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+    </row>
+    <row r="24" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I24" s="71"/>
       <c r="J24" s="71"/>
       <c r="K24" s="71"/>
       <c r="L24" s="71"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+    </row>
+    <row r="25" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I25" s="71"/>
       <c r="J25" s="71"/>
       <c r="K25" s="71"/>
       <c r="L25" s="71"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+    </row>
+    <row r="26" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I26" s="71"/>
       <c r="J26" s="71"/>
       <c r="K26" s="71"/>
       <c r="L26" s="71"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+    </row>
+    <row r="27" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I27" s="71"/>
       <c r="J27" s="71"/>
       <c r="K27" s="71"/>
       <c r="L27" s="71"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+    </row>
+    <row r="28" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I28" s="71"/>
       <c r="J28" s="71"/>
       <c r="K28" s="71"/>
       <c r="L28" s="71"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+    </row>
+    <row r="29" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I29" s="71"/>
       <c r="J29" s="71"/>
       <c r="K29" s="71"/>
       <c r="L29" s="71"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+    </row>
+    <row r="30" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I30" s="71"/>
       <c r="J30" s="71"/>
       <c r="K30" s="71"/>
       <c r="L30" s="71"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+    </row>
+    <row r="31" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I31" s="71"/>
       <c r="J31" s="71"/>
       <c r="K31" s="71"/>
       <c r="L31" s="71"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+    </row>
+    <row r="32" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I32" s="71"/>
       <c r="J32" s="71"/>
       <c r="K32" s="71"/>
       <c r="L32" s="71"/>
-    </row>
-    <row r="33" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+    </row>
+    <row r="33" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I33" s="71"/>
       <c r="J33" s="71"/>
       <c r="K33" s="71"/>
       <c r="L33" s="71"/>
-    </row>
-    <row r="34" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+    </row>
+    <row r="34" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I34" s="71"/>
       <c r="J34" s="71"/>
       <c r="K34" s="71"/>
       <c r="L34" s="71"/>
-    </row>
-    <row r="35" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+    </row>
+    <row r="35" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I35" s="71"/>
       <c r="J35" s="71"/>
       <c r="K35" s="71"/>
       <c r="L35" s="71"/>
-    </row>
-    <row r="36" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+    </row>
+    <row r="36" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I36" s="71"/>
       <c r="J36" s="71"/>
       <c r="K36" s="71"/>
       <c r="L36" s="71"/>
-    </row>
-    <row r="37" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+    </row>
+    <row r="37" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I37" s="71"/>
       <c r="J37" s="71"/>
       <c r="K37" s="71"/>
       <c r="L37" s="71"/>
-    </row>
-    <row r="38" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+    </row>
+    <row r="38" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I38" s="71"/>
       <c r="J38" s="71"/>
       <c r="K38" s="71"/>
       <c r="L38" s="71"/>
-    </row>
-    <row r="39" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+    </row>
+    <row r="39" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I39" s="71"/>
       <c r="J39" s="71"/>
       <c r="K39" s="71"/>
       <c r="L39" s="71"/>
-    </row>
-    <row r="40" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+    </row>
+    <row r="40" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I40" s="71"/>
       <c r="J40" s="71"/>
       <c r="K40" s="71"/>
       <c r="L40" s="71"/>
-    </row>
-    <row r="41" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+    </row>
+    <row r="41" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I41" s="71"/>
       <c r="J41" s="71"/>
       <c r="K41" s="71"/>
       <c r="L41" s="71"/>
-    </row>
-    <row r="42" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+    </row>
+    <row r="42" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I42" s="71"/>
       <c r="J42" s="71"/>
       <c r="K42" s="71"/>
       <c r="L42" s="71"/>
-    </row>
-    <row r="43" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+    </row>
+    <row r="43" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I43" s="71"/>
       <c r="J43" s="71"/>
       <c r="K43" s="71"/>
       <c r="L43" s="71"/>
-    </row>
-    <row r="44" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+    </row>
+    <row r="44" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I44" s="71"/>
       <c r="J44" s="71"/>
       <c r="K44" s="71"/>
       <c r="L44" s="71"/>
-    </row>
-    <row r="45" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+    </row>
+    <row r="45" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I45" s="71"/>
       <c r="J45" s="71"/>
       <c r="K45" s="71"/>
       <c r="L45" s="71"/>
-    </row>
-    <row r="46" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+    </row>
+    <row r="46" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I46" s="71"/>
       <c r="J46" s="71"/>
       <c r="K46" s="71"/>
       <c r="L46" s="71"/>
-    </row>
-    <row r="47" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+    </row>
+    <row r="47" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I47" s="71"/>
       <c r="J47" s="71"/>
       <c r="K47" s="71"/>
       <c r="L47" s="71"/>
-    </row>
-    <row r="48" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+    </row>
+    <row r="48" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I48" s="71"/>
       <c r="J48" s="71"/>
       <c r="K48" s="71"/>
       <c r="L48" s="71"/>
-    </row>
-    <row r="49" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+    </row>
+    <row r="49" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I49" s="71"/>
       <c r="J49" s="71"/>
       <c r="K49" s="71"/>
       <c r="L49" s="71"/>
-    </row>
-    <row r="50" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+    </row>
+    <row r="50" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I50" s="71"/>
       <c r="J50" s="71"/>
       <c r="K50" s="71"/>
       <c r="L50" s="71"/>
-    </row>
-    <row r="51" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+    </row>
+    <row r="51" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I51" s="71"/>
       <c r="J51" s="71"/>
       <c r="K51" s="71"/>
       <c r="L51" s="71"/>
-    </row>
-    <row r="52" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+    </row>
+    <row r="52" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I52" s="71"/>
       <c r="J52" s="71"/>
       <c r="K52" s="71"/>
       <c r="L52" s="71"/>
-    </row>
-    <row r="53" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+    </row>
+    <row r="53" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I53" s="71"/>
       <c r="J53" s="71"/>
       <c r="K53" s="71"/>
       <c r="L53" s="71"/>
-    </row>
-    <row r="54" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+    </row>
+    <row r="54" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I54" s="71"/>
       <c r="J54" s="71"/>
       <c r="K54" s="71"/>
       <c r="L54" s="71"/>
-    </row>
-    <row r="55" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+    </row>
+    <row r="55" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I55" s="71"/>
       <c r="J55" s="71"/>
       <c r="K55" s="71"/>
       <c r="L55" s="71"/>
-    </row>
-    <row r="56" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+    </row>
+    <row r="56" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I56" s="71"/>
       <c r="J56" s="71"/>
       <c r="K56" s="71"/>
       <c r="L56" s="71"/>
-    </row>
-    <row r="57" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+    </row>
+    <row r="57" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I57" s="71"/>
       <c r="J57" s="71"/>
       <c r="K57" s="71"/>
       <c r="L57" s="71"/>
-    </row>
-    <row r="58" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+    </row>
+    <row r="58" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I58" s="71"/>
       <c r="J58" s="71"/>
       <c r="K58" s="71"/>
       <c r="L58" s="71"/>
-    </row>
-    <row r="59" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+    </row>
+    <row r="59" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I59" s="71"/>
       <c r="J59" s="71"/>
       <c r="K59" s="71"/>
       <c r="L59" s="71"/>
-    </row>
-    <row r="60" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+    </row>
+    <row r="60" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I60" s="71"/>
       <c r="J60" s="71"/>
       <c r="K60" s="71"/>
       <c r="L60" s="71"/>
-    </row>
-    <row r="61" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+    </row>
+    <row r="61" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I61" s="71"/>
       <c r="J61" s="71"/>
       <c r="K61" s="71"/>
       <c r="L61" s="71"/>
-    </row>
-    <row r="62" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+    </row>
+    <row r="62" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I62" s="71"/>
       <c r="J62" s="71"/>
       <c r="K62" s="71"/>
       <c r="L62" s="71"/>
-    </row>
-    <row r="63" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
+    </row>
+    <row r="63" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I63" s="71"/>
       <c r="J63" s="71"/>
       <c r="K63" s="71"/>
       <c r="L63" s="71"/>
-    </row>
-    <row r="64" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+    </row>
+    <row r="64" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I64" s="71"/>
       <c r="J64" s="71"/>
       <c r="K64" s="71"/>
       <c r="L64" s="71"/>
-    </row>
-    <row r="65" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+    </row>
+    <row r="65" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I65" s="71"/>
       <c r="J65" s="71"/>
       <c r="K65" s="71"/>
       <c r="L65" s="71"/>
-    </row>
-    <row r="66" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N65" s="16"/>
+      <c r="O65" s="16"/>
+    </row>
+    <row r="66" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I66" s="71"/>
       <c r="J66" s="71"/>
       <c r="K66" s="71"/>
       <c r="L66" s="71"/>
-    </row>
-    <row r="67" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
+    </row>
+    <row r="67" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I67" s="71"/>
       <c r="J67" s="71"/>
       <c r="K67" s="71"/>
       <c r="L67" s="71"/>
-    </row>
-    <row r="68" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+    </row>
+    <row r="68" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I68" s="71"/>
       <c r="J68" s="71"/>
       <c r="K68" s="71"/>
       <c r="L68" s="71"/>
-    </row>
-    <row r="69" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+    </row>
+    <row r="69" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I69" s="71"/>
       <c r="J69" s="71"/>
       <c r="K69" s="71"/>
       <c r="L69" s="71"/>
-    </row>
-    <row r="70" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
+    </row>
+    <row r="70" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I70" s="71"/>
       <c r="J70" s="71"/>
       <c r="K70" s="71"/>
       <c r="L70" s="71"/>
-    </row>
-    <row r="71" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
+    </row>
+    <row r="71" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I71" s="71"/>
       <c r="J71" s="71"/>
       <c r="K71" s="71"/>
       <c r="L71" s="71"/>
-    </row>
-    <row r="72" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+    </row>
+    <row r="72" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I72" s="71"/>
       <c r="J72" s="71"/>
       <c r="K72" s="71"/>
       <c r="L72" s="71"/>
-    </row>
-    <row r="73" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+    </row>
+    <row r="73" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I73" s="71"/>
       <c r="J73" s="71"/>
       <c r="K73" s="71"/>
       <c r="L73" s="71"/>
-    </row>
-    <row r="74" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+    </row>
+    <row r="74" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I74" s="71"/>
       <c r="J74" s="71"/>
       <c r="K74" s="71"/>
       <c r="L74" s="71"/>
-    </row>
-    <row r="75" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N74" s="16"/>
+      <c r="O74" s="16"/>
+    </row>
+    <row r="75" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I75" s="71"/>
       <c r="J75" s="71"/>
       <c r="K75" s="71"/>
       <c r="L75" s="71"/>
-    </row>
-    <row r="76" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N75" s="16"/>
+      <c r="O75" s="16"/>
+    </row>
+    <row r="76" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I76" s="71"/>
       <c r="J76" s="71"/>
       <c r="K76" s="71"/>
       <c r="L76" s="71"/>
-    </row>
-    <row r="77" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
+    </row>
+    <row r="77" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I77" s="71"/>
       <c r="J77" s="71"/>
       <c r="K77" s="71"/>
       <c r="L77" s="71"/>
-    </row>
-    <row r="78" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N77" s="16"/>
+      <c r="O77" s="16"/>
+    </row>
+    <row r="78" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I78" s="71"/>
       <c r="J78" s="71"/>
       <c r="K78" s="71"/>
       <c r="L78" s="71"/>
-    </row>
-    <row r="79" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N78" s="16"/>
+      <c r="O78" s="16"/>
+    </row>
+    <row r="79" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I79" s="71"/>
       <c r="J79" s="71"/>
       <c r="K79" s="71"/>
       <c r="L79" s="71"/>
-    </row>
-    <row r="80" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N79" s="16"/>
+      <c r="O79" s="16"/>
+    </row>
+    <row r="80" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I80" s="71"/>
       <c r="J80" s="71"/>
       <c r="K80" s="71"/>
       <c r="L80" s="71"/>
-    </row>
-    <row r="81" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N80" s="16"/>
+      <c r="O80" s="16"/>
+    </row>
+    <row r="81" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I81" s="71"/>
       <c r="J81" s="71"/>
       <c r="K81" s="71"/>
       <c r="L81" s="71"/>
-    </row>
-    <row r="82" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N81" s="16"/>
+      <c r="O81" s="16"/>
+    </row>
+    <row r="82" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I82" s="71"/>
       <c r="J82" s="71"/>
       <c r="K82" s="71"/>
       <c r="L82" s="71"/>
-    </row>
-    <row r="83" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N82" s="16"/>
+      <c r="O82" s="16"/>
+    </row>
+    <row r="83" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I83" s="71"/>
       <c r="J83" s="71"/>
       <c r="K83" s="71"/>
       <c r="L83" s="71"/>
-    </row>
-    <row r="84" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N83" s="16"/>
+      <c r="O83" s="16"/>
+    </row>
+    <row r="84" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I84" s="71"/>
       <c r="J84" s="71"/>
       <c r="K84" s="71"/>
       <c r="L84" s="71"/>
-    </row>
-    <row r="85" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N84" s="16"/>
+      <c r="O84" s="16"/>
+    </row>
+    <row r="85" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I85" s="71"/>
       <c r="J85" s="71"/>
       <c r="K85" s="71"/>
       <c r="L85" s="71"/>
-    </row>
-    <row r="86" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N85" s="16"/>
+      <c r="O85" s="16"/>
+    </row>
+    <row r="86" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I86" s="71"/>
       <c r="J86" s="71"/>
       <c r="K86" s="71"/>
       <c r="L86" s="71"/>
-    </row>
-    <row r="87" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N86" s="16"/>
+      <c r="O86" s="16"/>
+    </row>
+    <row r="87" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I87" s="71"/>
       <c r="J87" s="71"/>
       <c r="K87" s="71"/>
       <c r="L87" s="71"/>
-    </row>
-    <row r="88" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N87" s="16"/>
+      <c r="O87" s="16"/>
+    </row>
+    <row r="88" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I88" s="71"/>
       <c r="J88" s="71"/>
       <c r="K88" s="71"/>
       <c r="L88" s="71"/>
-    </row>
-    <row r="89" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N88" s="16"/>
+      <c r="O88" s="16"/>
+    </row>
+    <row r="89" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I89" s="71"/>
       <c r="J89" s="71"/>
       <c r="K89" s="71"/>
       <c r="L89" s="71"/>
-    </row>
-    <row r="90" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N89" s="16"/>
+      <c r="O89" s="16"/>
+    </row>
+    <row r="90" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I90" s="71"/>
       <c r="J90" s="71"/>
       <c r="K90" s="71"/>
       <c r="L90" s="71"/>
-    </row>
-    <row r="91" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N90" s="16"/>
+      <c r="O90" s="16"/>
+    </row>
+    <row r="91" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I91" s="71"/>
       <c r="J91" s="71"/>
       <c r="K91" s="71"/>
       <c r="L91" s="71"/>
-    </row>
-    <row r="92" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N91" s="16"/>
+      <c r="O91" s="16"/>
+    </row>
+    <row r="92" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I92" s="71"/>
       <c r="J92" s="71"/>
       <c r="K92" s="71"/>
       <c r="L92" s="71"/>
-    </row>
-    <row r="93" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N92" s="16"/>
+      <c r="O92" s="16"/>
+    </row>
+    <row r="93" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I93" s="71"/>
       <c r="J93" s="71"/>
       <c r="K93" s="71"/>
       <c r="L93" s="71"/>
-    </row>
-    <row r="94" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N93" s="16"/>
+      <c r="O93" s="16"/>
+    </row>
+    <row r="94" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I94" s="71"/>
       <c r="J94" s="71"/>
       <c r="K94" s="71"/>
       <c r="L94" s="71"/>
-    </row>
-    <row r="95" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N94" s="16"/>
+      <c r="O94" s="16"/>
+    </row>
+    <row r="95" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I95" s="71"/>
       <c r="J95" s="71"/>
       <c r="K95" s="71"/>
       <c r="L95" s="71"/>
-    </row>
-    <row r="96" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N95" s="16"/>
+      <c r="O95" s="16"/>
+    </row>
+    <row r="96" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I96" s="71"/>
       <c r="J96" s="71"/>
       <c r="K96" s="71"/>
       <c r="L96" s="71"/>
-    </row>
-    <row r="97" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N96" s="16"/>
+      <c r="O96" s="16"/>
+    </row>
+    <row r="97" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I97" s="71"/>
       <c r="J97" s="71"/>
       <c r="K97" s="71"/>
       <c r="L97" s="71"/>
-    </row>
-    <row r="98" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N97" s="16"/>
+      <c r="O97" s="16"/>
+    </row>
+    <row r="98" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I98" s="71"/>
       <c r="J98" s="71"/>
       <c r="K98" s="71"/>
       <c r="L98" s="71"/>
-    </row>
-    <row r="99" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N98" s="16"/>
+      <c r="O98" s="16"/>
+    </row>
+    <row r="99" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I99" s="71"/>
       <c r="J99" s="71"/>
       <c r="K99" s="71"/>
       <c r="L99" s="71"/>
-    </row>
-    <row r="100" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N99" s="16"/>
+      <c r="O99" s="16"/>
+    </row>
+    <row r="100" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I100" s="71"/>
       <c r="J100" s="71"/>
       <c r="K100" s="71"/>
       <c r="L100" s="71"/>
-    </row>
-    <row r="101" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N100" s="16"/>
+      <c r="O100" s="16"/>
+    </row>
+    <row r="101" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I101" s="71"/>
       <c r="J101" s="71"/>
       <c r="K101" s="71"/>
       <c r="L101" s="71"/>
-    </row>
-    <row r="102" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N101" s="16"/>
+      <c r="O101" s="16"/>
+    </row>
+    <row r="102" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I102" s="71"/>
       <c r="J102" s="71"/>
       <c r="K102" s="71"/>
       <c r="L102" s="71"/>
-    </row>
-    <row r="103" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N102" s="16"/>
+      <c r="O102" s="16"/>
+    </row>
+    <row r="103" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I103" s="71"/>
       <c r="J103" s="71"/>
       <c r="K103" s="71"/>
       <c r="L103" s="71"/>
-    </row>
-    <row r="104" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N103" s="16"/>
+      <c r="O103" s="16"/>
+    </row>
+    <row r="104" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I104" s="71"/>
       <c r="J104" s="71"/>
       <c r="K104" s="71"/>
       <c r="L104" s="71"/>
-    </row>
-    <row r="105" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N104" s="16"/>
+      <c r="O104" s="16"/>
+    </row>
+    <row r="105" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I105" s="71"/>
       <c r="J105" s="71"/>
       <c r="K105" s="71"/>
       <c r="L105" s="71"/>
-    </row>
-    <row r="106" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N105" s="16"/>
+      <c r="O105" s="16"/>
+    </row>
+    <row r="106" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I106" s="71"/>
       <c r="J106" s="71"/>
       <c r="K106" s="71"/>
       <c r="L106" s="71"/>
-    </row>
-    <row r="107" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N106" s="16"/>
+      <c r="O106" s="16"/>
+    </row>
+    <row r="107" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I107" s="71"/>
       <c r="J107" s="71"/>
       <c r="K107" s="71"/>
       <c r="L107" s="71"/>
-    </row>
-    <row r="108" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N107" s="16"/>
+      <c r="O107" s="16"/>
+    </row>
+    <row r="108" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I108" s="71"/>
       <c r="J108" s="71"/>
       <c r="K108" s="71"/>
       <c r="L108" s="71"/>
-    </row>
-    <row r="109" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N108" s="16"/>
+      <c r="O108" s="16"/>
+    </row>
+    <row r="109" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I109" s="71"/>
       <c r="J109" s="71"/>
       <c r="K109" s="71"/>
       <c r="L109" s="71"/>
-    </row>
-    <row r="110" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N109" s="16"/>
+      <c r="O109" s="16"/>
+    </row>
+    <row r="110" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I110" s="71"/>
       <c r="J110" s="71"/>
       <c r="K110" s="71"/>
       <c r="L110" s="71"/>
-    </row>
-    <row r="111" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N110" s="16"/>
+      <c r="O110" s="16"/>
+    </row>
+    <row r="111" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I111" s="71"/>
       <c r="J111" s="71"/>
       <c r="K111" s="71"/>
       <c r="L111" s="71"/>
-    </row>
-    <row r="112" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N111" s="16"/>
+      <c r="O111" s="16"/>
+    </row>
+    <row r="112" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I112" s="71"/>
       <c r="J112" s="71"/>
       <c r="K112" s="71"/>
       <c r="L112" s="71"/>
-    </row>
-    <row r="113" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N112" s="16"/>
+      <c r="O112" s="16"/>
+    </row>
+    <row r="113" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I113" s="71"/>
       <c r="J113" s="71"/>
       <c r="K113" s="71"/>
       <c r="L113" s="71"/>
-    </row>
-    <row r="114" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N113" s="16"/>
+      <c r="O113" s="16"/>
+    </row>
+    <row r="114" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I114" s="71"/>
       <c r="J114" s="71"/>
       <c r="K114" s="71"/>
       <c r="L114" s="71"/>
-    </row>
-    <row r="115" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N114" s="16"/>
+      <c r="O114" s="16"/>
+    </row>
+    <row r="115" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I115" s="71"/>
       <c r="J115" s="71"/>
       <c r="K115" s="71"/>
       <c r="L115" s="71"/>
-    </row>
-    <row r="116" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N115" s="16"/>
+      <c r="O115" s="16"/>
+    </row>
+    <row r="116" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I116" s="71"/>
       <c r="J116" s="71"/>
       <c r="K116" s="71"/>
       <c r="L116" s="71"/>
-    </row>
-    <row r="117" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N116" s="16"/>
+      <c r="O116" s="16"/>
+    </row>
+    <row r="117" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I117" s="71"/>
       <c r="J117" s="71"/>
       <c r="K117" s="71"/>
       <c r="L117" s="71"/>
-    </row>
-    <row r="118" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N117" s="16"/>
+      <c r="O117" s="16"/>
+    </row>
+    <row r="118" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I118" s="71"/>
       <c r="J118" s="71"/>
       <c r="K118" s="71"/>
       <c r="L118" s="71"/>
-    </row>
-    <row r="119" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N118" s="16"/>
+      <c r="O118" s="16"/>
+    </row>
+    <row r="119" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I119" s="71"/>
       <c r="J119" s="71"/>
       <c r="K119" s="71"/>
       <c r="L119" s="71"/>
-    </row>
-    <row r="120" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N119" s="16"/>
+      <c r="O119" s="16"/>
+    </row>
+    <row r="120" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I120" s="71"/>
       <c r="J120" s="71"/>
       <c r="K120" s="71"/>
       <c r="L120" s="71"/>
-    </row>
-    <row r="121" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N120" s="16"/>
+      <c r="O120" s="16"/>
+    </row>
+    <row r="121" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I121" s="71"/>
       <c r="J121" s="71"/>
       <c r="K121" s="71"/>
       <c r="L121" s="71"/>
-    </row>
-    <row r="122" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N121" s="16"/>
+      <c r="O121" s="16"/>
+    </row>
+    <row r="122" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I122" s="71"/>
       <c r="J122" s="71"/>
       <c r="K122" s="71"/>
       <c r="L122" s="71"/>
-    </row>
-    <row r="123" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N122" s="16"/>
+      <c r="O122" s="16"/>
+    </row>
+    <row r="123" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I123" s="71"/>
       <c r="J123" s="71"/>
       <c r="K123" s="71"/>
       <c r="L123" s="71"/>
-    </row>
-    <row r="124" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N123" s="16"/>
+      <c r="O123" s="16"/>
+    </row>
+    <row r="124" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I124" s="71"/>
       <c r="J124" s="71"/>
       <c r="K124" s="71"/>
       <c r="L124" s="71"/>
-    </row>
-    <row r="125" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N124" s="16"/>
+      <c r="O124" s="16"/>
+    </row>
+    <row r="125" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I125" s="71"/>
       <c r="J125" s="71"/>
       <c r="K125" s="71"/>
       <c r="L125" s="71"/>
-    </row>
-    <row r="126" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N125" s="16"/>
+      <c r="O125" s="16"/>
+    </row>
+    <row r="126" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I126" s="71"/>
       <c r="J126" s="71"/>
       <c r="K126" s="71"/>
       <c r="L126" s="71"/>
-    </row>
-    <row r="127" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N126" s="16"/>
+      <c r="O126" s="16"/>
+    </row>
+    <row r="127" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I127" s="71"/>
       <c r="J127" s="71"/>
       <c r="K127" s="71"/>
       <c r="L127" s="71"/>
-    </row>
-    <row r="128" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N127" s="16"/>
+      <c r="O127" s="16"/>
+    </row>
+    <row r="128" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I128" s="71"/>
       <c r="J128" s="71"/>
       <c r="K128" s="71"/>
       <c r="L128" s="71"/>
-    </row>
-    <row r="129" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N128" s="16"/>
+      <c r="O128" s="16"/>
+    </row>
+    <row r="129" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I129" s="71"/>
       <c r="J129" s="71"/>
       <c r="K129" s="71"/>
       <c r="L129" s="71"/>
-    </row>
-    <row r="130" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N129" s="16"/>
+      <c r="O129" s="16"/>
+    </row>
+    <row r="130" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I130" s="71"/>
       <c r="J130" s="71"/>
       <c r="K130" s="71"/>
       <c r="L130" s="71"/>
-    </row>
-    <row r="131" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N130" s="16"/>
+      <c r="O130" s="16"/>
+    </row>
+    <row r="131" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I131" s="71"/>
       <c r="J131" s="71"/>
       <c r="K131" s="71"/>
       <c r="L131" s="71"/>
-    </row>
-    <row r="132" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N131" s="16"/>
+      <c r="O131" s="16"/>
+    </row>
+    <row r="132" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I132" s="71"/>
       <c r="J132" s="71"/>
       <c r="K132" s="71"/>
       <c r="L132" s="71"/>
-    </row>
-    <row r="133" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N132" s="16"/>
+      <c r="O132" s="16"/>
+    </row>
+    <row r="133" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I133" s="71"/>
       <c r="J133" s="71"/>
       <c r="K133" s="71"/>
       <c r="L133" s="71"/>
-    </row>
-    <row r="134" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N133" s="16"/>
+      <c r="O133" s="16"/>
+    </row>
+    <row r="134" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I134" s="71"/>
       <c r="J134" s="71"/>
       <c r="K134" s="71"/>
       <c r="L134" s="71"/>
-    </row>
-    <row r="135" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="N134" s="16"/>
+      <c r="O134" s="16"/>
+    </row>
+    <row r="135" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I135" s="71"/>
       <c r="J135" s="71"/>
       <c r="K135" s="71"/>
       <c r="L135" s="71"/>
     </row>
-    <row r="136" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I136" s="71"/>
       <c r="J136" s="71"/>
       <c r="K136" s="71"/>
       <c r="L136" s="71"/>
     </row>
-    <row r="137" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I137" s="71"/>
       <c r="J137" s="71"/>
       <c r="K137" s="71"/>
       <c r="L137" s="71"/>
     </row>
-    <row r="138" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I138" s="71"/>
       <c r="J138" s="71"/>
       <c r="K138" s="71"/>
       <c r="L138" s="71"/>
     </row>
-    <row r="139" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I139" s="71"/>
       <c r="J139" s="71"/>
       <c r="K139" s="71"/>
       <c r="L139" s="71"/>
     </row>
-    <row r="140" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I140" s="71"/>
       <c r="J140" s="71"/>
       <c r="K140" s="71"/>
       <c r="L140" s="71"/>
     </row>
-    <row r="141" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I141" s="71"/>
       <c r="J141" s="71"/>
       <c r="K141" s="71"/>
       <c r="L141" s="71"/>
     </row>
-    <row r="142" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I142" s="71"/>
       <c r="J142" s="71"/>
       <c r="K142" s="71"/>
       <c r="L142" s="71"/>
     </row>
-    <row r="143" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I143" s="71"/>
       <c r="J143" s="71"/>
       <c r="K143" s="71"/>
       <c r="L143" s="71"/>
     </row>
-    <row r="144" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I144" s="71"/>
       <c r="J144" s="71"/>
       <c r="K144" s="71"/>
@@ -11473,24 +11773,6 @@
       <c r="J307" s="71"/>
       <c r="K307" s="71"/>
       <c r="L307" s="71"/>
-    </row>
-    <row r="308" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I308" s="71"/>
-      <c r="J308" s="71"/>
-      <c r="K308" s="71"/>
-      <c r="L308" s="71"/>
-    </row>
-    <row r="309" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I309" s="71"/>
-      <c r="J309" s="71"/>
-      <c r="K309" s="71"/>
-      <c r="L309" s="71"/>
-    </row>
-    <row r="310" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I310" s="71"/>
-      <c r="J310" s="71"/>
-      <c r="K310" s="71"/>
-      <c r="L310" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tecnica_analise/2023/bts-asian2023.xlsx
+++ b/tecnica_analise/2023/bts-asian2023.xlsx
@@ -3711,7 +3711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -6465,8 +6465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9008,8 +9008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9779,15 +9779,45 @@
       <c r="B16" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
+      <c r="C16">
+        <v>1.97</v>
+      </c>
+      <c r="D16">
+        <v>3.88</v>
+      </c>
+      <c r="E16">
+        <v>3.71</v>
+      </c>
+      <c r="F16">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="G16">
+        <v>1.625</v>
+      </c>
+      <c r="H16">
+        <v>2.36</v>
+      </c>
+      <c r="I16" s="71">
+        <v>1.194</v>
+      </c>
+      <c r="J16" s="71">
+        <v>404</v>
+      </c>
+      <c r="K16" s="71">
+        <v>404</v>
+      </c>
+      <c r="L16" s="71">
+        <v>404</v>
+      </c>
       <c r="M16" t="s">
         <v>11</v>
       </c>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
+      <c r="N16" s="71">
+        <v>1.52</v>
+      </c>
+      <c r="O16" s="71">
+        <v>2.41</v>
+      </c>
       <c r="Q16" s="6" t="s">
         <v>26</v>
       </c>
@@ -21644,7 +21674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -21655,7 +21685,7 @@
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="72" x14ac:dyDescent="0.25">

--- a/tecnica_analise/2023/bts-asian2023.xlsx
+++ b/tecnica_analise/2023/bts-asian2023.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="490">
   <si>
     <t>DATA</t>
   </si>
@@ -1503,6 +1503,24 @@
   </si>
   <si>
     <t>R. KUMAMOTO vs FUJIEDA MYFC</t>
+  </si>
+  <si>
+    <t>CUIABA vs AMERICA MG</t>
+  </si>
+  <si>
+    <t>SWINDON TOWN vs WALSALL</t>
+  </si>
+  <si>
+    <t>WREXHAM vs GRIMSBY</t>
+  </si>
+  <si>
+    <t>OITA TRINITA vs TOKUSHIMA V.</t>
+  </si>
+  <si>
+    <t>LYON vs LE HAVRE</t>
+  </si>
+  <si>
+    <t>MIDLAND vs BERAZATEGUI</t>
   </si>
 </sst>
 </file>
@@ -3178,8 +3196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3711,8 +3729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9008,8 +9026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q307"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9822,63 +9840,360 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-    </row>
-    <row r="18" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-    </row>
-    <row r="19" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-    </row>
-    <row r="20" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-    </row>
-    <row r="21" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-    </row>
-    <row r="22" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-    </row>
-    <row r="23" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-    </row>
-    <row r="24" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>45184</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C17">
+        <v>1.97</v>
+      </c>
+      <c r="D17">
+        <v>3.48</v>
+      </c>
+      <c r="E17">
+        <v>4.25</v>
+      </c>
+      <c r="F17">
+        <v>3.11</v>
+      </c>
+      <c r="G17">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="H17">
+        <v>1.694</v>
+      </c>
+      <c r="I17" s="71">
+        <v>1.395</v>
+      </c>
+      <c r="J17" s="71">
+        <v>1.5</v>
+      </c>
+      <c r="K17" s="71">
+        <v>1.6619999999999999</v>
+      </c>
+      <c r="L17" s="71">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="M17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" s="71">
+        <v>1.95</v>
+      </c>
+      <c r="O17" s="71">
+        <v>1.79</v>
+      </c>
+      <c r="P17" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>45185</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="C18">
+        <v>1.97</v>
+      </c>
+      <c r="D18">
+        <v>3.81</v>
+      </c>
+      <c r="E18">
+        <v>3.76</v>
+      </c>
+      <c r="F18">
+        <v>4.46</v>
+      </c>
+      <c r="G18">
+        <v>1.7090000000000001</v>
+      </c>
+      <c r="H18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I18" s="71">
+        <v>1.2210000000000001</v>
+      </c>
+      <c r="J18" s="71">
+        <v>404</v>
+      </c>
+      <c r="K18" s="71">
+        <v>404</v>
+      </c>
+      <c r="L18" s="71">
+        <v>404</v>
+      </c>
+      <c r="M18" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="71">
+        <v>1.62</v>
+      </c>
+      <c r="O18" s="71">
+        <v>2.21</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>45185</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C19">
+        <v>1.6619999999999999</v>
+      </c>
+      <c r="D19">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F19">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G19">
+        <v>1.714</v>
+      </c>
+      <c r="H19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I19" s="71">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="J19" s="71">
+        <v>404</v>
+      </c>
+      <c r="K19" s="71">
+        <v>404</v>
+      </c>
+      <c r="L19" s="71">
+        <v>404</v>
+      </c>
+      <c r="M19" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" s="71">
+        <v>1.68</v>
+      </c>
+      <c r="O19" s="71">
+        <v>2.11</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>45185</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C20">
+        <v>1.98</v>
+      </c>
+      <c r="D20">
+        <v>3.55</v>
+      </c>
+      <c r="E20">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="F20">
+        <v>3.31</v>
+      </c>
+      <c r="G20">
+        <v>2.1</v>
+      </c>
+      <c r="H20">
+        <v>1.7809999999999999</v>
+      </c>
+      <c r="I20" s="71">
+        <v>1.349</v>
+      </c>
+      <c r="J20" s="71">
+        <v>1.4359999999999999</v>
+      </c>
+      <c r="K20" s="71">
+        <v>1.5640000000000001</v>
+      </c>
+      <c r="L20" s="71">
+        <v>2.5</v>
+      </c>
+      <c r="M20" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" s="71">
+        <v>1.84</v>
+      </c>
+      <c r="O20" s="71">
+        <v>1.87</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>45186</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C21">
+        <v>2.12</v>
+      </c>
+      <c r="D21">
+        <v>3.78</v>
+      </c>
+      <c r="E21">
+        <v>3.34</v>
+      </c>
+      <c r="F21">
+        <v>4.07</v>
+      </c>
+      <c r="G21">
+        <v>1.8</v>
+      </c>
+      <c r="H21">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="I21" s="71">
+        <v>1.2529999999999999</v>
+      </c>
+      <c r="J21" s="71">
+        <v>404</v>
+      </c>
+      <c r="K21" s="71">
+        <v>404</v>
+      </c>
+      <c r="L21" s="71">
+        <v>404</v>
+      </c>
+      <c r="M21" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" s="71">
+        <v>1.665</v>
+      </c>
+      <c r="O21" s="71">
+        <v>2.13</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>45186</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C22">
+        <v>1.704</v>
+      </c>
+      <c r="D22">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="E22">
+        <v>4.82</v>
+      </c>
+      <c r="F22">
+        <v>404</v>
+      </c>
+      <c r="G22">
+        <v>1.6890000000000001</v>
+      </c>
+      <c r="H22">
+        <v>2.27</v>
+      </c>
+      <c r="I22" s="71">
+        <v>404</v>
+      </c>
+      <c r="J22" s="71">
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="K22" s="71">
+        <v>1.3080000000000001</v>
+      </c>
+      <c r="L22" s="71">
+        <v>3.64</v>
+      </c>
+      <c r="M22" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22" s="71">
+        <v>1.67</v>
+      </c>
+      <c r="O22" s="71">
+        <v>2.15</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>45186</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C23">
+        <v>404</v>
+      </c>
+      <c r="D23">
+        <v>404</v>
+      </c>
+      <c r="E23">
+        <v>404</v>
+      </c>
+      <c r="F23">
+        <v>404</v>
+      </c>
+      <c r="G23">
+        <v>404</v>
+      </c>
+      <c r="H23">
+        <v>404</v>
+      </c>
+      <c r="I23" s="71">
+        <v>404</v>
+      </c>
+      <c r="J23" s="71">
+        <v>404</v>
+      </c>
+      <c r="K23" s="71">
+        <v>404</v>
+      </c>
+      <c r="L23" s="71">
+        <v>404</v>
+      </c>
+      <c r="M23" t="s">
+        <v>11</v>
+      </c>
+      <c r="N23" s="71">
+        <v>404</v>
+      </c>
+      <c r="O23" s="71">
+        <v>404</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I24" s="71"/>
       <c r="J24" s="71"/>
       <c r="K24" s="71"/>
@@ -9886,7 +10201,7 @@
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
     </row>
-    <row r="25" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I25" s="71"/>
       <c r="J25" s="71"/>
       <c r="K25" s="71"/>
@@ -9894,7 +10209,7 @@
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
     </row>
-    <row r="26" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I26" s="71"/>
       <c r="J26" s="71"/>
       <c r="K26" s="71"/>
@@ -9902,7 +10217,7 @@
       <c r="N26" s="16"/>
       <c r="O26" s="16"/>
     </row>
-    <row r="27" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I27" s="71"/>
       <c r="J27" s="71"/>
       <c r="K27" s="71"/>
@@ -9910,7 +10225,7 @@
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
     </row>
-    <row r="28" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I28" s="71"/>
       <c r="J28" s="71"/>
       <c r="K28" s="71"/>
@@ -9918,7 +10233,7 @@
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
     </row>
-    <row r="29" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I29" s="71"/>
       <c r="J29" s="71"/>
       <c r="K29" s="71"/>
@@ -9926,7 +10241,7 @@
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
     </row>
-    <row r="30" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I30" s="71"/>
       <c r="J30" s="71"/>
       <c r="K30" s="71"/>
@@ -9934,7 +10249,7 @@
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
     </row>
-    <row r="31" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I31" s="71"/>
       <c r="J31" s="71"/>
       <c r="K31" s="71"/>
@@ -9942,7 +10257,7 @@
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
     </row>
-    <row r="32" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I32" s="71"/>
       <c r="J32" s="71"/>
       <c r="K32" s="71"/>
@@ -14297,7 +14612,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C2" sqref="C2:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tecnica_analise/2023/bts-asian2023.xlsx
+++ b/tecnica_analise/2023/bts-asian2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" firstSheet="7" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="11" r:id="rId1"/>
@@ -3196,8 +3196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3467,8 +3467,8 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="8">
-        <f>F14*1.8</f>
-        <v>1800</v>
+        <f>F14*1.2</f>
+        <v>1200</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="56">
@@ -3494,8 +3494,8 @@
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="61">
-        <f>F14*2</f>
-        <v>2000</v>
+        <f>F14*1.2</f>
+        <v>1200</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="56">
@@ -9026,8 +9026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tecnica_analise/2023/bts-asian2023.xlsx
+++ b/tecnica_analise/2023/bts-asian2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" firstSheet="8" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="11" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="agosto" sheetId="1" r:id="rId13"/>
     <sheet name="agostInvest" sheetId="2" r:id="rId14"/>
     <sheet name="setembro" sheetId="15" r:id="rId15"/>
+    <sheet name="outubro" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="507">
   <si>
     <t>DATA</t>
   </si>
@@ -1521,6 +1522,57 @@
   </si>
   <si>
     <t>MIDLAND vs BERAZATEGUI</t>
+  </si>
+  <si>
+    <t>FAGIANO OKAYAMA vs JEF UTD CHIBA</t>
+  </si>
+  <si>
+    <t>FC TOKYO vs GAMBA OSAKA</t>
+  </si>
+  <si>
+    <t>JUBILO IWATA vs V-V. NAGASAKI</t>
+  </si>
+  <si>
+    <t>BRISTOL ROVERS vs PORT VALE</t>
+  </si>
+  <si>
+    <t> LEAGUE ONE</t>
+  </si>
+  <si>
+    <t>GILLINGHAM vs MILTON KEYNES</t>
+  </si>
+  <si>
+    <t>V-V. NAGASAKI vs FUJIEDA MYFC</t>
+  </si>
+  <si>
+    <t>ALAVES vs REAL BETIS</t>
+  </si>
+  <si>
+    <t>MACHIDA ZELVIA vs VENTFORET KOFU</t>
+  </si>
+  <si>
+    <t>NAPOLI vs FIORENTINA</t>
+  </si>
+  <si>
+    <t>AFC WIMBLEDON vs BRADFORD</t>
+  </si>
+  <si>
+    <t>CUIABA vs CRUZEIRO</t>
+  </si>
+  <si>
+    <t>SANTOS vs BRAGANTINO</t>
+  </si>
+  <si>
+    <t>PISA vs CITTADELLA</t>
+  </si>
+  <si>
+    <t>REAL SOCIEDAD vs MALLORCA</t>
+  </si>
+  <si>
+    <t>ATHLETICO PR vs AMERICA MG</t>
+  </si>
+  <si>
+    <t>0--5</t>
   </si>
 </sst>
 </file>
@@ -3196,7 +3248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -9027,7 +9079,7 @@
   <dimension ref="A1:Q307"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection sqref="A1:Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12118,6 +12170,1018 @@
       <c r="J307" s="71"/>
       <c r="K307" s="71"/>
       <c r="L307" s="71"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="144" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>45200</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2">
+        <v>2.44</v>
+      </c>
+      <c r="D2">
+        <v>2.88</v>
+      </c>
+      <c r="E2">
+        <v>3.69</v>
+      </c>
+      <c r="F2">
+        <v>2.69</v>
+      </c>
+      <c r="G2">
+        <v>2.61</v>
+      </c>
+      <c r="H2">
+        <v>1.54</v>
+      </c>
+      <c r="I2" s="71">
+        <v>1.51</v>
+      </c>
+      <c r="J2" s="71">
+        <v>1.65</v>
+      </c>
+      <c r="K2" s="71">
+        <v>1.91</v>
+      </c>
+      <c r="L2" s="71">
+        <v>1.98</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="71">
+        <v>2.02</v>
+      </c>
+      <c r="O2" s="71">
+        <v>1.74</v>
+      </c>
+      <c r="P2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>45200</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="C3">
+        <v>3.02</v>
+      </c>
+      <c r="D3">
+        <v>3.27</v>
+      </c>
+      <c r="E3">
+        <v>2.52</v>
+      </c>
+      <c r="F3">
+        <v>3.49</v>
+      </c>
+      <c r="G3">
+        <v>2.04</v>
+      </c>
+      <c r="H3">
+        <v>1.83</v>
+      </c>
+      <c r="I3" s="71">
+        <v>1.32</v>
+      </c>
+      <c r="J3" s="71">
+        <v>1.42</v>
+      </c>
+      <c r="K3" s="71">
+        <v>1.52</v>
+      </c>
+      <c r="L3" s="71">
+        <v>2.64</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="71">
+        <v>1.73</v>
+      </c>
+      <c r="O3" s="71">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="P3" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>45200</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C4">
+        <v>2.17</v>
+      </c>
+      <c r="D4">
+        <v>3.65</v>
+      </c>
+      <c r="E4">
+        <v>3.42</v>
+      </c>
+      <c r="F4">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="G4">
+        <v>1.79</v>
+      </c>
+      <c r="H4">
+        <v>2.1</v>
+      </c>
+      <c r="I4" s="71">
+        <v>1.25</v>
+      </c>
+      <c r="J4" s="71">
+        <v>404</v>
+      </c>
+      <c r="K4" s="71">
+        <v>404</v>
+      </c>
+      <c r="L4" s="71">
+        <v>404</v>
+      </c>
+      <c r="M4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="71">
+        <v>1.62</v>
+      </c>
+      <c r="O4" s="71">
+        <v>2.21</v>
+      </c>
+      <c r="P4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>45200</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C5">
+        <v>1.62</v>
+      </c>
+      <c r="D5">
+        <v>4.45</v>
+      </c>
+      <c r="E5">
+        <v>5.12</v>
+      </c>
+      <c r="F5">
+        <v>5.04</v>
+      </c>
+      <c r="G5">
+        <v>1.6</v>
+      </c>
+      <c r="H5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="I5" s="71">
+        <v>1.18</v>
+      </c>
+      <c r="J5" s="71">
+        <v>404</v>
+      </c>
+      <c r="K5" s="71">
+        <v>404</v>
+      </c>
+      <c r="L5" s="71">
+        <v>404</v>
+      </c>
+      <c r="M5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="71">
+        <v>1.61</v>
+      </c>
+      <c r="O5" s="71">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>45202</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="C6">
+        <v>2.08</v>
+      </c>
+      <c r="D6">
+        <v>3.54</v>
+      </c>
+      <c r="E6">
+        <v>3.7</v>
+      </c>
+      <c r="F6">
+        <v>3.83</v>
+      </c>
+      <c r="G6">
+        <v>1.9</v>
+      </c>
+      <c r="H6">
+        <v>1.97</v>
+      </c>
+      <c r="I6" s="71">
+        <v>1.28</v>
+      </c>
+      <c r="J6" s="71">
+        <v>404</v>
+      </c>
+      <c r="K6" s="71">
+        <v>1.43</v>
+      </c>
+      <c r="L6" s="71">
+        <v>2.95</v>
+      </c>
+      <c r="M6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="71">
+        <v>1.71</v>
+      </c>
+      <c r="O6" s="71">
+        <v>2.06</v>
+      </c>
+      <c r="P6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>45206</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C7">
+        <v>2.19</v>
+      </c>
+      <c r="D7">
+        <v>3.55</v>
+      </c>
+      <c r="E7">
+        <v>3.38</v>
+      </c>
+      <c r="F7">
+        <v>3.53</v>
+      </c>
+      <c r="G7">
+        <v>1.98</v>
+      </c>
+      <c r="H7">
+        <v>1.89</v>
+      </c>
+      <c r="I7" s="71">
+        <v>1.32</v>
+      </c>
+      <c r="J7" s="71">
+        <v>1.43</v>
+      </c>
+      <c r="K7" s="71">
+        <v>1.49</v>
+      </c>
+      <c r="L7" s="71">
+        <v>2.17</v>
+      </c>
+      <c r="M7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="71">
+        <v>1.75</v>
+      </c>
+      <c r="O7" s="71">
+        <v>1.99</v>
+      </c>
+      <c r="P7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>45206</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C8">
+        <v>1.91</v>
+      </c>
+      <c r="D8">
+        <v>3.96</v>
+      </c>
+      <c r="E8">
+        <v>3.87</v>
+      </c>
+      <c r="F8">
+        <v>4.72</v>
+      </c>
+      <c r="G8">
+        <v>1.67</v>
+      </c>
+      <c r="H8">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="I8" s="71">
+        <v>1.2</v>
+      </c>
+      <c r="J8" s="71">
+        <v>404</v>
+      </c>
+      <c r="K8" s="71">
+        <v>404</v>
+      </c>
+      <c r="L8" s="71">
+        <v>404</v>
+      </c>
+      <c r="M8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="71">
+        <v>1.55</v>
+      </c>
+      <c r="O8" s="71">
+        <v>2.34</v>
+      </c>
+      <c r="P8" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>45207</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="C9">
+        <v>2.57</v>
+      </c>
+      <c r="D9">
+        <v>3.25</v>
+      </c>
+      <c r="E9">
+        <v>3.06</v>
+      </c>
+      <c r="F9">
+        <v>3.06</v>
+      </c>
+      <c r="G9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H9">
+        <v>1.68</v>
+      </c>
+      <c r="I9" s="71">
+        <v>1.4</v>
+      </c>
+      <c r="J9" s="71">
+        <v>1.52</v>
+      </c>
+      <c r="K9" s="71">
+        <v>1.69</v>
+      </c>
+      <c r="L9" s="71">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="71">
+        <v>1.87</v>
+      </c>
+      <c r="O9" s="71">
+        <v>1.9</v>
+      </c>
+      <c r="P9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>45207</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="C10">
+        <v>1.87</v>
+      </c>
+      <c r="D10">
+        <v>3.66</v>
+      </c>
+      <c r="E10">
+        <v>4.42</v>
+      </c>
+      <c r="F10">
+        <v>3.5</v>
+      </c>
+      <c r="G10">
+        <v>2.02</v>
+      </c>
+      <c r="H10">
+        <v>1.86</v>
+      </c>
+      <c r="I10" s="71">
+        <v>1.32</v>
+      </c>
+      <c r="J10" s="71">
+        <v>404</v>
+      </c>
+      <c r="K10" s="71">
+        <v>1.51</v>
+      </c>
+      <c r="L10" s="71">
+        <v>2.67</v>
+      </c>
+      <c r="M10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="71">
+        <v>1.82</v>
+      </c>
+      <c r="O10" s="71">
+        <v>1.89</v>
+      </c>
+      <c r="P10" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>45207</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C11">
+        <v>1.6</v>
+      </c>
+      <c r="D11">
+        <v>4.53</v>
+      </c>
+      <c r="E11">
+        <v>5.54</v>
+      </c>
+      <c r="F11">
+        <v>404</v>
+      </c>
+      <c r="G11">
+        <v>1.63</v>
+      </c>
+      <c r="H11">
+        <v>2.4</v>
+      </c>
+      <c r="I11" s="71">
+        <v>404</v>
+      </c>
+      <c r="J11" s="71">
+        <v>1.25</v>
+      </c>
+      <c r="K11" s="71">
+        <v>1.28</v>
+      </c>
+      <c r="L11" s="71">
+        <v>3.99</v>
+      </c>
+      <c r="M11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="71">
+        <v>1.66</v>
+      </c>
+      <c r="O11" s="71">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="P11" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>45207</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="C12">
+        <v>2.04</v>
+      </c>
+      <c r="D12">
+        <v>3.48</v>
+      </c>
+      <c r="E12">
+        <v>3.9</v>
+      </c>
+      <c r="F12">
+        <v>3.19</v>
+      </c>
+      <c r="G12">
+        <v>2.12</v>
+      </c>
+      <c r="H12">
+        <v>1.77</v>
+      </c>
+      <c r="I12" s="71">
+        <v>1.37</v>
+      </c>
+      <c r="J12" s="71">
+        <v>1.46</v>
+      </c>
+      <c r="K12" s="71">
+        <v>1.6</v>
+      </c>
+      <c r="L12" s="71">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="M12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="71">
+        <v>1.83</v>
+      </c>
+      <c r="O12" s="71">
+        <v>1.9</v>
+      </c>
+      <c r="P12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>45214</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="C13">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="D13">
+        <v>2.95</v>
+      </c>
+      <c r="E13">
+        <v>3.53</v>
+      </c>
+      <c r="F13">
+        <v>2.46</v>
+      </c>
+      <c r="G13">
+        <v>2.89</v>
+      </c>
+      <c r="H13">
+        <v>1.45</v>
+      </c>
+      <c r="I13" s="71">
+        <v>1.6</v>
+      </c>
+      <c r="J13" s="71">
+        <v>1.78</v>
+      </c>
+      <c r="K13" s="71">
+        <v>2.21</v>
+      </c>
+      <c r="L13" s="71">
+        <v>1.79</v>
+      </c>
+      <c r="M13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="71">
+        <v>2.19</v>
+      </c>
+      <c r="O13" s="71">
+        <v>1.64</v>
+      </c>
+      <c r="P13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>45218</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="C14">
+        <v>3.2</v>
+      </c>
+      <c r="D14">
+        <v>3.39</v>
+      </c>
+      <c r="E14">
+        <v>2.38</v>
+      </c>
+      <c r="F14">
+        <v>3.48</v>
+      </c>
+      <c r="G14">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H14">
+        <v>1.83</v>
+      </c>
+      <c r="I14" s="71">
+        <v>1.33</v>
+      </c>
+      <c r="J14" s="71">
+        <v>1.43</v>
+      </c>
+      <c r="K14" s="71">
+        <v>1.53</v>
+      </c>
+      <c r="L14" s="71">
+        <v>2.63</v>
+      </c>
+      <c r="M14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="71">
+        <v>1.77</v>
+      </c>
+      <c r="O14" s="71">
+        <v>1.98</v>
+      </c>
+      <c r="P14" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>45220</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="D15">
+        <v>3.65</v>
+      </c>
+      <c r="E15">
+        <v>2.87</v>
+      </c>
+      <c r="F15">
+        <v>4.25</v>
+      </c>
+      <c r="G15">
+        <v>1.75</v>
+      </c>
+      <c r="H15">
+        <v>2.15</v>
+      </c>
+      <c r="I15" s="71">
+        <v>1.24</v>
+      </c>
+      <c r="J15" s="71">
+        <v>404</v>
+      </c>
+      <c r="K15" s="71">
+        <v>1.42</v>
+      </c>
+      <c r="L15" s="71">
+        <v>2.81</v>
+      </c>
+      <c r="M15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="71">
+        <v>1.58</v>
+      </c>
+      <c r="O15" s="71">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="P15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>45220</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="C16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D16">
+        <v>2.91</v>
+      </c>
+      <c r="E16">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="F16">
+        <v>2.6</v>
+      </c>
+      <c r="G16">
+        <v>2.72</v>
+      </c>
+      <c r="H16">
+        <v>1.5</v>
+      </c>
+      <c r="I16" s="71">
+        <v>1.54</v>
+      </c>
+      <c r="J16" s="71">
+        <v>1.7</v>
+      </c>
+      <c r="K16" s="71">
+        <v>1.99</v>
+      </c>
+      <c r="L16" s="71">
+        <v>1.9</v>
+      </c>
+      <c r="M16" t="s">
+        <v>11</v>
+      </c>
+      <c r="N16" s="71">
+        <v>2.08</v>
+      </c>
+      <c r="O16" s="71">
+        <v>1.69</v>
+      </c>
+      <c r="P16" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>45220</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C17">
+        <v>1.69</v>
+      </c>
+      <c r="D17">
+        <v>3.59</v>
+      </c>
+      <c r="E17">
+        <v>6.36</v>
+      </c>
+      <c r="F17">
+        <v>2.6</v>
+      </c>
+      <c r="G17">
+        <v>2.68</v>
+      </c>
+      <c r="H17">
+        <v>1.53</v>
+      </c>
+      <c r="I17" s="71">
+        <v>1.55</v>
+      </c>
+      <c r="J17" s="71">
+        <v>1.7</v>
+      </c>
+      <c r="K17" s="71">
+        <v>1.98</v>
+      </c>
+      <c r="L17" s="71">
+        <v>1.93</v>
+      </c>
+      <c r="M17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" s="71">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="O17" s="71">
+        <v>1.53</v>
+      </c>
+      <c r="P17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>45224</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="Q18" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" t="s">
+        <v>11</v>
+      </c>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="Q23" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
